--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01839C0-140C-FF4E-ABD6-C729D73A0B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE2D7D4-5D8E-FA40-A314-3C9276222A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="-1100" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventories!$A$1:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventories!$A$1:$O$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="166">
   <si>
     <t>Database</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>market group for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>cubic meter</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -632,7 +635,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -939,10 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,7 +968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -972,7 +976,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -980,7 +985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -988,7 +993,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>121500000000.00002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>0.47500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -1083,12 +1088,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>B4</f>
         <v>transport, freight, sea, container ship, powered with hydrogen</v>
@@ -1149,7 +1154,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="5" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1190,7 +1195,7 @@
       <c r="M20"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
@@ -1229,7 +1234,7 @@
         <v>2.3148148148148148E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>2.7777777777777779E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1307,7 +1312,7 @@
         <v>9.2592592592592591E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>9.2592592592592589E-12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>9.2592592592592589E-12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1422,7 +1427,7 @@
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
@@ -1434,10 +1439,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1445,7 +1450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>90000000000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>72000000000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>140</v>
       </c>
@@ -1521,7 +1526,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -1548,12 +1553,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>B29</f>
         <v>transport, freight, sea, container ship, powered with electricity</v>
@@ -1614,7 +1619,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>1.7314814814814818E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1731,7 +1736,7 @@
         <v>1.3888888888888888E-11</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1775,7 @@
         <v>1.3888888888888888E-11</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1794,7 +1799,8 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
     </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>144000000000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -1905,12 +1911,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>13</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>B51</f>
         <v>transport, freight, sea, container ship, powered with liquid ammonia</v>
@@ -1971,7 +1977,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>7.1812596006144399E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>7.4074074074074075E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -2151,7 +2157,7 @@
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>1.7265625E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>3.4531250000000002E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>2.6562500000000005E-7</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>3.7187500000000001E-8</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>5.312500000000001E-7</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -2367,11 +2373,11 @@
         <v>1.7265625E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J78" s="6"/>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>144000000000</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>138</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -2482,12 +2488,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>B79</f>
         <v>transport, freight, sea, container ship, powered with methanol</v>
@@ -2548,7 +2554,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>68</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>6.7121320890165129E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -2689,7 +2695,7 @@
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
     </row>
-    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>9.1956209619526233E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>6.6488888888888891E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>3.601481481481482E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>1.9392592592592593E-6</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -2869,12 +2875,12 @@
         <v>6.787407407407408E-9</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
     </row>
-    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>97</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>90000000000</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>117000000000</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>140</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -2985,12 +2991,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>13</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f>B105</f>
         <v>transport, freight, sea, container ship, powered with synthetic methane</v>
@@ -3051,7 +3057,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>112</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>2.4605263157894738E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>44</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>1.1111111111111111E-11</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>50</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>1.1111111111111111E-11</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>52</v>
       </c>
@@ -3192,7 +3198,7 @@
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
     </row>
-    <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>71</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>6.7418421052631589E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>62</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="J126" s="6">
-        <f t="shared" ref="J126:J132" si="3">B126</f>
+        <f t="shared" ref="J126:J129" si="3">B126</f>
         <v>2.4154166666666673E-5</v>
       </c>
       <c r="K126" s="6">
@@ -3264,7 +3270,7 @@
         <v>2.6837962962962968E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>1.6881944444444447E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>116</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>4.3287037037037045E-7</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>63</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>4.3287037037037045E-7</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>117</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>1.4653801169590646E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -3444,7 +3450,7 @@
         <v>5.4830246913580262E-6</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -3480,7 +3486,9 @@
         <v>2.885802469135803E-7</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>3</v>
       </c>
@@ -3488,7 +3496,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +3512,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -3512,7 +3520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -3528,7 +3536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>96</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>158400000000</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>97</v>
       </c>
@@ -3546,7 +3554,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>98</v>
       </c>
@@ -3555,7 +3563,7 @@
         <v>162000000000</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3573,7 +3581,7 @@
         <v>0.41500000000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>138</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>139</v>
       </c>
@@ -3591,12 +3599,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f>B135</f>
         <v>transport, freight, sea, container ship, powered with synthetic liquefied petroleum gas</v>
@@ -3657,7 +3665,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>119</v>
       </c>
@@ -3696,7 +3704,7 @@
         <v>2.6744851258581237E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>44</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>6.5359477124183003E-12</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>6.5359477124183003E-12</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>52</v>
       </c>
@@ -3798,7 +3806,7 @@
       <c r="K154" s="11"/>
       <c r="L154" s="11"/>
     </row>
-    <row r="155" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>71</v>
       </c>
@@ -3834,7 +3842,7 @@
         <v>8.0234553775743716E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>62</v>
       </c>
@@ -3870,7 +3878,7 @@
         <v>2.6191265060240965E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -3906,7 +3914,7 @@
         <v>1.6475150602409637E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>116</v>
       </c>
@@ -3942,7 +3950,7 @@
         <v>4.2243975903614458E-7</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>63</v>
       </c>
@@ -3978,7 +3986,7 @@
         <v>4.2243975903614458E-7</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>1.640780513357779E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>64</v>
       </c>
@@ -4050,7 +4058,7 @@
         <v>5.3509036144578311E-6</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>118</v>
       </c>
@@ -4086,23 +4094,38 @@
         <v>2.8162650602409639E-7</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="11"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="11"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="11"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="11"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O176" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Water"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4277,7 +4300,7 @@
         <v>25</v>
       </c>
       <c r="N5" s="15">
-        <f t="shared" ref="N5:N8" si="3">L5*M5*(1-I5)</f>
+        <f t="shared" ref="N5" si="3">L5*M5*(1-I5)</f>
         <v>144000000000</v>
       </c>
       <c r="O5" s="15">

--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE2D7D4-5D8E-FA40-A314-3C9276222A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807AC885-4185-9949-A8A3-25A50053BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34260" yWindow="-920" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventories!$A$1:$O$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventories!$A$1:$O$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="191">
   <si>
     <t>Database</t>
   </si>
@@ -203,9 +203,6 @@
     <t>50% penalty of load carrying capacity, due to the low gravimetric density of batteries.</t>
   </si>
   <si>
-    <t>We assume a combined tank-to-wake efficiency of ~80%, so about the twice as much as the oil-powered option.</t>
-  </si>
-  <si>
     <t>A 6'700 MWh battery system is assumed, based on various prototypes.</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>methanol, purified</t>
   </si>
   <si>
-    <t>Assumes similar efficiency as with an oil-powered ship. Methanol LHV: 19.9 MJ/kg.</t>
-  </si>
-  <si>
     <t>Carbon dioxide, non-fossil</t>
   </si>
   <si>
@@ -287,9 +281,6 @@
     <t>Relative to Diesel</t>
   </si>
   <si>
-    <t>Diesel</t>
-  </si>
-  <si>
     <t>~36</t>
   </si>
   <si>
@@ -380,9 +371,6 @@
     <t>methane, from electrochemical methanation</t>
   </si>
   <si>
-    <t>Assumes similar efficiency as with an oil-powered ship. Methane LHV: 47.5 MJ/kg.</t>
-  </si>
-  <si>
     <t>Assumes 2.74 kg CO2 emitted per kg of methane combusted.</t>
   </si>
   <si>
@@ -416,9 +404,6 @@
     <t>Based on the ecoinvent dataset transport, freight, sea, container ship, to which we add an input of synthetic LPG and corresponding emissions. We assume a 12% penalty for the lifetime transport performance, compared to an oil-powered ship, due to the lower gravimetric density of LPG. This is of course highly uncertain, and is reflect in the distribution ranges. We assume a similar tank-to-wake efficiency as that of a martime oil-powered ship.</t>
   </si>
   <si>
-    <t>Assumes similar efficiency as with an oil-powered ship. LPG LHV: 46 MJ/kg.</t>
-  </si>
-  <si>
     <t>Lifetime (year)</t>
   </si>
   <si>
@@ -467,15 +452,9 @@
     <t>ecoinvent 3.10.1, with additional assumptions from Anna Ingwersen, Alvaro J. Hahn Menacho, Stephan Pfister, Jonathan N. Peel, Romain Sacchi, Christian Moretti, Prospective life cycle assessment of cost-effective pathways for achieving the FuelEU marine Regulation targets, Science of The Total Environment, Volume 958, 2025, https://doi.org/10.1016/j.scitotenv.2024.177880.</t>
   </si>
   <si>
-    <t>We assume a combined tank-to-wake efficiency of ~48–55%.</t>
-  </si>
-  <si>
     <t>9 kg H2O/kg H2</t>
   </si>
   <si>
-    <t>44% engine efficiency, according to Ingwersen et al, 2025. LHV of 18.6MJ/kg NH3.</t>
-  </si>
-  <si>
     <t>0.0048 kg CO/kWh shaft power. 38% efficiency. 19.9 MJ/kg methanol.</t>
   </si>
   <si>
@@ -534,6 +513,102 @@
   </si>
   <si>
     <t>cubic meter</t>
+  </si>
+  <si>
+    <t>cargo penalty estimate, mean</t>
+  </si>
+  <si>
+    <t>cargo penalty estimate, min</t>
+  </si>
+  <si>
+    <t>cargo penalty estimate, max</t>
+  </si>
+  <si>
+    <t>We assume a combined tank-to-wake efficiency of ~48–55%. We also penalize the fuel consumption because of the cargo penalty.</t>
+  </si>
+  <si>
+    <t>We assume a combined tank-to-wake efficiency of ~80%, so about the twice as much as the oil-powered option. We also penalize the fuel consumption because of the cargo penalty.</t>
+  </si>
+  <si>
+    <t>44% engine efficiency, according to Ingwersen et al, 2025. LHV of 18.6MJ/kg NH3. We also penalize the fuel consumption because of the cargo penalty.</t>
+  </si>
+  <si>
+    <t>Assumes similar efficiency as with an oil-powered ship. Methanol LHV: 19.9 MJ/kg. We also penalize the fuel consumption because of the cargo penalty.</t>
+  </si>
+  <si>
+    <t>Assumes similar efficiency as with an oil-powered ship. Methane LHV: 47.5 MJ/kg. We also penalize the fuel consumption because of the cargo penalty.</t>
+  </si>
+  <si>
+    <t>Assumes similar efficiency as with an oil-powered ship. LPG LHV: 46 MJ/kg. We also penalize the fuel consumption because of the cargo penalty.</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship, powered with synthetic diesel</t>
+  </si>
+  <si>
+    <t>Diesel/Marine oil</t>
+  </si>
+  <si>
+    <t>Based on the ecoinvent dataset transport, freight, sea, container ship, to which we add an input of synthetic diesel and corresponding emissions. We assume a similar tank-to-wake efficiency as that of a martime oil-powered ship.</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</t>
+  </si>
+  <si>
+    <t>diesel, synthetic</t>
+  </si>
+  <si>
+    <t>Assumes similar efficiency as with an oil-powered ship. Diesel LHV: 43 MJ/kg.</t>
+  </si>
+  <si>
+    <t>0.0009 kg CO/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.0026 kg NOx/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.00002 kg N2O/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.00025 kg PM 2.5/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.00001 kg CH4/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.00041 kg NMVOC/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship, powered with biodiesel</t>
+  </si>
+  <si>
+    <t>Based on the ecoinvent dataset transport, freight, sea, container ship, to which we add an input of biodiesel and corresponding emissions. We assume a similar tank-to-wake efficiency as that of a martime oil-powered ship.</t>
+  </si>
+  <si>
+    <t>biodiesel production, via Fischer-Tropsch, from forest product (non-residual), energy allocation</t>
+  </si>
+  <si>
+    <t>biodiesel, from forest residues</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship, powered with diesel</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>Carbon monoxide, fossil</t>
+  </si>
+  <si>
+    <t>Methane, fossil</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, petroleum refinery operation</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>diesel, low-sulfur</t>
   </si>
 </sst>
 </file>
@@ -942,11 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -968,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -976,8 +1050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -985,15 +1058,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1025,3107 +1098,4874 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <f>parameters!N7</f>
         <v>121500000000.00002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <f>parameters!O7</f>
         <v>108000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <f>parameters!P7</f>
         <v>135000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B13" s="13">
+        <f>parameters!I7</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="13">
+        <f>parameters!J7</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="13">
+        <f>parameters!K7</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="13">
         <f>parameters!$C$15</f>
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="13">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="13">
         <f>parameters!C18</f>
         <v>0.47500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="13">
         <f>parameters!D18</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="13">
         <f>parameters!E18</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
         <f>B4</f>
         <v>transport, freight, sea, container ship, powered with hydrogen</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="str">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="str">
         <f>B9</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G22" t="str">
         <f>B8</f>
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="5" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4">
-        <f>(0.11*(B13/B14))/120</f>
-        <v>8.2017543859649129E-4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="B23" s="4">
+        <f>(0.11*(B16/B17))/120/(1-B13)</f>
+        <v>1.2150747238466536E-3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="5">
-        <v>5</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" ref="J20:J25" si="0">B20</f>
-        <v>8.2017543859649129E-4</v>
-      </c>
-      <c r="K20" s="6">
-        <f>(0.11*(B13/B16))/120</f>
-        <v>7.0833333333333328E-4</v>
-      </c>
-      <c r="L20" s="6">
-        <f>(0.11*(B13/B15))/120</f>
-        <v>9.739583333333334E-4</v>
-      </c>
-      <c r="M20"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="H23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="5">
+        <v>5</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" ref="J23:J28" si="0">B23</f>
+        <v>1.2150747238466536E-3</v>
+      </c>
+      <c r="K23" s="6">
+        <f>(0.11*(B16/B19))/120/(1-B14)</f>
+        <v>9.4444444444444437E-4</v>
+      </c>
+      <c r="L23" s="6">
+        <f>(0.11*(B16/B18))/120/(1-B15)</f>
+        <v>1.6232638888888892E-3</v>
+      </c>
+      <c r="M23"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B24" s="9">
         <f>1600/B10</f>
         <v>1.316872427983539E-8</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G24" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="10">
-        <v>5</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="I24" s="10">
+        <v>5</v>
+      </c>
+      <c r="J24" s="11">
         <f t="shared" si="0"/>
         <v>1.316872427983539E-8</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K24" s="9">
         <f>1250/B12</f>
         <v>9.2592592592592591E-9</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L24" s="9">
         <f>2500/B11</f>
         <v>2.3148148148148148E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B25" s="9">
         <f>201000/B10</f>
         <v>1.6543209876543209E-6</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G25" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25" s="11">
         <f t="shared" si="0"/>
         <v>1.6543209876543209E-6</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K25" s="9">
         <f>105000/B12</f>
         <v>7.7777777777777779E-7</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L25" s="9">
         <f>300000/B11</f>
         <v>2.7777777777777779E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B26" s="9">
         <f>670000/B10</f>
         <v>5.5144032921810691E-6</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E26" t="s">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G26" t="s">
         <v>32</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H26" t="s">
         <v>48</v>
       </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" s="11">
         <f t="shared" si="0"/>
         <v>5.5144032921810691E-6</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K26" s="9">
         <f>350000/B12</f>
         <v>2.5925925925925925E-6</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L26" s="9">
         <f>1000000/B11</f>
         <v>9.2592592592592591E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B27" s="11">
         <f>1/B10</f>
         <v>8.2304526748971185E-12</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G27" t="s">
         <v>43</v>
       </c>
-      <c r="H24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24" s="11">
+      <c r="H27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27" s="11">
         <f t="shared" si="0"/>
         <v>8.2304526748971185E-12</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K27" s="11">
         <f>1/B12</f>
         <v>7.4074074074074068E-12</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L27" s="11">
         <f>1/B11</f>
         <v>9.2592592592592589E-12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B28" s="11">
         <f>1/B10</f>
         <v>8.2304526748971185E-12</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G28" t="s">
         <v>49</v>
       </c>
-      <c r="H25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="H28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" s="11">
         <f t="shared" si="0"/>
         <v>8.2304526748971185E-12</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K28" s="11">
         <f>1/B12</f>
         <v>7.4074074074074068E-12</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L28" s="11">
         <f>1/B11</f>
         <v>9.2592592592592589E-12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B29" s="11">
         <f>1.38106E-16</f>
         <v>1.38106E-16</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F29" t="s">
         <v>17</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G29" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="11">
-        <f>B20*9/1000</f>
-        <v>7.3815789473684209E-6</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" t="s">
+      <c r="B30" s="11">
+        <f>B23*9/1000</f>
+        <v>1.0935672514619883E-5</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="H30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38">
         <f>parameters!N8</f>
         <v>90000000000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39">
         <f>parameters!O8</f>
         <v>72000000000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40">
         <f>parameters!P8</f>
         <v>108000000000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="13">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="13">
+        <f>parameters!I8</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="13">
+        <f>parameters!J8</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="13">
+        <f>parameters!K8</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="13">
         <f>parameters!$C$15</f>
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="13">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="13">
         <f>parameters!C19</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="13">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="13">
         <f>parameters!D19</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="13">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="13">
         <f>parameters!E19</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="str">
-        <f>B29</f>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>B32</f>
         <v>transport, freight, sea, container ship, powered with electricity</v>
       </c>
-      <c r="B44">
+      <c r="B50">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" t="str">
-        <f>B34</f>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="str">
+        <f>B37</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F50" t="s">
         <v>16</v>
       </c>
-      <c r="G44" t="str">
-        <f>B33</f>
+      <c r="G50" t="str">
+        <f>B36</f>
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="17">
-        <f>0.11*(B38/B39)/3.6</f>
-        <v>1.623263888888889E-2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="17">
+        <f>0.11*(B44/B45)/3.6/(1-B41)</f>
+        <v>3.246527777777778E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
         <v>21</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F51" t="s">
         <v>17</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G51" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45" s="6">
-        <f>B45</f>
-        <v>1.623263888888889E-2</v>
-      </c>
-      <c r="K45" s="6">
-        <f>0.11*(B38/B41)/3.6</f>
-        <v>1.5277777777777781E-2</v>
-      </c>
-      <c r="L45" s="6">
-        <f>0.11*(B38/B40)/3.6</f>
-        <v>1.7314814814814818E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="H51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51" s="6">
+        <f>B51</f>
+        <v>3.246527777777778E-2</v>
+      </c>
+      <c r="K51" s="6">
+        <f>0.11*(B44/B47)/3.6/(1-B42)</f>
+        <v>2.5462962962962968E-2</v>
+      </c>
+      <c r="L51" s="6">
+        <f>0.11*(B44/B46)/3.6/(1-B43)</f>
+        <v>4.3287037037037041E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B52" s="9">
         <f>6700000/(180000000000*0.5)</f>
         <v>7.4444444444444444E-5</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E52" t="s">
         <v>21</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F52" t="s">
         <v>17</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G52" t="s">
         <v>32</v>
       </c>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
-      <c r="J46" s="11">
-        <f>B46</f>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52" s="11">
+        <f>B52</f>
         <v>7.4444444444444444E-5</v>
       </c>
-      <c r="K46" s="9">
-        <f>3500000/B37</f>
+      <c r="K52" s="9">
+        <f>3500000/B40</f>
         <v>3.2407407407407408E-5</v>
       </c>
-      <c r="L46" s="9">
-        <f>10000000/B36</f>
+      <c r="L52" s="9">
+        <f>10000000/B39</f>
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="11">
-        <f>1/B35</f>
+      <c r="B53" s="11">
+        <f>1/B38</f>
         <v>1.1111111111111111E-11</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C53" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F53" t="s">
         <v>17</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G53" t="s">
         <v>43</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H53" t="s">
         <v>54</v>
       </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="J47" s="11">
-        <f>B47</f>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53" s="11">
+        <f>B53</f>
         <v>1.1111111111111111E-11</v>
       </c>
-      <c r="K47" s="11">
-        <f>1/B37</f>
+      <c r="K53" s="11">
+        <f>1/B40</f>
         <v>9.2592592592592589E-12</v>
       </c>
-      <c r="L47" s="11">
-        <f>1/B36</f>
+      <c r="L53" s="11">
+        <f>1/B39</f>
         <v>1.3888888888888888E-11</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="11">
-        <f>1/B35</f>
+      <c r="B54" s="11">
+        <f>1/B38</f>
         <v>1.1111111111111111E-11</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>19</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E54" t="s">
         <v>8</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F54" t="s">
         <v>17</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G54" t="s">
         <v>49</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H54" t="s">
         <v>54</v>
       </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-      <c r="J48" s="11">
-        <f>B48</f>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54" s="11">
+        <f>B54</f>
         <v>1.1111111111111111E-11</v>
       </c>
-      <c r="K48" s="11">
-        <f>1/B37</f>
+      <c r="K54" s="11">
+        <f>1/B40</f>
         <v>9.2592592592592589E-12</v>
       </c>
-      <c r="L48" s="11">
-        <f>1/B36</f>
+      <c r="L54" s="11">
+        <f>1/B39</f>
         <v>1.3888888888888888E-11</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B55" s="11">
         <f>1.38106E-16</f>
         <v>1.38106E-16</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C55" t="s">
         <v>19</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E55" t="s">
         <v>8</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F55" t="s">
         <v>17</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G55" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>4</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>8</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63">
         <f>parameters!N6</f>
         <v>144000000000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64">
         <f>parameters!O6</f>
         <v>135000000000</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65">
         <f>parameters!P6</f>
         <v>153000000000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="13">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="13">
+        <f>parameters!I6</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="13">
+        <f>parameters!J6</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="13">
+        <f>parameters!K6</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="13">
         <f>parameters!$C$15</f>
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="13">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="13">
         <f>parameters!C17</f>
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="13">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="13">
         <f>parameters!D17</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="13">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="13">
         <f>parameters!E17</f>
         <v>0.45</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
-        <f>B51</f>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>B57</f>
         <v>transport, freight, sea, container ship, powered with liquid ammonia</v>
       </c>
-      <c r="B66">
+      <c r="B75">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" t="str">
-        <f>B56</f>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="str">
+        <f>B62</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F75" t="s">
         <v>16</v>
       </c>
-      <c r="G66" t="str">
-        <f>B55</f>
+      <c r="G75" t="str">
+        <f>B61</f>
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="12">
+        <f>(0.11*(B69/B70))/18.6/(1-B66)</f>
+        <v>7.1404569892473116E-3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="12">
-        <f>(0.11*(B60/B61))/18.6</f>
-        <v>5.7123655913978496E-3</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="H76" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76" s="6">
+        <f>B76</f>
+        <v>7.1404569892473116E-3</v>
+      </c>
+      <c r="K76" s="6">
+        <f>(0.11*(B69/B72))/18.6/(1-B67)</f>
+        <v>6.5710872162485076E-3</v>
+      </c>
+      <c r="L76" s="6">
+        <f>(0.11*(B69/B71))/18.6/(1-B68)</f>
+        <v>9.5750128008192537E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="9">
+        <f>5000/B63</f>
+        <v>3.472222222222222E-8</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
         <v>17</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" t="s">
         <v>59</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I67">
-        <v>5</v>
-      </c>
-      <c r="J67" s="6">
-        <f>B67</f>
-        <v>5.7123655913978496E-3</v>
-      </c>
-      <c r="K67" s="6">
-        <f>(0.11*(B60/B63))/18.6</f>
-        <v>5.5854241338112315E-3</v>
-      </c>
-      <c r="L67" s="6">
-        <f>(0.11*(B60/B62))/18.6</f>
-        <v>7.1812596006144399E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="9">
-        <f>5000/B57</f>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77" s="11">
+        <f>B77</f>
         <v>3.472222222222222E-8</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="K77" s="9">
+        <f>350000/B65</f>
+        <v>2.2875816993464053E-6</v>
+      </c>
+      <c r="L77" s="9">
+        <f>1000000/B64</f>
+        <v>7.4074074074074075E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="11">
+        <f>1/B63</f>
+        <v>6.9444444444444442E-12</v>
+      </c>
+      <c r="C78" t="s">
         <v>19</v>
       </c>
-      <c r="E68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
         <v>17</v>
       </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" t="s">
-        <v>60</v>
-      </c>
-      <c r="I68">
-        <v>5</v>
-      </c>
-      <c r="J68" s="11">
-        <f>B68</f>
-        <v>3.472222222222222E-8</v>
-      </c>
-      <c r="K68" s="9">
-        <f>350000/B59</f>
-        <v>2.2875816993464053E-6</v>
-      </c>
-      <c r="L68" s="9">
-        <f>1000000/B58</f>
-        <v>7.4074074074074075E-6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="11">
-        <f>1/B57</f>
+      <c r="G78" t="s">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78" s="11">
+        <f>B78</f>
         <v>6.9444444444444442E-12</v>
       </c>
-      <c r="C69" t="s">
+      <c r="K78" s="11">
+        <f>1/B65</f>
+        <v>6.5359477124183003E-12</v>
+      </c>
+      <c r="L78" s="11">
+        <f>1/B64</f>
+        <v>7.4074074074074068E-12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="11">
+        <f>1/B63</f>
+        <v>6.9444444444444442E-12</v>
+      </c>
+      <c r="C79" t="s">
         <v>19</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E79" t="s">
         <v>8</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F79" t="s">
         <v>17</v>
       </c>
-      <c r="G69" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" t="s">
-        <v>65</v>
-      </c>
-      <c r="I69">
-        <v>5</v>
-      </c>
-      <c r="J69" s="11">
-        <f>B69</f>
+      <c r="G79" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79" s="11">
+        <f>B79</f>
         <v>6.9444444444444442E-12</v>
       </c>
-      <c r="K69" s="11">
-        <f>1/B59</f>
+      <c r="K79" s="11">
+        <f>1/B65</f>
         <v>6.5359477124183003E-12</v>
       </c>
-      <c r="L69" s="11">
-        <f>1/B58</f>
+      <c r="L79" s="11">
+        <f>1/B64</f>
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="11">
-        <f>1/B57</f>
-        <v>6.9444444444444442E-12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" t="s">
-        <v>65</v>
-      </c>
-      <c r="I70">
-        <v>5</v>
-      </c>
-      <c r="J70" s="11">
-        <f>B70</f>
-        <v>6.9444444444444442E-12</v>
-      </c>
-      <c r="K70" s="11">
-        <f>1/B59</f>
-        <v>6.5359477124183003E-12</v>
-      </c>
-      <c r="L70" s="11">
-        <f>1/B58</f>
-        <v>7.4074074074074068E-12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B80" s="11">
         <f>1.38106E-16</f>
         <v>1.38106E-16</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C80" t="s">
         <v>19</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E80" t="s">
         <v>8</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F80" t="s">
         <v>17</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G80" t="s">
         <v>51</v>
       </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81">
+        <f>0.00013*(B76*18.6*B70/3.6)</f>
+        <v>2.1102430555555555E-6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81" s="6">
+        <f t="shared" ref="J81:J86" si="1">B81</f>
+        <v>2.1102430555555555E-6</v>
+      </c>
+      <c r="K81" s="6">
+        <f>0.00013*(B76*18.6*B71/3.6)</f>
+        <v>1.6786024305555552E-6</v>
+      </c>
+      <c r="L81" s="6">
+        <f>0.00013*(B76*18.6*B72/3.6)</f>
+        <v>2.1582031249999997E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <f>0.0026*(B76*18.6*B70/3.6)</f>
+        <v>4.2204861111111112E-5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2204861111111112E-5</v>
+      </c>
+      <c r="K82" s="6">
+        <f>0.0026*(B76*18.6*B71/3.6)</f>
+        <v>3.3572048611111104E-5</v>
+      </c>
+      <c r="L82" s="6">
+        <f>0.0026*(B76*18.6*B72/3.6)</f>
+        <v>4.3164062499999996E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>62</v>
       </c>
-      <c r="B72">
-        <f>0.00013*(B67*18.6*B61/3.6)</f>
-        <v>1.6881944444444445E-6</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="B83">
+        <f>0.00002*(B76*18.6*B70/3.6)</f>
+        <v>3.2465277777777784E-7</v>
+      </c>
+      <c r="D83" t="s">
         <v>23</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F83" t="s">
         <v>20</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H83" t="s">
         <v>73</v>
       </c>
-      <c r="I72">
-        <v>5</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" ref="J72:J77" si="1">B72</f>
-        <v>1.6881944444444445E-6</v>
-      </c>
-      <c r="K72" s="6">
-        <f>0.00013*(B67*18.6*B62/3.6)</f>
-        <v>1.3428819444444444E-6</v>
-      </c>
-      <c r="L72" s="6">
-        <f>0.00013*(B67*18.6*B63/3.6)</f>
-        <v>1.7265625E-6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73">
-        <f>0.0026*(B67*18.6*B61/3.6)</f>
-        <v>3.3763888888888895E-5</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="J83" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2465277777777784E-7</v>
+      </c>
+      <c r="K83" s="6">
+        <f>0.00002*(B76*18.6*B71/3.6)</f>
+        <v>2.5824652777777776E-7</v>
+      </c>
+      <c r="L83" s="6">
+        <f>0.00002*(B76*18.6*B72/3.6)</f>
+        <v>3.3203125000000002E-7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84">
+        <f>0.0000028*(B76*18.6*B70/3.6)</f>
+        <v>4.5451388888888888E-8</v>
+      </c>
+      <c r="D84" t="s">
         <v>23</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E84" t="s">
         <v>9</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F84" t="s">
         <v>20</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H84" t="s">
         <v>74</v>
       </c>
-      <c r="I73">
-        <v>5</v>
-      </c>
-      <c r="J73" s="6">
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="J84" s="6">
         <f t="shared" si="1"/>
-        <v>3.3763888888888895E-5</v>
-      </c>
-      <c r="K73" s="6">
-        <f>0.0026*(B67*18.6*B62/3.6)</f>
-        <v>2.6857638888888886E-5</v>
-      </c>
-      <c r="L73" s="6">
-        <f>0.0026*(B67*18.6*B63/3.6)</f>
-        <v>3.4531250000000002E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74">
-        <f>0.00002*(B67*18.6*B61/3.6)</f>
-        <v>2.5972222222222228E-7</v>
-      </c>
-      <c r="D74" t="s">
+        <v>4.5451388888888888E-8</v>
+      </c>
+      <c r="K84" s="6">
+        <f>0.0000028*(B76*18.6*B71/3.6)</f>
+        <v>3.6154513888888877E-8</v>
+      </c>
+      <c r="L84" s="6">
+        <f>0.0000028*(B76*18.6*B72/3.6)</f>
+        <v>4.6484374999999998E-8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85">
+        <f>0.00004*(B76*18.6*B70/3.6)</f>
+        <v>6.4930555555555568E-7</v>
+      </c>
+      <c r="D85" t="s">
         <v>23</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E85" t="s">
         <v>9</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F85" t="s">
         <v>20</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H85" t="s">
         <v>75</v>
       </c>
-      <c r="I74">
-        <v>5</v>
-      </c>
-      <c r="J74" s="6">
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="J85" s="6">
         <f t="shared" si="1"/>
-        <v>2.5972222222222228E-7</v>
-      </c>
-      <c r="K74" s="6">
-        <f>0.00002*(B67*18.6*B62/3.6)</f>
-        <v>2.0659722222222224E-7</v>
-      </c>
-      <c r="L74" s="6">
-        <f>0.00002*(B67*18.6*B63/3.6)</f>
-        <v>2.6562500000000005E-7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75">
-        <f>0.0000028*(B67*18.6*B61/3.6)</f>
-        <v>3.6361111111111118E-8</v>
-      </c>
-      <c r="D75" t="s">
+        <v>6.4930555555555568E-7</v>
+      </c>
+      <c r="K85" s="6">
+        <f>0.00004*(B76*18.6*B71/3.6)</f>
+        <v>5.1649305555555552E-7</v>
+      </c>
+      <c r="L85" s="6">
+        <f>0.00004*(B76*18.6*B72/3.6)</f>
+        <v>6.6406250000000005E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <f>0.000046*(B76*18.6*B70/3.6)</f>
+        <v>7.4670138888888891E-7</v>
+      </c>
+      <c r="D86" t="s">
         <v>23</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F86" t="s">
         <v>20</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H86" t="s">
         <v>76</v>
       </c>
-      <c r="I75">
-        <v>5</v>
-      </c>
-      <c r="J75" s="6">
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86" s="6">
         <f t="shared" si="1"/>
-        <v>3.6361111111111118E-8</v>
-      </c>
-      <c r="K75" s="6">
-        <f>0.0000028*(B67*18.6*B62/3.6)</f>
-        <v>2.8923611111111108E-8</v>
-      </c>
-      <c r="L75" s="6">
-        <f>0.0000028*(B67*18.6*B63/3.6)</f>
-        <v>3.7187500000000001E-8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76">
-        <f>0.00004*(B67*18.6*B61/3.6)</f>
-        <v>5.1944444444444457E-7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" t="s">
-        <v>77</v>
-      </c>
-      <c r="I76">
-        <v>5</v>
-      </c>
-      <c r="J76" s="6">
-        <f t="shared" si="1"/>
-        <v>5.1944444444444457E-7</v>
-      </c>
-      <c r="K76" s="6">
-        <f>0.00004*(B67*18.6*B62/3.6)</f>
-        <v>4.1319444444444447E-7</v>
-      </c>
-      <c r="L76" s="6">
-        <f>0.00004*(B67*18.6*B63/3.6)</f>
-        <v>5.312500000000001E-7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77">
-        <f>0.000046*(B67*18.6*B61/3.6)</f>
-        <v>5.9736111111111119E-7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" t="s">
-        <v>78</v>
-      </c>
-      <c r="I77">
-        <v>5</v>
-      </c>
-      <c r="J77" s="6">
-        <f t="shared" si="1"/>
-        <v>5.9736111111111119E-7</v>
-      </c>
-      <c r="K77" s="11">
-        <f>0.00001*(B67*18.6*B62/3.6)</f>
-        <v>1.0329861111111112E-7</v>
-      </c>
-      <c r="L77">
-        <f>0.00013*(B67*18.6*B63/3.6)</f>
-        <v>1.7265625E-6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="J78" s="6"/>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+        <v>7.4670138888888891E-7</v>
+      </c>
+      <c r="K86" s="11">
+        <f>0.00001*(B76*18.6*B71/3.6)</f>
+        <v>1.2912326388888888E-7</v>
+      </c>
+      <c r="L86">
+        <f>0.00013*(B76*18.6*B72/3.6)</f>
+        <v>2.1582031249999997E-6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="J87" s="6"/>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B88" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>10</v>
       </c>
-      <c r="B81" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>4</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>6</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B92" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B93" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
         <f>parameters!N5</f>
         <v>144000000000</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
         <f>parameters!O5</f>
         <v>135000000000</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
         <f>parameters!P5</f>
         <v>153000000000</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="13">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="13">
+        <f>parameters!I5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="13">
+        <f>parameters!J5</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99" s="13">
+        <f>parameters!K5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="13">
         <f>parameters!$C$15</f>
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" s="13">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="13">
         <f>parameters!C16</f>
         <v>0.375</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="13">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="13">
         <f>parameters!D16</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="13">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="13">
         <f>parameters!E16</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" t="str">
-        <f>B79</f>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <f>B88</f>
         <v>transport, freight, sea, container ship, powered with methanol</v>
       </c>
-      <c r="B94">
+      <c r="B106">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" t="str">
-        <f>B84</f>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="str">
+        <f>B93</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F106" t="s">
         <v>16</v>
       </c>
-      <c r="G94" t="str">
-        <f>B83</f>
+      <c r="G106" t="str">
+        <f>B92</f>
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="12">
+        <f>0.11*(B100/B101)/19.9/(1-B97)</f>
+        <v>7.8308207705192652E-3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
         <v>68</v>
       </c>
-      <c r="B95" s="12">
-        <f>0.11*(B88/B89)/19.9</f>
-        <v>6.2646566164154122E-3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="H107" t="s">
+        <v>165</v>
+      </c>
+      <c r="I107">
+        <v>5</v>
+      </c>
+      <c r="J107" s="6">
+        <f>B107</f>
+        <v>7.8308207705192652E-3</v>
+      </c>
+      <c r="K107" s="6">
+        <f>0.11*(B100/B103)/19.9/(1-B98)</f>
+        <v>6.9095477386934686E-3</v>
+      </c>
+      <c r="L107" s="6">
+        <f>0.11*(B100/B102)/19.9/(1-B99)</f>
+        <v>8.9495094520220166E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="11">
+        <f>1/B94</f>
+        <v>6.9444444444444442E-12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
         <v>17</v>
       </c>
-      <c r="G95" t="s">
-        <v>69</v>
-      </c>
-      <c r="H95" t="s">
-        <v>70</v>
-      </c>
-      <c r="I95">
-        <v>5</v>
-      </c>
-      <c r="J95" s="6">
-        <f>B95</f>
-        <v>6.2646566164154122E-3</v>
-      </c>
-      <c r="K95" s="6">
-        <f>0.11*(B88/B91)/19.9</f>
-        <v>5.873115577889448E-3</v>
-      </c>
-      <c r="L95" s="6">
-        <f>0.11*(B88/B90)/19.9</f>
-        <v>6.7121320890165129E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="11">
-        <f>1/B85</f>
+      <c r="G108" t="s">
+        <v>43</v>
+      </c>
+      <c r="H108" t="s">
+        <v>66</v>
+      </c>
+      <c r="I108">
+        <v>5</v>
+      </c>
+      <c r="J108" s="11">
+        <f>B108</f>
         <v>6.9444444444444442E-12</v>
       </c>
-      <c r="C96" t="s">
+      <c r="K108" s="11">
+        <f>1/B96</f>
+        <v>6.5359477124183003E-12</v>
+      </c>
+      <c r="L108" s="11">
+        <f>1/B95</f>
+        <v>7.4074074074074068E-12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="11">
+        <f>1/B94</f>
+        <v>6.9444444444444442E-12</v>
+      </c>
+      <c r="C109" t="s">
         <v>19</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E109" t="s">
         <v>8</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F109" t="s">
         <v>17</v>
       </c>
-      <c r="G96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s">
-        <v>67</v>
-      </c>
-      <c r="I96">
-        <v>5</v>
-      </c>
-      <c r="J96" s="11">
-        <f>B96</f>
+      <c r="G109" t="s">
+        <v>49</v>
+      </c>
+      <c r="H109" t="s">
+        <v>66</v>
+      </c>
+      <c r="I109">
+        <v>5</v>
+      </c>
+      <c r="J109" s="11">
+        <f>B109</f>
         <v>6.9444444444444442E-12</v>
       </c>
-      <c r="K96" s="11">
-        <f>1/B87</f>
+      <c r="K109" s="11">
+        <f>1/B96</f>
         <v>6.5359477124183003E-12</v>
       </c>
-      <c r="L96" s="11">
-        <f>1/B86</f>
+      <c r="L109" s="11">
+        <f>1/B95</f>
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" s="11">
-        <f>1/B85</f>
-        <v>6.9444444444444442E-12</v>
-      </c>
-      <c r="C97" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>49</v>
-      </c>
-      <c r="H97" t="s">
-        <v>67</v>
-      </c>
-      <c r="I97">
-        <v>5</v>
-      </c>
-      <c r="J97" s="11">
-        <f>B97</f>
-        <v>6.9444444444444442E-12</v>
-      </c>
-      <c r="K97" s="11">
-        <f>1/B87</f>
-        <v>6.5359477124183003E-12</v>
-      </c>
-      <c r="L97" s="11">
-        <f>1/B86</f>
-        <v>7.4074074074074068E-12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B110" s="11">
         <f>1.38106E-16</f>
         <v>1.38106E-16</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C110" t="s">
         <v>19</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E110" t="s">
         <v>8</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F110" t="s">
         <v>17</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G110" t="s">
         <v>51</v>
       </c>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-    </row>
-    <row r="99" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>71</v>
-      </c>
-      <c r="B99" s="12">
-        <f>B95*1.37</f>
-        <v>8.5825795644891151E-3</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+    </row>
+    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="12">
+        <f>B107*1.37</f>
+        <v>1.0728224455611394E-2</v>
+      </c>
+      <c r="D111" t="s">
         <v>23</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E111" t="s">
         <v>9</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F111" t="s">
         <v>20</v>
       </c>
-      <c r="H99" t="s">
-        <v>72</v>
-      </c>
-      <c r="I99">
-        <v>5</v>
-      </c>
-      <c r="J99" s="6">
-        <f>B99</f>
-        <v>8.5825795644891151E-3</v>
-      </c>
-      <c r="K99" s="6">
-        <f>K95*1.37</f>
-        <v>8.0461683417085445E-3</v>
-      </c>
-      <c r="L99" s="6">
-        <f>L95*1.37</f>
-        <v>9.1956209619526233E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>5</v>
+      </c>
+      <c r="J111" s="6">
+        <f>B111</f>
+        <v>1.0728224455611394E-2</v>
+      </c>
+      <c r="K111" s="6">
+        <f>K107*1.37</f>
+        <v>9.466080402010052E-3</v>
+      </c>
+      <c r="L111" s="6">
+        <f>L107*1.37</f>
+        <v>1.2260827949270164E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" s="11">
+        <f>0.0048*(B107*19.9*B101/3.6)</f>
+        <v>7.7916666666666686E-5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>139</v>
+      </c>
+      <c r="I112">
+        <v>5</v>
+      </c>
+      <c r="J112" s="6">
+        <f t="shared" ref="J112:J115" si="2">B112</f>
+        <v>7.7916666666666686E-5</v>
+      </c>
+      <c r="K112" s="6">
+        <f>0.0048*(B107*19.9*B102/3.6)</f>
+        <v>7.2722222222222231E-5</v>
+      </c>
+      <c r="L112" s="6">
+        <f>0.0048*(B107*19.9*B103/3.6)</f>
+        <v>8.3111111111111141E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113">
+        <f>0.0026*(B107*19.9*B101/3.6)</f>
+        <v>4.2204861111111119E-5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>140</v>
+      </c>
+      <c r="I113">
+        <v>5</v>
+      </c>
+      <c r="J113" s="6">
+        <f t="shared" si="2"/>
+        <v>4.2204861111111119E-5</v>
+      </c>
+      <c r="K113" s="6">
+        <f>0.0026*(B107*19.9*B102/3.6)</f>
+        <v>3.9391203703703708E-5</v>
+      </c>
+      <c r="L113" s="6">
+        <f>0.0026*(B107*19.9*B103/3.6)</f>
+        <v>4.5018518518518536E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="11">
-        <f>0.0048*(B95*19.9*B89/3.6)</f>
-        <v>6.2333333333333335E-5</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="B114">
+        <f>0.00014*(B107*19.9*B101/3.6)</f>
+        <v>2.2725694444444447E-6</v>
+      </c>
+      <c r="D114" t="s">
         <v>23</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E114" t="s">
         <v>9</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F114" t="s">
         <v>20</v>
       </c>
-      <c r="H100" t="s">
-        <v>146</v>
-      </c>
-      <c r="I100">
-        <v>5</v>
-      </c>
-      <c r="J100" s="6">
-        <f t="shared" ref="J100:J103" si="2">B100</f>
-        <v>6.2333333333333335E-5</v>
-      </c>
-      <c r="K100" s="6">
-        <f>0.0048*(B95*19.9*B90/3.6)</f>
-        <v>5.8177777777777779E-5</v>
-      </c>
-      <c r="L100" s="6">
-        <f>0.0048*(B95*19.9*B91/3.6)</f>
-        <v>6.6488888888888891E-5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101">
-        <f>0.0026*(B95*19.9*B89/3.6)</f>
-        <v>3.3763888888888895E-5</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="H114" t="s">
+        <v>141</v>
+      </c>
+      <c r="I114">
+        <v>5</v>
+      </c>
+      <c r="J114" s="6">
+        <f t="shared" si="2"/>
+        <v>2.2725694444444447E-6</v>
+      </c>
+      <c r="K114" s="6">
+        <f>0.00014*(B107*19.9*B102/3.6)</f>
+        <v>2.1210648148148152E-6</v>
+      </c>
+      <c r="L114" s="6">
+        <f>0.00014*(B107*19.9*B103/3.6)</f>
+        <v>2.4240740740740747E-6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115">
+        <f>0.00000049*(B107*19.9*B101/3.6)</f>
+        <v>7.9539930555555566E-9</v>
+      </c>
+      <c r="D115" t="s">
         <v>23</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E115" t="s">
         <v>9</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F115" t="s">
         <v>20</v>
       </c>
-      <c r="H101" t="s">
-        <v>147</v>
-      </c>
-      <c r="I101">
-        <v>5</v>
-      </c>
-      <c r="J101" s="6">
+      <c r="H115" t="s">
+        <v>142</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+      <c r="J115" s="6">
         <f t="shared" si="2"/>
-        <v>3.3763888888888895E-5</v>
-      </c>
-      <c r="K101" s="6">
-        <f>0.0026*(B95*19.9*B90/3.6)</f>
-        <v>3.1512962962962963E-5</v>
-      </c>
-      <c r="L101" s="6">
-        <f>0.0026*(B95*19.9*B91/3.6)</f>
-        <v>3.601481481481482E-5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102">
-        <f>0.00014*(B95*19.9*B89/3.6)</f>
-        <v>1.8180555555555556E-6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" t="s">
-        <v>148</v>
-      </c>
-      <c r="I102">
-        <v>5</v>
-      </c>
-      <c r="J102" s="6">
-        <f t="shared" si="2"/>
-        <v>1.8180555555555556E-6</v>
-      </c>
-      <c r="K102" s="6">
-        <f>0.00014*(B95*19.9*B90/3.6)</f>
-        <v>1.6968518518518519E-6</v>
-      </c>
-      <c r="L102" s="6">
-        <f>0.00014*(B95*19.9*B91/3.6)</f>
-        <v>1.9392592592592593E-6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103">
-        <f>0.00000049*(B95*19.9*B89/3.6)</f>
-        <v>6.3631944444444453E-9</v>
-      </c>
-      <c r="D103" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" t="s">
-        <v>149</v>
-      </c>
-      <c r="I103">
-        <v>5</v>
-      </c>
-      <c r="J103" s="6">
-        <f t="shared" si="2"/>
-        <v>6.3631944444444453E-9</v>
-      </c>
-      <c r="K103" s="6">
-        <f>0.00000049*(B95*19.9*B90/3.6)</f>
-        <v>5.9389814814814818E-9</v>
-      </c>
-      <c r="L103" s="6">
-        <f>0.00000049*(B95*19.9*B91/3.6)</f>
-        <v>6.787407407407408E-9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-    </row>
-    <row r="105" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+        <v>7.9539930555555566E-9</v>
+      </c>
+      <c r="K115" s="6">
+        <f>0.00000049*(B107*19.9*B102/3.6)</f>
+        <v>7.4237268518518529E-9</v>
+      </c>
+      <c r="L115" s="6">
+        <f>0.00000049*(B107*19.9*B103/3.6)</f>
+        <v>8.4842592592592621E-9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="B117" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>11</v>
       </c>
-      <c r="B106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>10</v>
       </c>
-      <c r="B107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>4</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>6</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B121" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>8</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B122" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" s="11">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>93</v>
+      </c>
+      <c r="B123" s="11">
         <f>parameters!N10</f>
         <v>108000000000</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>97</v>
-      </c>
-      <c r="B112" s="11">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>94</v>
+      </c>
+      <c r="B124" s="11">
         <f>parameters!O10</f>
         <v>90000000000</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>98</v>
-      </c>
-      <c r="B113" s="11">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>95</v>
+      </c>
+      <c r="B125" s="11">
         <f>parameters!P10</f>
         <v>117000000000</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>140</v>
-      </c>
-      <c r="B114" s="13">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="13">
+        <f>parameters!I10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="13">
+        <f>parameters!J10</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="13">
+        <f>parameters!K10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" s="13">
         <f>parameters!$C$15</f>
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>137</v>
-      </c>
-      <c r="B115" s="13">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="13">
         <f>parameters!C21</f>
         <v>0.45</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>138</v>
-      </c>
-      <c r="B116" s="13">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" s="13">
         <f>parameters!D21</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>139</v>
-      </c>
-      <c r="B117" s="13">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" s="13">
         <f>parameters!E21</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="J134" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K134" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="L134" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" t="str">
-        <f>B105</f>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" t="str">
+        <f>B117</f>
         <v>transport, freight, sea, container ship, powered with synthetic methane</v>
       </c>
-      <c r="B120">
+      <c r="B135">
         <v>1</v>
       </c>
-      <c r="C120" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" t="str">
-        <f>B110</f>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" t="str">
+        <f>B122</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F135" t="s">
         <v>16</v>
       </c>
-      <c r="G120" t="str">
-        <f>B109</f>
+      <c r="G135" t="str">
+        <f>B121</f>
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>112</v>
-      </c>
-      <c r="B121" s="12">
-        <f>0.11*(B114/B115)/47.5</f>
-        <v>2.1871345029239771E-3</v>
-      </c>
-      <c r="C121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" t="s">
+    <row r="136" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="12">
+        <f>0.11*(B129/B130)/47.5/(1-B126)</f>
+        <v>3.6452241715399618E-3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
         <v>9</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F136" t="s">
         <v>17</v>
       </c>
-      <c r="G121" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H121" t="s">
-        <v>114</v>
-      </c>
-      <c r="I121">
-        <v>5</v>
-      </c>
-      <c r="J121">
-        <f>B121</f>
-        <v>2.1871345029239771E-3</v>
-      </c>
-      <c r="K121" s="6">
-        <f>0.11*(B114/B117)/47.5</f>
-        <v>1.9684210526315794E-3</v>
-      </c>
-      <c r="L121" s="6">
-        <f>0.11*(B114/B116)/47.5</f>
-        <v>2.4605263157894738E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="G136" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H136" t="s">
+        <v>166</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
+      <c r="J136">
+        <f>B136</f>
+        <v>3.6452241715399618E-3</v>
+      </c>
+      <c r="K136" s="6">
+        <f>0.11*(B129/B132)/47.5/(1-B127)</f>
+        <v>3.0283400809716604E-3</v>
+      </c>
+      <c r="L136" s="6">
+        <f>0.11*(B129/B131)/47.5/(1-B128)</f>
+        <v>4.9210526315789475E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="11">
-        <f>1/B111</f>
+      <c r="B137" s="11">
+        <f>1/B123</f>
         <v>9.2592592592592589E-12</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C137" t="s">
         <v>19</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E137" t="s">
         <v>8</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F137" t="s">
         <v>17</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G137" t="s">
         <v>43</v>
       </c>
-      <c r="H122" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122">
-        <v>5</v>
-      </c>
-      <c r="J122" s="11">
-        <f>B122</f>
+      <c r="H137" t="s">
+        <v>118</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137" s="11">
+        <f>B137</f>
         <v>9.2592592592592589E-12</v>
       </c>
-      <c r="K122" s="11">
-        <f>1/B113</f>
+      <c r="K137" s="11">
+        <f>1/B125</f>
         <v>8.5470085470085473E-12</v>
       </c>
-      <c r="L122" s="11">
-        <f>1/B112</f>
+      <c r="L137" s="11">
+        <f>1/B124</f>
         <v>1.1111111111111111E-11</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="11">
-        <f>1/B111</f>
+      <c r="B138" s="11">
+        <f>1/B123</f>
         <v>9.2592592592592589E-12</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C138" t="s">
         <v>19</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E138" t="s">
         <v>8</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F138" t="s">
         <v>17</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G138" t="s">
         <v>49</v>
       </c>
-      <c r="H123" t="s">
-        <v>122</v>
-      </c>
-      <c r="I123">
-        <v>5</v>
-      </c>
-      <c r="J123" s="11">
-        <f>B123</f>
+      <c r="H138" t="s">
+        <v>118</v>
+      </c>
+      <c r="I138">
+        <v>5</v>
+      </c>
+      <c r="J138" s="11">
+        <f>B138</f>
         <v>9.2592592592592589E-12</v>
       </c>
-      <c r="K123" s="11">
-        <f>1/B113</f>
+      <c r="K138" s="11">
+        <f>1/B125</f>
         <v>8.5470085470085473E-12</v>
       </c>
-      <c r="L123" s="11">
-        <f>1/B112</f>
+      <c r="L138" s="11">
+        <f>1/B124</f>
         <v>1.1111111111111111E-11</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>52</v>
       </c>
-      <c r="B124" s="11">
+      <c r="B139" s="11">
         <f>1.38106E-16</f>
         <v>1.38106E-16</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C139" t="s">
         <v>19</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E139" t="s">
         <v>8</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F139" t="s">
         <v>17</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G139" t="s">
         <v>51</v>
       </c>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-    </row>
-    <row r="125" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>71</v>
-      </c>
-      <c r="B125" s="12">
-        <f>B121*2.74</f>
-        <v>5.9927485380116977E-3</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+    </row>
+    <row r="140" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" s="12">
+        <f>B136*2.74</f>
+        <v>9.9879142300194953E-3</v>
+      </c>
+      <c r="D140" t="s">
         <v>23</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E140" t="s">
         <v>9</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F140" t="s">
         <v>20</v>
       </c>
-      <c r="H125" t="s">
-        <v>115</v>
-      </c>
-      <c r="I125">
-        <v>5</v>
-      </c>
-      <c r="J125" s="6">
-        <f>B125</f>
-        <v>5.9927485380116977E-3</v>
-      </c>
-      <c r="K125" s="6">
-        <f>K121*2.74</f>
-        <v>5.3934736842105278E-3</v>
-      </c>
-      <c r="L125" s="6">
-        <f>L121*2.74</f>
-        <v>6.7418421052631589E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="H140" t="s">
+        <v>111</v>
+      </c>
+      <c r="I140">
+        <v>5</v>
+      </c>
+      <c r="J140" s="6">
+        <f>B140</f>
+        <v>9.9879142300194953E-3</v>
+      </c>
+      <c r="K140" s="6">
+        <f>K136*2.74</f>
+        <v>8.2976518218623504E-3</v>
+      </c>
+      <c r="L140" s="6">
+        <f>L136*2.74</f>
+        <v>1.3483684210526318E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141" s="11">
+        <f>0.00186*(B136*47.5*B130/3.6)</f>
+        <v>4.0256944444444453E-5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="s">
+        <v>143</v>
+      </c>
+      <c r="I141">
+        <v>5</v>
+      </c>
+      <c r="J141" s="6">
+        <f t="shared" ref="J141:J144" si="3">B141</f>
+        <v>4.0256944444444453E-5</v>
+      </c>
+      <c r="K141" s="6">
+        <f>0.00186*(B136*47.5*B131/3.6)</f>
+        <v>3.5783950617283966E-5</v>
+      </c>
+      <c r="L141" s="6">
+        <f>0.00186*(B136*47.5*B132/3.6)</f>
+        <v>4.4729938271604947E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142">
+        <f>0.00117*(B136*47.5*B130/3.6)</f>
+        <v>2.5322916666666675E-5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" t="s">
+        <v>144</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5322916666666675E-5</v>
+      </c>
+      <c r="K142" s="6">
+        <f>0.00117*(B136*47.5*B131/3.6)</f>
+        <v>2.2509259259259268E-5</v>
+      </c>
+      <c r="L142" s="6">
+        <f>0.00117*(B136*47.5*B132/3.6)</f>
+        <v>2.8136574074074081E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" s="11">
+        <f>0.00003*(B136*47.5*B130/3.6)</f>
+        <v>6.4930555555555568E-7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" t="s">
+        <v>145</v>
+      </c>
+      <c r="I143">
+        <v>5</v>
+      </c>
+      <c r="J143" s="6">
+        <f t="shared" ref="J143" si="4">B143</f>
+        <v>6.4930555555555568E-7</v>
+      </c>
+      <c r="K143" s="6">
+        <f>0.00003*(B136*47.5*B131/3.6)</f>
+        <v>5.7716049382716071E-7</v>
+      </c>
+      <c r="L143" s="6">
+        <f>0.00003*(B136*47.5*B132/3.6)</f>
+        <v>7.2145061728395076E-7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>62</v>
       </c>
-      <c r="B126" s="11">
-        <f>0.00186*(B121*47.5*B115/3.6)</f>
-        <v>2.4154166666666673E-5</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="B144" s="11">
+        <f>0.00003*(B136*47.5*B130/3.6)</f>
+        <v>6.4930555555555568E-7</v>
+      </c>
+      <c r="D144" t="s">
         <v>23</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E144" t="s">
         <v>9</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F144" t="s">
         <v>20</v>
       </c>
-      <c r="H126" t="s">
-        <v>150</v>
-      </c>
-      <c r="I126">
-        <v>5</v>
-      </c>
-      <c r="J126" s="6">
-        <f t="shared" ref="J126:J129" si="3">B126</f>
-        <v>2.4154166666666673E-5</v>
-      </c>
-      <c r="K126" s="6">
-        <f>0.00186*(B121*47.5*B116/3.6)</f>
-        <v>2.1470370370370379E-5</v>
-      </c>
-      <c r="L126" s="6">
-        <f>0.00186*(B121*47.5*B117/3.6)</f>
-        <v>2.6837962962962968E-5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>24</v>
-      </c>
-      <c r="B127">
-        <f>0.00117*(B121*47.5*B115/3.6)</f>
-        <v>1.5193750000000003E-5</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="H144" t="s">
+        <v>146</v>
+      </c>
+      <c r="I144">
+        <v>5</v>
+      </c>
+      <c r="J144" s="6">
+        <f t="shared" si="3"/>
+        <v>6.4930555555555568E-7</v>
+      </c>
+      <c r="K144" s="6">
+        <f>0.00003*(B136*47.5*B131/3.6)</f>
+        <v>5.7716049382716071E-7</v>
+      </c>
+      <c r="L144" s="6">
+        <f>0.00003*(B136*47.5*B132/3.6)</f>
+        <v>7.2145061728395076E-7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="11">
+        <f>B136*0.02</f>
+        <v>7.2904483430799236E-5</v>
+      </c>
+      <c r="D145" t="s">
         <v>23</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E145" t="s">
         <v>9</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F145" t="s">
         <v>20</v>
       </c>
-      <c r="H127" t="s">
-        <v>151</v>
-      </c>
-      <c r="I127">
-        <v>5</v>
-      </c>
-      <c r="J127" s="6">
-        <f t="shared" si="3"/>
-        <v>1.5193750000000003E-5</v>
-      </c>
-      <c r="K127" s="6">
-        <f>0.00117*(B121*47.5*B116/3.6)</f>
-        <v>1.3505555555555559E-5</v>
-      </c>
-      <c r="L127" s="6">
-        <f>0.00117*(B121*47.5*B117/3.6)</f>
-        <v>1.6881944444444447E-5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>116</v>
-      </c>
-      <c r="B128" s="11">
-        <f>0.00003*(B121*47.5*B115/3.6)</f>
-        <v>3.895833333333334E-7</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="H145" t="s">
+        <v>147</v>
+      </c>
+      <c r="I145">
+        <v>5</v>
+      </c>
+      <c r="J145" s="6">
+        <f t="shared" ref="J145:J147" si="5">B145</f>
+        <v>7.2904483430799236E-5</v>
+      </c>
+      <c r="K145" s="6">
+        <f>B136*0.02</f>
+        <v>7.2904483430799236E-5</v>
+      </c>
+      <c r="L145" s="6">
+        <f>B136*0.067</f>
+        <v>2.4423001949317743E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" s="11">
+        <f>0.00038*(B136*47.5*B130/3.6)</f>
+        <v>8.2245370370370392E-6</v>
+      </c>
+      <c r="D146" t="s">
         <v>23</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E146" t="s">
         <v>9</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F146" t="s">
         <v>20</v>
       </c>
-      <c r="H128" t="s">
-        <v>152</v>
-      </c>
-      <c r="I128">
-        <v>5</v>
-      </c>
-      <c r="J128" s="6">
-        <f t="shared" ref="J128" si="4">B128</f>
-        <v>3.895833333333334E-7</v>
-      </c>
-      <c r="K128" s="6">
-        <f>0.00003*(B121*47.5*B116/3.6)</f>
-        <v>3.4629629629629639E-7</v>
-      </c>
-      <c r="L128" s="6">
-        <f>0.00003*(B121*47.5*B117/3.6)</f>
-        <v>4.3287037037037045E-7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>63</v>
-      </c>
-      <c r="B129" s="11">
-        <f>0.00003*(B121*47.5*B115/3.6)</f>
-        <v>3.895833333333334E-7</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="H146" t="s">
+        <v>148</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="J146" s="6">
+        <f t="shared" si="5"/>
+        <v>8.2245370370370392E-6</v>
+      </c>
+      <c r="K146" s="6">
+        <f>0.00038*(B136*47.5*B131/3.6)</f>
+        <v>7.3106995884773691E-6</v>
+      </c>
+      <c r="L146" s="6">
+        <f>0.00038*(B136*47.5*B132/3.6)</f>
+        <v>9.1383744855967103E-6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>114</v>
+      </c>
+      <c r="B147" s="11">
+        <f>0.00002*(B136*47.5*B130/3.6)</f>
+        <v>4.3287037037037051E-7</v>
+      </c>
+      <c r="D147" t="s">
         <v>23</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E147" t="s">
         <v>9</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F147" t="s">
         <v>20</v>
       </c>
-      <c r="H129" t="s">
-        <v>153</v>
-      </c>
-      <c r="I129">
-        <v>5</v>
-      </c>
-      <c r="J129" s="6">
-        <f t="shared" si="3"/>
-        <v>3.895833333333334E-7</v>
-      </c>
-      <c r="K129" s="6">
-        <f>0.00003*(B121*47.5*B116/3.6)</f>
-        <v>3.4629629629629639E-7</v>
-      </c>
-      <c r="L129" s="6">
-        <f>0.00003*(B121*47.5*B117/3.6)</f>
-        <v>4.3287037037037045E-7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>117</v>
-      </c>
-      <c r="B130" s="11">
-        <f>B121*0.02</f>
-        <v>4.3742690058479544E-5</v>
-      </c>
-      <c r="D130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" t="s">
-        <v>154</v>
-      </c>
-      <c r="I130">
-        <v>5</v>
-      </c>
-      <c r="J130" s="6">
-        <f t="shared" ref="J130:J132" si="5">B130</f>
-        <v>4.3742690058479544E-5</v>
-      </c>
-      <c r="K130" s="6">
-        <f>B121*0.02</f>
-        <v>4.3742690058479544E-5</v>
-      </c>
-      <c r="L130" s="6">
-        <f>B121*0.067</f>
-        <v>1.4653801169590646E-4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>64</v>
-      </c>
-      <c r="B131" s="11">
-        <f>0.00038*(B121*47.5*B115/3.6)</f>
-        <v>4.9347222222222232E-6</v>
-      </c>
-      <c r="D131" t="s">
-        <v>23</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" t="s">
-        <v>155</v>
-      </c>
-      <c r="I131">
-        <v>5</v>
-      </c>
-      <c r="J131" s="6">
+      <c r="H147" t="s">
+        <v>149</v>
+      </c>
+      <c r="I147">
+        <v>5</v>
+      </c>
+      <c r="J147" s="6">
         <f t="shared" si="5"/>
-        <v>4.9347222222222232E-6</v>
-      </c>
-      <c r="K131" s="6">
-        <f>0.00038*(B121*47.5*B116/3.6)</f>
-        <v>4.3864197530864211E-6</v>
-      </c>
-      <c r="L131" s="6">
-        <f>0.00038*(B121*47.5*B117/3.6)</f>
-        <v>5.4830246913580262E-6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" s="11">
-        <f>0.00002*(B121*47.5*B115/3.6)</f>
-        <v>2.5972222222222228E-7</v>
-      </c>
-      <c r="D132" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I132">
-        <v>5</v>
-      </c>
-      <c r="J132" s="6">
-        <f t="shared" si="5"/>
-        <v>2.5972222222222228E-7</v>
-      </c>
-      <c r="K132" s="11">
-        <f>0.00002*(B121*47.5*B116/3.6)</f>
-        <v>2.3086419753086429E-7</v>
-      </c>
-      <c r="L132" s="11">
-        <f>0.00002*(B121*47.5*B117/3.6)</f>
-        <v>2.885802469135803E-7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+        <v>4.3287037037037051E-7</v>
+      </c>
+      <c r="K147" s="11">
+        <f>0.00002*(B136*47.5*B131/3.6)</f>
+        <v>3.8477366255144049E-7</v>
+      </c>
+      <c r="L147" s="11">
+        <f>0.00002*(B136*47.5*B132/3.6)</f>
+        <v>4.8096707818930057E-7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="B150" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>11</v>
       </c>
-      <c r="B136" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="B151" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>10</v>
       </c>
-      <c r="B137" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B152" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>4</v>
       </c>
-      <c r="B138" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>6</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B154" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>8</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B155" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>96</v>
-      </c>
-      <c r="B141" s="11">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>93</v>
+      </c>
+      <c r="B156" s="11">
         <f>parameters!N9</f>
         <v>158400000000</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>97</v>
-      </c>
-      <c r="B142" s="11">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157" s="11">
         <f>parameters!O9</f>
         <v>153000000000</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>98</v>
-      </c>
-      <c r="B143" s="11">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>95</v>
+      </c>
+      <c r="B158" s="11">
         <f>parameters!P9</f>
         <v>162000000000</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>140</v>
-      </c>
-      <c r="B144" s="13">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="13">
+        <f>parameters!I9</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="13">
+        <f>parameters!J9</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="13">
+        <f>parameters!K9</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162" s="13">
         <f>parameters!$C$15</f>
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>137</v>
-      </c>
-      <c r="B145" s="13">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="13">
         <f>parameters!C20</f>
         <v>0.41500000000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>138</v>
-      </c>
-      <c r="B146" s="13">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" s="13">
         <f>parameters!D20</f>
         <v>0.38</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>139</v>
-      </c>
-      <c r="B147" s="13">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>134</v>
+      </c>
+      <c r="B165" s="13">
         <f>parameters!E20</f>
         <v>0.45</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+    <row r="166" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="I167" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J167" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K167" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L149" s="2" t="s">
+      <c r="L167" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" t="str">
-        <f>B135</f>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" t="str">
+        <f>B150</f>
         <v>transport, freight, sea, container ship, powered with synthetic liquefied petroleum gas</v>
       </c>
-      <c r="B150">
+      <c r="B168">
         <v>1</v>
       </c>
-      <c r="C150" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" t="str">
-        <f>B140</f>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" t="str">
+        <f>B155</f>
         <v>ton kilometer</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F168" t="s">
         <v>16</v>
       </c>
-      <c r="G150" t="str">
-        <f>B139</f>
+      <c r="G168" t="str">
+        <f>B154</f>
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="169" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B169" s="12">
+        <f>0.11*(B162/B163)/46/(1-B159)</f>
+        <v>2.7828706128863278E-3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H169" t="s">
+        <v>167</v>
+      </c>
+      <c r="I169">
+        <v>5</v>
+      </c>
+      <c r="J169">
+        <f>B169</f>
+        <v>2.7828706128863278E-3</v>
+      </c>
+      <c r="K169" s="6">
+        <f>0.11*(B162/B165)/46/(1-B160)</f>
+        <v>2.5093934514224371E-3</v>
+      </c>
+      <c r="L169" s="6">
+        <f>0.11*(B162/B164)/46/(1-B161)</f>
+        <v>3.1464530892448515E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>44</v>
+      </c>
+      <c r="B170" s="11">
+        <f>1/B156</f>
+        <v>6.313131313131313E-12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" t="s">
         <v>119</v>
       </c>
-      <c r="B151" s="12">
-        <f>0.11*(B144/B145)/46</f>
-        <v>2.4489261393399685E-3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="I170">
+        <v>5</v>
+      </c>
+      <c r="J170" s="11">
+        <f>B170</f>
+        <v>6.313131313131313E-12</v>
+      </c>
+      <c r="K170" s="11">
+        <f>1/B158</f>
+        <v>6.1728395061728393E-12</v>
+      </c>
+      <c r="L170" s="11">
+        <f>1/B157</f>
+        <v>6.5359477124183003E-12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="11">
+        <f>1/B156</f>
+        <v>6.313131313131313E-12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" t="s">
         <v>17</v>
       </c>
-      <c r="G151" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H151" t="s">
-        <v>126</v>
-      </c>
-      <c r="I151">
-        <v>5</v>
-      </c>
-      <c r="J151">
-        <f>B151</f>
-        <v>2.4489261393399685E-3</v>
-      </c>
-      <c r="K151" s="6">
-        <f>0.11*(B144/B147)/46</f>
-        <v>2.2584541062801934E-3</v>
-      </c>
-      <c r="L151" s="6">
-        <f>0.11*(B144/B146)/46</f>
-        <v>2.6744851258581237E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>44</v>
-      </c>
-      <c r="B152" s="11">
-        <f>1/B141</f>
+      <c r="G171" t="s">
+        <v>49</v>
+      </c>
+      <c r="H171" t="s">
+        <v>119</v>
+      </c>
+      <c r="I171">
+        <v>5</v>
+      </c>
+      <c r="J171" s="11">
+        <f>B171</f>
         <v>6.313131313131313E-12</v>
       </c>
-      <c r="C152" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s">
-        <v>43</v>
-      </c>
-      <c r="H152" t="s">
-        <v>123</v>
-      </c>
-      <c r="I152">
-        <v>5</v>
-      </c>
-      <c r="J152" s="11">
-        <f>B152</f>
-        <v>6.313131313131313E-12</v>
-      </c>
-      <c r="K152" s="11">
-        <f>1/B143</f>
+      <c r="K171" s="11">
+        <f>1/B158</f>
         <v>6.1728395061728393E-12</v>
       </c>
-      <c r="L152" s="11">
-        <f>1/B142</f>
+      <c r="L171" s="11">
+        <f>1/B157</f>
         <v>6.5359477124183003E-12</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>50</v>
-      </c>
-      <c r="B153" s="11">
-        <f>1/B141</f>
-        <v>6.313131313131313E-12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s">
-        <v>49</v>
-      </c>
-      <c r="H153" t="s">
-        <v>123</v>
-      </c>
-      <c r="I153">
-        <v>5</v>
-      </c>
-      <c r="J153" s="11">
-        <f>B153</f>
-        <v>6.313131313131313E-12</v>
-      </c>
-      <c r="K153" s="11">
-        <f>1/B143</f>
-        <v>6.1728395061728393E-12</v>
-      </c>
-      <c r="L153" s="11">
-        <f>1/B142</f>
-        <v>6.5359477124183003E-12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>52</v>
       </c>
-      <c r="B154" s="11">
+      <c r="B172" s="11">
         <f>1.38106E-16</f>
         <v>1.38106E-16</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C172" t="s">
         <v>19</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E172" t="s">
         <v>8</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F172" t="s">
         <v>17</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G172" t="s">
         <v>51</v>
       </c>
-      <c r="J154" s="11"/>
-      <c r="K154" s="11"/>
-      <c r="L154" s="11"/>
-    </row>
-    <row r="155" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>71</v>
-      </c>
-      <c r="B155" s="12">
-        <f>B151*3</f>
-        <v>7.3467784180199051E-3</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+    </row>
+    <row r="173" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>69</v>
+      </c>
+      <c r="B173" s="12">
+        <f>B169*3</f>
+        <v>8.3486118386589831E-3</v>
+      </c>
+      <c r="D173" t="s">
         <v>23</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E173" t="s">
         <v>9</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F173" t="s">
         <v>20</v>
       </c>
-      <c r="H155" t="s">
-        <v>124</v>
-      </c>
-      <c r="I155">
-        <v>5</v>
-      </c>
-      <c r="J155" s="6">
-        <f>B155</f>
-        <v>7.3467784180199051E-3</v>
-      </c>
-      <c r="K155" s="6">
-        <f>K151*3</f>
-        <v>6.7753623188405807E-3</v>
-      </c>
-      <c r="L155" s="6">
-        <f>L151*3</f>
-        <v>8.0234553775743716E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="H173" t="s">
+        <v>120</v>
+      </c>
+      <c r="I173">
+        <v>5</v>
+      </c>
+      <c r="J173" s="6">
+        <f>B173</f>
+        <v>8.3486118386589831E-3</v>
+      </c>
+      <c r="K173" s="6">
+        <f>K169*3</f>
+        <v>7.5281803542673114E-3</v>
+      </c>
+      <c r="L173" s="6">
+        <f>L169*3</f>
+        <v>9.4393592677345546E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>61</v>
+      </c>
+      <c r="B174" s="11">
+        <f>0.00186*(B169*46*B163/3.6)</f>
+        <v>2.7447916666666672E-5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="s">
+        <v>20</v>
+      </c>
+      <c r="H174" t="s">
+        <v>150</v>
+      </c>
+      <c r="I174">
+        <v>5</v>
+      </c>
+      <c r="J174" s="6">
+        <f t="shared" ref="J174:J180" si="6">B174</f>
+        <v>2.7447916666666672E-5</v>
+      </c>
+      <c r="K174" s="6">
+        <f>0.00186*(B169*46*B164/3.6)</f>
+        <v>2.5133032128514057E-5</v>
+      </c>
+      <c r="L174" s="6">
+        <f>0.00186*(B169*46*B165/3.6)</f>
+        <v>2.976280120481928E-5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175">
+        <f>0.00117*(B169*46*B163/3.6)</f>
+        <v>1.7265625000000001E-5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" t="s">
+        <v>151</v>
+      </c>
+      <c r="I175">
+        <v>5</v>
+      </c>
+      <c r="J175" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7265625000000001E-5</v>
+      </c>
+      <c r="K175" s="6">
+        <f>0.00117*(B169*46*B164/3.6)</f>
+        <v>1.5809487951807229E-5</v>
+      </c>
+      <c r="L175" s="6">
+        <f>0.00117*(B169*46*B165/3.6)</f>
+        <v>1.8721762048192773E-5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>112</v>
+      </c>
+      <c r="B176" s="11">
+        <f>0.00003*(B169*46*B163/3.6)</f>
+        <v>4.4270833333333337E-7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" t="s">
+        <v>152</v>
+      </c>
+      <c r="I176">
+        <v>5</v>
+      </c>
+      <c r="J176" s="6">
+        <f t="shared" si="6"/>
+        <v>4.4270833333333337E-7</v>
+      </c>
+      <c r="K176" s="6">
+        <f>0.00003*(B169*46*B164/3.6)</f>
+        <v>4.0537148594377509E-7</v>
+      </c>
+      <c r="L176" s="6">
+        <f>0.00003*(B169*46*B165/3.6)</f>
+        <v>4.8004518072289164E-7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>62</v>
       </c>
-      <c r="B156" s="11">
-        <f>0.00186*(B151*46*B145/3.6)</f>
-        <v>2.415416666666667E-5</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="B177" s="11">
+        <f>0.00003*(B169*46*B163/3.6)</f>
+        <v>4.4270833333333337E-7</v>
+      </c>
+      <c r="D177" t="s">
         <v>23</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E177" t="s">
         <v>9</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F177" t="s">
         <v>20</v>
       </c>
-      <c r="H156" t="s">
-        <v>157</v>
-      </c>
-      <c r="I156">
-        <v>5</v>
-      </c>
-      <c r="J156" s="6">
-        <f t="shared" ref="J156:J162" si="6">B156</f>
-        <v>2.415416666666667E-5</v>
-      </c>
-      <c r="K156" s="6">
-        <f>0.00186*(B151*46*B146/3.6)</f>
-        <v>2.2117068273092368E-5</v>
-      </c>
-      <c r="L156" s="6">
-        <f>0.00186*(B151*46*B147/3.6)</f>
-        <v>2.6191265060240965E-5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="H177" t="s">
+        <v>153</v>
+      </c>
+      <c r="I177">
+        <v>5</v>
+      </c>
+      <c r="J177" s="6">
+        <f t="shared" si="6"/>
+        <v>4.4270833333333337E-7</v>
+      </c>
+      <c r="K177" s="6">
+        <f>0.00003*(B169*46*B164/3.6)</f>
+        <v>4.0537148594377509E-7</v>
+      </c>
+      <c r="L177" s="6">
+        <f>0.00003*(B169*46*B165/3.6)</f>
+        <v>4.8004518072289164E-7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>113</v>
+      </c>
+      <c r="B178" s="11">
+        <f>B169*0.02</f>
+        <v>5.5657412257726559E-5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>23</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" t="s">
+        <v>154</v>
+      </c>
+      <c r="I178">
+        <v>5</v>
+      </c>
+      <c r="J178" s="6">
+        <f t="shared" si="6"/>
+        <v>5.5657412257726559E-5</v>
+      </c>
+      <c r="K178" s="6">
+        <f>J178</f>
+        <v>5.5657412257726559E-5</v>
+      </c>
+      <c r="L178" s="6">
+        <f>0.067*B169</f>
+        <v>1.8645233106338397E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>63</v>
+      </c>
+      <c r="B179" s="11">
+        <f>0.00038*(B169*46*B163/3.6)</f>
+        <v>5.6076388888888899E-6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" t="s">
+        <v>155</v>
+      </c>
+      <c r="I179">
+        <v>5</v>
+      </c>
+      <c r="J179" s="6">
+        <f t="shared" si="6"/>
+        <v>5.6076388888888899E-6</v>
+      </c>
+      <c r="K179" s="6">
+        <f>0.00038*(B169*46*B164/3.6)</f>
+        <v>5.1347054886211519E-6</v>
+      </c>
+      <c r="L179" s="6">
+        <f>0.00038*(B169*46*B165/3.6)</f>
+        <v>6.080572289156627E-6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>114</v>
+      </c>
+      <c r="B180" s="11">
+        <f>0.00002*(B169*46*B163/3.6)</f>
+        <v>2.9513888888888895E-7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180" t="s">
+        <v>156</v>
+      </c>
+      <c r="I180">
+        <v>5</v>
+      </c>
+      <c r="J180" s="6">
+        <f t="shared" si="6"/>
+        <v>2.9513888888888895E-7</v>
+      </c>
+      <c r="K180" s="11">
+        <f>0.00002*(B169*46*B164/3.6)</f>
+        <v>2.7024765729585008E-7</v>
+      </c>
+      <c r="L180">
+        <f>0.00002*(B169*46*B165/3.6)</f>
+        <v>3.2003012048192776E-7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>93</v>
+      </c>
+      <c r="B188" s="11">
+        <f>parameters!N4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>94</v>
+      </c>
+      <c r="B189" s="11">
+        <f>parameters!O4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>95</v>
+      </c>
+      <c r="B190" s="11">
+        <f>parameters!P4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>159</v>
+      </c>
+      <c r="B191" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>160</v>
+      </c>
+      <c r="B192" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>161</v>
+      </c>
+      <c r="B193" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>135</v>
+      </c>
+      <c r="B194" s="13">
+        <f>parameters!$C$15</f>
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>132</v>
+      </c>
+      <c r="B195" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>133</v>
+      </c>
+      <c r="B196" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>134</v>
+      </c>
+      <c r="B197" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" t="str">
+        <f>B182</f>
+        <v>transport, freight, sea, container ship, powered with diesel</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" t="str">
+        <f>B187</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="F200" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" t="str">
+        <f>B186</f>
+        <v>transport, freight, sea, container ship</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>188</v>
+      </c>
+      <c r="B201" s="12">
+        <f>0.11/43</f>
+        <v>2.5581395348837212E-3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>189</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H201" t="s">
+        <v>173</v>
+      </c>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" s="11">
+        <f>1/B188</f>
+        <v>5.5555555555555555E-12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>43</v>
+      </c>
+      <c r="H202" t="s">
+        <v>119</v>
+      </c>
+      <c r="J202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" s="11">
+        <f>1/B188</f>
+        <v>5.5555555555555555E-12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" t="s">
+        <v>49</v>
+      </c>
+      <c r="H203" t="s">
+        <v>119</v>
+      </c>
+      <c r="J203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>52</v>
+      </c>
+      <c r="B204" s="11">
+        <f>1.38106E-16</f>
+        <v>1.38106E-16</v>
+      </c>
+      <c r="C204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" t="s">
+        <v>51</v>
+      </c>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+    </row>
+    <row r="205" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>185</v>
+      </c>
+      <c r="B205" s="12">
+        <f>B201*3.15</f>
+        <v>8.0581395348837213E-3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" t="s">
+        <v>120</v>
+      </c>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+    </row>
+    <row r="206" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>186</v>
+      </c>
+      <c r="B206" s="11">
+        <f>0.0009*(B201*43*B194/3.6)</f>
+        <v>1.1687500000000003E-5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>20</v>
+      </c>
+      <c r="H206" t="s">
+        <v>174</v>
+      </c>
+      <c r="I206">
+        <v>5</v>
+      </c>
+      <c r="J206" s="6">
+        <f t="shared" ref="J206:J211" si="7">B206</f>
+        <v>1.1687500000000003E-5</v>
+      </c>
+      <c r="K206" s="6">
+        <f>J206*0.5</f>
+        <v>5.8437500000000014E-6</v>
+      </c>
+      <c r="L206" s="6">
+        <f>J206*2</f>
+        <v>2.3375000000000006E-5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>24</v>
       </c>
-      <c r="B157">
-        <f>0.00117*(B151*46*B145/3.6)</f>
-        <v>1.519375E-5</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="B207">
+        <f>0.0026*(B201*43*B194/3.6)</f>
+        <v>3.3763888888888895E-5</v>
+      </c>
+      <c r="D207" t="s">
         <v>23</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E207" t="s">
         <v>9</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F207" t="s">
         <v>20</v>
       </c>
-      <c r="H157" t="s">
-        <v>158</v>
-      </c>
-      <c r="I157">
-        <v>5</v>
-      </c>
-      <c r="J157" s="6">
-        <f t="shared" si="6"/>
-        <v>1.519375E-5</v>
-      </c>
-      <c r="K157" s="6">
-        <f>0.00117*(B151*46*B146/3.6)</f>
-        <v>1.391234939759036E-5</v>
-      </c>
-      <c r="L157" s="6">
-        <f>0.00117*(B151*46*B147/3.6)</f>
-        <v>1.6475150602409637E-5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>116</v>
-      </c>
-      <c r="B158" s="11">
-        <f>0.00003*(B151*46*B145/3.6)</f>
-        <v>3.8958333333333334E-7</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="H207" t="s">
+        <v>175</v>
+      </c>
+      <c r="I207">
+        <v>5</v>
+      </c>
+      <c r="J207" s="6">
+        <f t="shared" si="7"/>
+        <v>3.3763888888888895E-5</v>
+      </c>
+      <c r="K207" s="6">
+        <f t="shared" ref="K207:K211" si="8">J207*0.5</f>
+        <v>1.6881944444444447E-5</v>
+      </c>
+      <c r="L207" s="6">
+        <f t="shared" ref="L207:L211" si="9">J207*2</f>
+        <v>6.752777777777779E-5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>62</v>
+      </c>
+      <c r="B208" s="11">
+        <f>0.00025*(B201*43*B194/3.6)</f>
+        <v>3.2465277777777787E-6</v>
+      </c>
+      <c r="D208" t="s">
         <v>23</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E208" t="s">
         <v>9</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F208" t="s">
         <v>20</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H208" t="s">
+        <v>177</v>
+      </c>
+      <c r="I208">
+        <v>5</v>
+      </c>
+      <c r="J208" s="6">
+        <f t="shared" si="7"/>
+        <v>3.2465277777777787E-6</v>
+      </c>
+      <c r="K208" s="6">
+        <f t="shared" si="8"/>
+        <v>1.6232638888888894E-6</v>
+      </c>
+      <c r="L208" s="6">
+        <f t="shared" si="9"/>
+        <v>6.4930555555555574E-6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>187</v>
+      </c>
+      <c r="B209" s="11">
+        <f>0.00001*(B201*43*B194/3.6)</f>
+        <v>1.2986111111111117E-7</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" t="s">
+        <v>20</v>
+      </c>
+      <c r="H209" t="s">
+        <v>178</v>
+      </c>
+      <c r="I209">
+        <v>5</v>
+      </c>
+      <c r="J209" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2986111111111117E-7</v>
+      </c>
+      <c r="K209" s="6">
+        <f t="shared" si="8"/>
+        <v>6.4930555555555584E-8</v>
+      </c>
+      <c r="L209" s="6">
+        <f t="shared" si="9"/>
+        <v>2.5972222222222234E-7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>63</v>
+      </c>
+      <c r="B210" s="11">
+        <f>0.00041*(B201*43*B194/3.6)</f>
+        <v>5.324305555555557E-6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" t="s">
+        <v>20</v>
+      </c>
+      <c r="H210" t="s">
+        <v>179</v>
+      </c>
+      <c r="I210">
+        <v>5</v>
+      </c>
+      <c r="J210" s="6">
+        <f t="shared" si="7"/>
+        <v>5.324305555555557E-6</v>
+      </c>
+      <c r="K210" s="6">
+        <f t="shared" si="8"/>
+        <v>2.6621527777777785E-6</v>
+      </c>
+      <c r="L210" s="6">
+        <f t="shared" si="9"/>
+        <v>1.0648611111111114E-5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>114</v>
+      </c>
+      <c r="B211" s="11">
+        <f>0.00003*(B201*43*B194/3.6)</f>
+        <v>3.8958333333333345E-7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" t="s">
+        <v>176</v>
+      </c>
+      <c r="I211">
+        <v>5</v>
+      </c>
+      <c r="J211" s="6">
+        <f t="shared" si="7"/>
+        <v>3.8958333333333345E-7</v>
+      </c>
+      <c r="K211" s="6">
+        <f t="shared" si="8"/>
+        <v>1.9479166666666673E-7</v>
+      </c>
+      <c r="L211" s="6">
+        <f t="shared" si="9"/>
+        <v>7.791666666666669E-7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>93</v>
+      </c>
+      <c r="B219" s="11">
+        <f>parameters!N4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>94</v>
+      </c>
+      <c r="B220" s="11">
+        <f>parameters!O4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>95</v>
+      </c>
+      <c r="B221" s="11">
+        <f>parameters!P4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>159</v>
       </c>
-      <c r="I158">
-        <v>5</v>
-      </c>
-      <c r="J158" s="6">
-        <f t="shared" si="6"/>
-        <v>3.8958333333333334E-7</v>
-      </c>
-      <c r="K158" s="6">
-        <f>0.00003*(B151*46*B146/3.6)</f>
-        <v>3.5672690763052206E-7</v>
-      </c>
-      <c r="L158" s="6">
-        <f>0.00003*(B151*46*B147/3.6)</f>
-        <v>4.2243975903614458E-7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="B222" s="13">
+        <f>parameters!I41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>160</v>
+      </c>
+      <c r="B223" s="13">
+        <f>parameters!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>161</v>
+      </c>
+      <c r="B224" s="13">
+        <f>parameters!K41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>135</v>
+      </c>
+      <c r="B225" s="13">
+        <f>parameters!$C$15</f>
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>132</v>
+      </c>
+      <c r="B226" s="13">
+        <f>parameters!C52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>133</v>
+      </c>
+      <c r="B227" s="13">
+        <f>parameters!D52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>134</v>
+      </c>
+      <c r="B228" s="13">
+        <f>parameters!E52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L230" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231" t="str">
+        <f>B213</f>
+        <v>transport, freight, sea, container ship, powered with synthetic diesel</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" t="str">
+        <f>B218</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="F231" t="s">
+        <v>16</v>
+      </c>
+      <c r="G231" t="str">
+        <f>B217</f>
+        <v>transport, freight, sea, container ship</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>171</v>
+      </c>
+      <c r="B232" s="12">
+        <f>0.11/43</f>
+        <v>2.5581395348837212E-3</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" t="s">
+        <v>17</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H232" t="s">
+        <v>173</v>
+      </c>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>44</v>
+      </c>
+      <c r="B233" s="11">
+        <f>1/B219</f>
+        <v>5.5555555555555555E-12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>19</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" t="s">
+        <v>43</v>
+      </c>
+      <c r="H233" t="s">
+        <v>119</v>
+      </c>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>50</v>
+      </c>
+      <c r="B234" s="11">
+        <f>1/B219</f>
+        <v>5.5555555555555555E-12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" t="s">
+        <v>49</v>
+      </c>
+      <c r="H234" t="s">
+        <v>119</v>
+      </c>
+      <c r="J234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235" s="11">
+        <f>1.38106E-16</f>
+        <v>1.38106E-16</v>
+      </c>
+      <c r="C235" t="s">
+        <v>19</v>
+      </c>
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" t="s">
+        <v>17</v>
+      </c>
+      <c r="G235" t="s">
+        <v>51</v>
+      </c>
+      <c r="J235" s="11"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="11"/>
+    </row>
+    <row r="236" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>69</v>
+      </c>
+      <c r="B236" s="12">
+        <f>B232*3.15</f>
+        <v>8.0581395348837213E-3</v>
+      </c>
+      <c r="D236" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" t="s">
+        <v>20</v>
+      </c>
+      <c r="H236" t="s">
+        <v>120</v>
+      </c>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>61</v>
+      </c>
+      <c r="B237" s="11">
+        <f>0.0009*(B232*43*B225/3.6)</f>
+        <v>1.1687500000000003E-5</v>
+      </c>
+      <c r="D237" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" t="s">
+        <v>20</v>
+      </c>
+      <c r="H237" t="s">
+        <v>174</v>
+      </c>
+      <c r="I237">
+        <v>5</v>
+      </c>
+      <c r="J237" s="6">
+        <f t="shared" ref="J237:J242" si="10">B237</f>
+        <v>1.1687500000000003E-5</v>
+      </c>
+      <c r="K237" s="6">
+        <f>J237*0.5</f>
+        <v>5.8437500000000014E-6</v>
+      </c>
+      <c r="L237" s="6">
+        <f>J237*2</f>
+        <v>2.3375000000000006E-5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>24</v>
+      </c>
+      <c r="B238">
+        <f>0.0026*(B232*43*B225/3.6)</f>
+        <v>3.3763888888888895E-5</v>
+      </c>
+      <c r="D238" t="s">
+        <v>23</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" t="s">
+        <v>20</v>
+      </c>
+      <c r="H238" t="s">
+        <v>175</v>
+      </c>
+      <c r="I238">
+        <v>5</v>
+      </c>
+      <c r="J238" s="6">
+        <f t="shared" si="10"/>
+        <v>3.3763888888888895E-5</v>
+      </c>
+      <c r="K238" s="6">
+        <f t="shared" ref="K238:K242" si="11">J238*0.5</f>
+        <v>1.6881944444444447E-5</v>
+      </c>
+      <c r="L238" s="6">
+        <f t="shared" ref="L238:L242" si="12">J238*2</f>
+        <v>6.752777777777779E-5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>62</v>
+      </c>
+      <c r="B239" s="11">
+        <f>0.00025*(B232*43*B225/3.6)</f>
+        <v>3.2465277777777787E-6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>23</v>
+      </c>
+      <c r="E239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>20</v>
+      </c>
+      <c r="H239" t="s">
+        <v>177</v>
+      </c>
+      <c r="I239">
+        <v>5</v>
+      </c>
+      <c r="J239" s="6">
+        <f t="shared" si="10"/>
+        <v>3.2465277777777787E-6</v>
+      </c>
+      <c r="K239" s="6">
+        <f t="shared" si="11"/>
+        <v>1.6232638888888894E-6</v>
+      </c>
+      <c r="L239" s="6">
+        <f t="shared" si="12"/>
+        <v>6.4930555555555574E-6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>113</v>
+      </c>
+      <c r="B240" s="11">
+        <f>0.00001*(B232*43*B225/3.6)</f>
+        <v>1.2986111111111117E-7</v>
+      </c>
+      <c r="D240" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" t="s">
+        <v>20</v>
+      </c>
+      <c r="H240" t="s">
+        <v>178</v>
+      </c>
+      <c r="I240">
+        <v>5</v>
+      </c>
+      <c r="J240" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2986111111111117E-7</v>
+      </c>
+      <c r="K240" s="6">
+        <f t="shared" si="11"/>
+        <v>6.4930555555555584E-8</v>
+      </c>
+      <c r="L240" s="6">
+        <f t="shared" si="12"/>
+        <v>2.5972222222222234E-7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>63</v>
       </c>
-      <c r="B159" s="11">
-        <f>0.00003*(B151*46*B145/3.6)</f>
-        <v>3.8958333333333334E-7</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="B241" s="11">
+        <f>0.00041*(B232*43*B225/3.6)</f>
+        <v>5.324305555555557E-6</v>
+      </c>
+      <c r="D241" t="s">
         <v>23</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E241" t="s">
         <v>9</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F241" t="s">
         <v>20</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H241" t="s">
+        <v>179</v>
+      </c>
+      <c r="I241">
+        <v>5</v>
+      </c>
+      <c r="J241" s="6">
+        <f t="shared" si="10"/>
+        <v>5.324305555555557E-6</v>
+      </c>
+      <c r="K241" s="6">
+        <f t="shared" si="11"/>
+        <v>2.6621527777777785E-6</v>
+      </c>
+      <c r="L241" s="6">
+        <f t="shared" si="12"/>
+        <v>1.0648611111111114E-5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>114</v>
+      </c>
+      <c r="B242" s="11">
+        <f>0.00003*(B232*43*B225/3.6)</f>
+        <v>3.8958333333333345E-7</v>
+      </c>
+      <c r="D242" t="s">
+        <v>23</v>
+      </c>
+      <c r="E242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" t="s">
+        <v>20</v>
+      </c>
+      <c r="H242" t="s">
+        <v>176</v>
+      </c>
+      <c r="I242">
+        <v>5</v>
+      </c>
+      <c r="J242" s="6">
+        <f t="shared" si="10"/>
+        <v>3.8958333333333345E-7</v>
+      </c>
+      <c r="K242" s="6">
+        <f t="shared" si="11"/>
+        <v>1.9479166666666673E-7</v>
+      </c>
+      <c r="L242" s="6">
+        <f t="shared" si="12"/>
+        <v>7.791666666666669E-7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>93</v>
+      </c>
+      <c r="B250" s="11">
+        <f>parameters!N4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>94</v>
+      </c>
+      <c r="B251" s="11">
+        <f>parameters!O4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>95</v>
+      </c>
+      <c r="B252" s="11">
+        <f>parameters!P4</f>
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>159</v>
+      </c>
+      <c r="B253" s="13">
+        <f>parameters!I72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>160</v>
       </c>
-      <c r="I159">
-        <v>5</v>
-      </c>
-      <c r="J159" s="6">
-        <f t="shared" si="6"/>
-        <v>3.8958333333333334E-7</v>
-      </c>
-      <c r="K159" s="6">
-        <f>0.00003*(B151*46*B146/3.6)</f>
-        <v>3.5672690763052206E-7</v>
-      </c>
-      <c r="L159" s="6">
-        <f>0.00003*(B151*46*B147/3.6)</f>
-        <v>4.2243975903614458E-7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>117</v>
-      </c>
-      <c r="B160" s="11">
-        <f>B151*0.02</f>
-        <v>4.8978522786799369E-5</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="B254" s="13">
+        <f>parameters!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>161</v>
+      </c>
+      <c r="B255" s="13">
+        <f>parameters!K72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>135</v>
+      </c>
+      <c r="B256" s="13">
+        <f>parameters!$C$15</f>
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>132</v>
+      </c>
+      <c r="B257" s="13">
+        <f>parameters!C83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>133</v>
+      </c>
+      <c r="B258" s="13">
+        <f>parameters!D83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>134</v>
+      </c>
+      <c r="B259" s="13">
+        <f>parameters!E83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K261" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L261" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A262" t="str">
+        <f>B244</f>
+        <v>transport, freight, sea, container ship, powered with biodiesel</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" t="str">
+        <f>B249</f>
+        <v>ton kilometer</v>
+      </c>
+      <c r="F262" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" t="str">
+        <f>B248</f>
+        <v>transport, freight, sea, container ship</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>182</v>
+      </c>
+      <c r="B263" s="12">
+        <f>0.11/43</f>
+        <v>2.5581395348837212E-3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" t="s">
+        <v>17</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H263" t="s">
+        <v>173</v>
+      </c>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>44</v>
+      </c>
+      <c r="B264" s="11">
+        <f>1/B250</f>
+        <v>5.5555555555555555E-12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>19</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264" t="s">
+        <v>17</v>
+      </c>
+      <c r="G264" t="s">
+        <v>43</v>
+      </c>
+      <c r="H264" t="s">
+        <v>119</v>
+      </c>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>50</v>
+      </c>
+      <c r="B265" s="11">
+        <f>1/B250</f>
+        <v>5.5555555555555555E-12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265" t="s">
+        <v>17</v>
+      </c>
+      <c r="G265" t="s">
+        <v>49</v>
+      </c>
+      <c r="H265" t="s">
+        <v>119</v>
+      </c>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>52</v>
+      </c>
+      <c r="B266" s="11">
+        <f>1.38106E-16</f>
+        <v>1.38106E-16</v>
+      </c>
+      <c r="C266" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266" t="s">
+        <v>17</v>
+      </c>
+      <c r="G266" t="s">
+        <v>51</v>
+      </c>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+    </row>
+    <row r="267" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>69</v>
+      </c>
+      <c r="B267" s="12">
+        <f>B263*3.15</f>
+        <v>8.0581395348837213E-3</v>
+      </c>
+      <c r="D267" t="s">
         <v>23</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E267" t="s">
         <v>9</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F267" t="s">
         <v>20</v>
       </c>
-      <c r="H160" t="s">
-        <v>161</v>
-      </c>
-      <c r="I160">
-        <v>5</v>
-      </c>
-      <c r="J160" s="6">
-        <f t="shared" si="6"/>
-        <v>4.8978522786799369E-5</v>
-      </c>
-      <c r="K160" s="6">
-        <f>J160</f>
-        <v>4.8978522786799369E-5</v>
-      </c>
-      <c r="L160" s="6">
-        <f>0.067*B151</f>
-        <v>1.640780513357779E-4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>64</v>
-      </c>
-      <c r="B161" s="11">
-        <f>0.00038*(B151*46*B145/3.6)</f>
-        <v>4.9347222222222224E-6</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="H267" t="s">
+        <v>120</v>
+      </c>
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="6"/>
+    </row>
+    <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>61</v>
+      </c>
+      <c r="B268" s="11">
+        <f>0.0009*(B263*43*B256/3.6)</f>
+        <v>1.1687500000000003E-5</v>
+      </c>
+      <c r="D268" t="s">
         <v>23</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E268" t="s">
         <v>9</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F268" t="s">
         <v>20</v>
       </c>
-      <c r="H161" t="s">
-        <v>162</v>
-      </c>
-      <c r="I161">
-        <v>5</v>
-      </c>
-      <c r="J161" s="6">
-        <f t="shared" si="6"/>
-        <v>4.9347222222222224E-6</v>
-      </c>
-      <c r="K161" s="6">
-        <f>0.00038*(B151*46*B146/3.6)</f>
-        <v>4.5185408299866128E-6</v>
-      </c>
-      <c r="L161" s="6">
-        <f>0.00038*(B151*46*B147/3.6)</f>
-        <v>5.3509036144578311E-6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>118</v>
-      </c>
-      <c r="B162" s="11">
-        <f>0.00002*(B151*46*B145/3.6)</f>
-        <v>2.5972222222222223E-7</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="H268" t="s">
+        <v>174</v>
+      </c>
+      <c r="I268">
+        <v>5</v>
+      </c>
+      <c r="J268" s="6">
+        <f t="shared" ref="J268:J273" si="13">B268</f>
+        <v>1.1687500000000003E-5</v>
+      </c>
+      <c r="K268" s="6">
+        <f>J268*0.5</f>
+        <v>5.8437500000000014E-6</v>
+      </c>
+      <c r="L268" s="6">
+        <f>J268*2</f>
+        <v>2.3375000000000006E-5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269">
+        <f>0.0026*(B263*43*B256/3.6)</f>
+        <v>3.3763888888888895E-5</v>
+      </c>
+      <c r="D269" t="s">
         <v>23</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E269" t="s">
         <v>9</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F269" t="s">
         <v>20</v>
       </c>
-      <c r="H162" t="s">
-        <v>163</v>
-      </c>
-      <c r="I162">
-        <v>5</v>
-      </c>
-      <c r="J162" s="6">
-        <f t="shared" si="6"/>
-        <v>2.5972222222222223E-7</v>
-      </c>
-      <c r="K162" s="11">
-        <f>0.00002*(B151*46*B146/3.6)</f>
-        <v>2.3781793842034805E-7</v>
-      </c>
-      <c r="L162">
-        <f>0.00002*(B151*46*B147/3.6)</f>
-        <v>2.8162650602409639E-7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="11"/>
-    </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="11"/>
-    </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="11"/>
-    </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="11"/>
-    </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="11"/>
+      <c r="H269" t="s">
+        <v>175</v>
+      </c>
+      <c r="I269">
+        <v>5</v>
+      </c>
+      <c r="J269" s="6">
+        <f t="shared" si="13"/>
+        <v>3.3763888888888895E-5</v>
+      </c>
+      <c r="K269" s="6">
+        <f t="shared" ref="K269:K273" si="14">J269*0.5</f>
+        <v>1.6881944444444447E-5</v>
+      </c>
+      <c r="L269" s="6">
+        <f t="shared" ref="L269:L273" si="15">J269*2</f>
+        <v>6.752777777777779E-5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>62</v>
+      </c>
+      <c r="B270" s="11">
+        <f>0.00025*(B263*43*B256/3.6)</f>
+        <v>3.2465277777777787E-6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>23</v>
+      </c>
+      <c r="E270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" t="s">
+        <v>20</v>
+      </c>
+      <c r="H270" t="s">
+        <v>177</v>
+      </c>
+      <c r="I270">
+        <v>5</v>
+      </c>
+      <c r="J270" s="6">
+        <f t="shared" si="13"/>
+        <v>3.2465277777777787E-6</v>
+      </c>
+      <c r="K270" s="6">
+        <f t="shared" si="14"/>
+        <v>1.6232638888888894E-6</v>
+      </c>
+      <c r="L270" s="6">
+        <f t="shared" si="15"/>
+        <v>6.4930555555555574E-6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>113</v>
+      </c>
+      <c r="B271" s="11">
+        <f>0.00001*(B263*43*B256/3.6)</f>
+        <v>1.2986111111111117E-7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>23</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" t="s">
+        <v>20</v>
+      </c>
+      <c r="H271" t="s">
+        <v>178</v>
+      </c>
+      <c r="I271">
+        <v>5</v>
+      </c>
+      <c r="J271" s="6">
+        <f t="shared" si="13"/>
+        <v>1.2986111111111117E-7</v>
+      </c>
+      <c r="K271" s="6">
+        <f t="shared" si="14"/>
+        <v>6.4930555555555584E-8</v>
+      </c>
+      <c r="L271" s="6">
+        <f t="shared" si="15"/>
+        <v>2.5972222222222234E-7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>63</v>
+      </c>
+      <c r="B272" s="11">
+        <f>0.00041*(B263*43*B256/3.6)</f>
+        <v>5.324305555555557E-6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>23</v>
+      </c>
+      <c r="E272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" t="s">
+        <v>20</v>
+      </c>
+      <c r="H272" t="s">
+        <v>179</v>
+      </c>
+      <c r="I272">
+        <v>5</v>
+      </c>
+      <c r="J272" s="6">
+        <f t="shared" si="13"/>
+        <v>5.324305555555557E-6</v>
+      </c>
+      <c r="K272" s="6">
+        <f t="shared" si="14"/>
+        <v>2.6621527777777785E-6</v>
+      </c>
+      <c r="L272" s="6">
+        <f t="shared" si="15"/>
+        <v>1.0648611111111114E-5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>114</v>
+      </c>
+      <c r="B273" s="11">
+        <f>0.00003*(B263*43*B256/3.6)</f>
+        <v>3.8958333333333345E-7</v>
+      </c>
+      <c r="D273" t="s">
+        <v>23</v>
+      </c>
+      <c r="E273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" t="s">
+        <v>20</v>
+      </c>
+      <c r="H273" t="s">
+        <v>176</v>
+      </c>
+      <c r="I273">
+        <v>5</v>
+      </c>
+      <c r="J273" s="6">
+        <f t="shared" si="13"/>
+        <v>3.8958333333333345E-7</v>
+      </c>
+      <c r="K273" s="6">
+        <f t="shared" si="14"/>
+        <v>1.9479166666666673E-7</v>
+      </c>
+      <c r="L273" s="6">
+        <f t="shared" si="15"/>
+        <v>7.791666666666669E-7</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O176" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Water"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O225" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4136,7 +5976,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4161,62 +6001,62 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="16">
         <v>1</v>
@@ -4260,10 +6100,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="16">
         <v>0.43880000000000002</v>
@@ -4314,10 +6154,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="16">
         <v>0.35270000000000001</v>
@@ -4368,10 +6208,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="16">
         <v>0.25</v>
@@ -4422,10 +6262,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="16">
         <v>8.3300000000000006E-3</v>
@@ -4476,10 +6316,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="16">
         <v>0.61109999999999998</v>
@@ -4529,10 +6369,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="16">
         <v>0.27700000000000002</v>
@@ -4585,21 +6425,21 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C15" s="14">
         <f>AVERAGE(D15:E15)</f>
@@ -4614,7 +6454,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="14">
         <f>AVERAGE(D16:E16)</f>
@@ -4629,7 +6469,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="14">
         <v>0.44</v>
@@ -4643,7 +6483,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" s="14">
         <f>AVERAGE(D18:E18)</f>
@@ -4658,7 +6498,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" s="14">
         <f>AVERAGE(D19:E19)</f>
@@ -4673,7 +6513,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" s="14">
         <f>AVERAGE(D20:E20)</f>
@@ -4688,7 +6528,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21" s="14">
         <f>AVERAGE(D21:E21)</f>

--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807AC885-4185-9949-A8A3-25A50053BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C9D57-C6D1-7C45-82AB-6B1F4B59595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34260" yWindow="-920" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C9D57-C6D1-7C45-82AB-6B1F4B59595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D73B91A-AAEB-EF4E-8696-BE0E062B62A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34260" yWindow="-920" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="194">
   <si>
     <t>Database</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Tank-to-wake (%), max</t>
   </si>
   <si>
-    <t>Marine diesel</t>
-  </si>
-  <si>
     <t>tank-to-wake eff., mean</t>
   </si>
   <si>
@@ -554,30 +551,9 @@
     <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation</t>
   </si>
   <si>
-    <t>diesel, synthetic</t>
-  </si>
-  <si>
     <t>Assumes similar efficiency as with an oil-powered ship. Diesel LHV: 43 MJ/kg.</t>
   </si>
   <si>
-    <t>0.0009 kg CO/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
-  </si>
-  <si>
-    <t>0.0026 kg NOx/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
-  </si>
-  <si>
-    <t>0.00002 kg N2O/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
-  </si>
-  <si>
-    <t>0.00025 kg PM 2.5/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
-  </si>
-  <si>
-    <t>0.00001 kg CH4/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
-  </si>
-  <si>
-    <t>0.00041 kg NMVOC/kWh shaft power. 43% efficiency. 43 MJ/kg diesel.</t>
-  </si>
-  <si>
     <t>transport, freight, sea, container ship, powered with biodiesel</t>
   </si>
   <si>
@@ -587,9 +563,6 @@
     <t>biodiesel production, via Fischer-Tropsch, from forest product (non-residual), energy allocation</t>
   </si>
   <si>
-    <t>biodiesel, from forest residues</t>
-  </si>
-  <si>
     <t>transport, freight, sea, container ship, powered with diesel</t>
   </si>
   <si>
@@ -609,6 +582,42 @@
   </si>
   <si>
     <t>diesel, low-sulfur</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.10.1, with additional assumptions -- see parameters tab.</t>
+  </si>
+  <si>
+    <t>Marine oil</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Note: most of these efficiencies are from Ingwersen et al., 2025.</t>
+  </si>
+  <si>
+    <t>0% penalty of load carrying capacity, due to similar gravimetric density of diesel compared to marine oil.</t>
+  </si>
+  <si>
+    <t>Assumes 3.15 kg CO2 emitted per kg of diesel combusted.</t>
+  </si>
+  <si>
+    <t>0.0009 kg CO/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.0026 kg NOx/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.00025 kg PM 2.5/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.00001 kg CH4/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.00041 kg NMVOC/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>0.00002 kg N2O/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
   </si>
 </sst>
 </file>
@@ -616,11 +625,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -683,7 +692,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
@@ -691,12 +700,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -705,17 +714,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1019,14 +1028,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" customWidth="1"/>
@@ -1063,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1127,7 +1136,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="13">
         <f>parameters!I7</f>
@@ -1136,7 +1145,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="13">
         <f>parameters!J7</f>
@@ -1145,7 +1154,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="13">
         <f>parameters!K7</f>
@@ -1154,7 +1163,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="13">
         <f>parameters!$C$15</f>
@@ -1163,7 +1172,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="13">
         <f>parameters!C18</f>
@@ -1172,7 +1181,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="13">
         <f>parameters!D18</f>
@@ -1181,7 +1190,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="13">
         <f>parameters!E18</f>
@@ -1275,7 +1284,7 @@
         <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I23" s="5">
         <v>5</v>
@@ -1527,13 +1536,13 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -1594,7 +1603,7 @@
       <c r="A38" t="s">
         <v>93</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="15">
         <f>parameters!N8</f>
         <v>90000000000</v>
       </c>
@@ -1603,7 +1612,7 @@
       <c r="A39" t="s">
         <v>94</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="15">
         <f>parameters!O8</f>
         <v>72000000000</v>
       </c>
@@ -1619,7 +1628,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="13">
         <f>parameters!I8</f>
@@ -1628,7 +1637,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" s="13">
         <f>parameters!J8</f>
@@ -1637,7 +1646,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="13">
         <f>parameters!K8</f>
@@ -1646,7 +1655,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="13">
         <f>parameters!$C$15</f>
@@ -1655,7 +1664,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="13">
         <f>parameters!C19</f>
@@ -1664,7 +1673,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="13">
         <f>parameters!D19</f>
@@ -1673,7 +1682,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="13">
         <f>parameters!E19</f>
@@ -1748,7 +1757,7 @@
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B51" s="17">
         <f>0.11*(B44/B45)/3.6/(1-B41)</f>
@@ -1767,7 +1776,7 @@
         <v>22</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I51">
         <v>5</v>
@@ -1947,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2003,7 +2012,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B66" s="13">
         <f>parameters!I6</f>
@@ -2012,7 +2021,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="13">
         <f>parameters!J6</f>
@@ -2021,7 +2030,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B68" s="13">
         <f>parameters!K6</f>
@@ -2030,7 +2039,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="13">
         <f>parameters!$C$15</f>
@@ -2039,16 +2048,16 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="13">
         <f>parameters!C17</f>
-        <v>0.44</v>
+        <v>0.44020542920029343</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="13">
         <f>parameters!D17</f>
@@ -2057,7 +2066,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72" s="13">
         <f>parameters!E17</f>
@@ -2136,7 +2145,7 @@
       </c>
       <c r="B76" s="12">
         <f>(0.11*(B69/B70))/18.6/(1-B66)</f>
-        <v>7.1404569892473116E-3</v>
+        <v>7.1371247759856636E-3</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -2151,14 +2160,14 @@
         <v>58</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I76">
         <v>5</v>
       </c>
       <c r="J76" s="6">
         <f>B76</f>
-        <v>7.1404569892473116E-3</v>
+        <v>7.1371247759856636E-3</v>
       </c>
       <c r="K76" s="6">
         <f>(0.11*(B69/B72))/18.6/(1-B67)</f>
@@ -2339,11 +2348,11 @@
       </c>
       <c r="K81" s="6">
         <f>0.00013*(B76*18.6*B71/3.6)</f>
-        <v>1.6786024305555552E-6</v>
+        <v>1.6778190827546297E-6</v>
       </c>
       <c r="L81" s="6">
         <f>0.00013*(B76*18.6*B72/3.6)</f>
-        <v>2.1582031249999997E-6</v>
+        <v>2.1571959635416667E-6</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2375,11 +2384,11 @@
       </c>
       <c r="K82" s="6">
         <f>0.0026*(B76*18.6*B71/3.6)</f>
-        <v>3.3572048611111104E-5</v>
+        <v>3.3556381655092595E-5</v>
       </c>
       <c r="L82" s="6">
         <f>0.0026*(B76*18.6*B72/3.6)</f>
-        <v>4.3164062499999996E-5</v>
+        <v>4.3143919270833341E-5</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2411,11 +2420,11 @@
       </c>
       <c r="K83" s="6">
         <f>0.00002*(B76*18.6*B71/3.6)</f>
-        <v>2.5824652777777776E-7</v>
+        <v>2.5812601273148154E-7</v>
       </c>
       <c r="L83" s="6">
         <f>0.00002*(B76*18.6*B72/3.6)</f>
-        <v>3.3203125000000002E-7</v>
+        <v>3.3187630208333344E-7</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2447,11 +2456,11 @@
       </c>
       <c r="K84" s="6">
         <f>0.0000028*(B76*18.6*B71/3.6)</f>
-        <v>3.6154513888888877E-8</v>
+        <v>3.6137641782407408E-8</v>
       </c>
       <c r="L84" s="6">
         <f>0.0000028*(B76*18.6*B72/3.6)</f>
-        <v>4.6484374999999998E-8</v>
+        <v>4.6462682291666672E-8</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2483,11 +2492,11 @@
       </c>
       <c r="K85" s="6">
         <f>0.00004*(B76*18.6*B71/3.6)</f>
-        <v>5.1649305555555552E-7</v>
+        <v>5.1625202546296308E-7</v>
       </c>
       <c r="L85" s="6">
         <f>0.00004*(B76*18.6*B72/3.6)</f>
-        <v>6.6406250000000005E-7</v>
+        <v>6.6375260416666688E-7</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2519,11 +2528,11 @@
       </c>
       <c r="K86" s="11">
         <f>0.00001*(B76*18.6*B71/3.6)</f>
-        <v>1.2912326388888888E-7</v>
+        <v>1.2906300636574077E-7</v>
       </c>
       <c r="L86">
         <f>0.00013*(B76*18.6*B72/3.6)</f>
-        <v>2.1582031249999997E-6</v>
+        <v>2.1571959635416667E-6</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2551,7 +2560,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -2607,7 +2616,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B97" s="13">
         <f>parameters!I5</f>
@@ -2616,7 +2625,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98" s="13">
         <f>parameters!J5</f>
@@ -2625,7 +2634,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99" s="13">
         <f>parameters!K5</f>
@@ -2634,7 +2643,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="13">
         <f>parameters!$C$15</f>
@@ -2643,29 +2652,29 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="13">
         <f>parameters!C16</f>
-        <v>0.375</v>
+        <v>0.4369674459252787</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102" s="13">
         <f>parameters!D16</f>
-        <v>0.35</v>
+        <v>0.32772558444395905</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103" s="13">
         <f>parameters!E16</f>
-        <v>0.4</v>
+        <v>0.54620930740659834</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2740,7 +2749,7 @@
       </c>
       <c r="B107" s="12">
         <f>0.11*(B100/B101)/19.9/(1-B97)</f>
-        <v>7.8308207705192652E-3</v>
+        <v>6.7203124999999989E-3</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2755,22 +2764,22 @@
         <v>68</v>
       </c>
       <c r="H107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I107">
         <v>5</v>
       </c>
       <c r="J107" s="6">
         <f>B107</f>
-        <v>7.8308207705192652E-3</v>
+        <v>6.7203124999999989E-3</v>
       </c>
       <c r="K107" s="6">
         <f>0.11*(B100/B103)/19.9/(1-B98)</f>
-        <v>6.9095477386934686E-3</v>
+        <v>5.0599999999999994E-3</v>
       </c>
       <c r="L107" s="6">
         <f>0.11*(B100/B102)/19.9/(1-B99)</f>
-        <v>8.9495094520220166E-3</v>
+        <v>9.5577777777777744E-3</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -2881,7 +2890,7 @@
       </c>
       <c r="B111" s="12">
         <f>B107*1.37</f>
-        <v>1.0728224455611394E-2</v>
+        <v>9.2068281249999984E-3</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
@@ -2900,15 +2909,15 @@
       </c>
       <c r="J111" s="6">
         <f>B111</f>
-        <v>1.0728224455611394E-2</v>
+        <v>9.2068281249999984E-3</v>
       </c>
       <c r="K111" s="6">
         <f>K107*1.37</f>
-        <v>9.466080402010052E-3</v>
+        <v>6.9321999999999995E-3</v>
       </c>
       <c r="L111" s="6">
         <f>L107*1.37</f>
-        <v>1.2260827949270164E-2</v>
+        <v>1.3094155555555553E-2</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2917,7 +2926,7 @@
       </c>
       <c r="B112" s="11">
         <f>0.0048*(B107*19.9*B101/3.6)</f>
-        <v>7.7916666666666686E-5</v>
+        <v>7.7916666666666672E-5</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -2929,22 +2938,22 @@
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I112">
         <v>5</v>
       </c>
       <c r="J112" s="6">
         <f t="shared" ref="J112:J115" si="2">B112</f>
-        <v>7.7916666666666686E-5</v>
+        <v>7.7916666666666672E-5</v>
       </c>
       <c r="K112" s="6">
         <f>0.0048*(B107*19.9*B102/3.6)</f>
-        <v>7.2722222222222231E-5</v>
+        <v>5.8437499999999997E-5</v>
       </c>
       <c r="L112" s="6">
         <f>0.0048*(B107*19.9*B103/3.6)</f>
-        <v>8.3111111111111141E-5</v>
+        <v>9.7395833333333313E-5</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2953,7 +2962,7 @@
       </c>
       <c r="B113">
         <f>0.0026*(B107*19.9*B101/3.6)</f>
-        <v>4.2204861111111119E-5</v>
+        <v>4.2204861111111112E-5</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -2965,22 +2974,22 @@
         <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I113">
         <v>5</v>
       </c>
       <c r="J113" s="6">
         <f t="shared" si="2"/>
-        <v>4.2204861111111119E-5</v>
+        <v>4.2204861111111112E-5</v>
       </c>
       <c r="K113" s="6">
         <f>0.0026*(B107*19.9*B102/3.6)</f>
-        <v>3.9391203703703708E-5</v>
+        <v>3.1653645833333329E-5</v>
       </c>
       <c r="L113" s="6">
         <f>0.0026*(B107*19.9*B103/3.6)</f>
-        <v>4.5018518518518536E-5</v>
+        <v>5.2756076388888881E-5</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2989,7 +2998,7 @@
       </c>
       <c r="B114">
         <f>0.00014*(B107*19.9*B101/3.6)</f>
-        <v>2.2725694444444447E-6</v>
+        <v>2.2725694444444443E-6</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -3001,22 +3010,22 @@
         <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I114">
         <v>5</v>
       </c>
       <c r="J114" s="6">
         <f t="shared" si="2"/>
-        <v>2.2725694444444447E-6</v>
+        <v>2.2725694444444443E-6</v>
       </c>
       <c r="K114" s="6">
         <f>0.00014*(B107*19.9*B102/3.6)</f>
-        <v>2.1210648148148152E-6</v>
+        <v>1.7044270833333331E-6</v>
       </c>
       <c r="L114" s="6">
         <f>0.00014*(B107*19.9*B103/3.6)</f>
-        <v>2.4240740740740747E-6</v>
+        <v>2.8407118055555551E-6</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3025,7 +3034,7 @@
       </c>
       <c r="B115">
         <f>0.00000049*(B107*19.9*B101/3.6)</f>
-        <v>7.9539930555555566E-9</v>
+        <v>7.953993055555555E-9</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -3037,22 +3046,22 @@
         <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I115">
         <v>5</v>
       </c>
       <c r="J115" s="6">
         <f t="shared" si="2"/>
-        <v>7.9539930555555566E-9</v>
+        <v>7.953993055555555E-9</v>
       </c>
       <c r="K115" s="6">
         <f>0.00000049*(B107*19.9*B102/3.6)</f>
-        <v>7.4237268518518529E-9</v>
+        <v>5.9654947916666662E-9</v>
       </c>
       <c r="L115" s="6">
         <f>0.00000049*(B107*19.9*B103/3.6)</f>
-        <v>8.4842592592592621E-9</v>
+        <v>9.9424913194444421E-9</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3081,7 +3090,7 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -3137,7 +3146,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B126" s="13">
         <f>parameters!I10</f>
@@ -3146,7 +3155,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B127" s="13">
         <f>parameters!J10</f>
@@ -3155,7 +3164,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B128" s="13">
         <f>parameters!K10</f>
@@ -3164,7 +3173,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="13">
         <f>parameters!$C$15</f>
@@ -3173,29 +3182,29 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="13">
         <f>parameters!C21</f>
-        <v>0.45</v>
+        <v>0.49342105263157898</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="13">
         <f>parameters!D21</f>
-        <v>0.4</v>
+        <v>0.44407894736842107</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="13">
         <f>parameters!E21</f>
-        <v>0.5</v>
+        <v>0.54276315789473695</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3270,7 +3279,7 @@
       </c>
       <c r="B136" s="12">
         <f>0.11*(B129/B130)/47.5/(1-B126)</f>
-        <v>3.6452241715399618E-3</v>
+        <v>3.3244444444444445E-3</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3285,22 +3294,22 @@
         <v>110</v>
       </c>
       <c r="H136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I136">
         <v>5</v>
       </c>
       <c r="J136">
         <f>B136</f>
-        <v>3.6452241715399618E-3</v>
+        <v>3.3244444444444445E-3</v>
       </c>
       <c r="K136" s="6">
         <f>0.11*(B129/B132)/47.5/(1-B127)</f>
-        <v>3.0283400809716604E-3</v>
+        <v>2.7897435897435894E-3</v>
       </c>
       <c r="L136" s="6">
         <f>0.11*(B129/B131)/47.5/(1-B128)</f>
-        <v>4.9210526315789475E-3</v>
+        <v>4.432592592592593E-3</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -3411,7 +3420,7 @@
       </c>
       <c r="B140" s="12">
         <f>B136*2.74</f>
-        <v>9.9879142300194953E-3</v>
+        <v>9.1089777777777787E-3</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -3430,15 +3439,15 @@
       </c>
       <c r="J140" s="6">
         <f>B140</f>
-        <v>9.9879142300194953E-3</v>
+        <v>9.1089777777777787E-3</v>
       </c>
       <c r="K140" s="6">
         <f>K136*2.74</f>
-        <v>8.2976518218623504E-3</v>
+        <v>7.6438974358974355E-3</v>
       </c>
       <c r="L140" s="6">
         <f>L136*2.74</f>
-        <v>1.3483684210526318E-2</v>
+        <v>1.2145303703703706E-2</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3446,8 +3455,8 @@
         <v>61</v>
       </c>
       <c r="B141" s="11">
-        <f>0.00186*(B136*47.5*B130/3.6)</f>
-        <v>4.0256944444444453E-5</v>
+        <f>0.00186*(B136*48*B130/3.6)</f>
+        <v>4.0680701754385975E-5</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -3459,22 +3468,22 @@
         <v>20</v>
       </c>
       <c r="H141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I141">
         <v>5</v>
       </c>
       <c r="J141" s="6">
         <f t="shared" ref="J141:J144" si="3">B141</f>
-        <v>4.0256944444444453E-5</v>
+        <v>4.0680701754385975E-5</v>
       </c>
       <c r="K141" s="6">
-        <f>0.00186*(B136*47.5*B131/3.6)</f>
-        <v>3.5783950617283966E-5</v>
+        <f>0.00186*(B136*48*B131/3.6)</f>
+        <v>3.6612631578947372E-5</v>
       </c>
       <c r="L141" s="6">
-        <f>0.00186*(B136*47.5*B132/3.6)</f>
-        <v>4.4729938271604947E-5</v>
+        <f>0.00186*(B136*48*B132/3.6)</f>
+        <v>4.4748771929824572E-5</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3482,8 +3491,8 @@
         <v>24</v>
       </c>
       <c r="B142">
-        <f>0.00117*(B136*47.5*B130/3.6)</f>
-        <v>2.5322916666666675E-5</v>
+        <f>0.00117*(B136*48*B130/3.6)</f>
+        <v>2.5589473684210534E-5</v>
       </c>
       <c r="D142" t="s">
         <v>23</v>
@@ -3495,22 +3504,22 @@
         <v>20</v>
       </c>
       <c r="H142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I142">
         <v>5</v>
       </c>
       <c r="J142" s="6">
         <f t="shared" si="3"/>
-        <v>2.5322916666666675E-5</v>
+        <v>2.5589473684210534E-5</v>
       </c>
       <c r="K142" s="6">
-        <f>0.00117*(B136*47.5*B131/3.6)</f>
-        <v>2.2509259259259268E-5</v>
+        <f>0.00117*(B136*48*B131/3.6)</f>
+        <v>2.3030526315789475E-5</v>
       </c>
       <c r="L142" s="6">
-        <f>0.00117*(B136*47.5*B132/3.6)</f>
-        <v>2.8136574074074081E-5</v>
+        <f>0.00117*(B136*48*B132/3.6)</f>
+        <v>2.8148421052631585E-5</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3518,8 +3527,8 @@
         <v>112</v>
       </c>
       <c r="B143" s="11">
-        <f>0.00003*(B136*47.5*B130/3.6)</f>
-        <v>6.4930555555555568E-7</v>
+        <f>0.00003*(B136*48*B130/3.6)</f>
+        <v>6.5614035087719314E-7</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -3531,22 +3540,22 @@
         <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I143">
         <v>5</v>
       </c>
       <c r="J143" s="6">
         <f t="shared" ref="J143" si="4">B143</f>
-        <v>6.4930555555555568E-7</v>
+        <v>6.5614035087719314E-7</v>
       </c>
       <c r="K143" s="6">
-        <f>0.00003*(B136*47.5*B131/3.6)</f>
-        <v>5.7716049382716071E-7</v>
+        <f>0.00003*(B136*48*B131/3.6)</f>
+        <v>5.9052631578947373E-7</v>
       </c>
       <c r="L143" s="6">
-        <f>0.00003*(B136*47.5*B132/3.6)</f>
-        <v>7.2145061728395076E-7</v>
+        <f>0.00003*(B136*48*B132/3.6)</f>
+        <v>7.2175438596491244E-7</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3554,8 +3563,8 @@
         <v>62</v>
       </c>
       <c r="B144" s="11">
-        <f>0.00003*(B136*47.5*B130/3.6)</f>
-        <v>6.4930555555555568E-7</v>
+        <f>0.00003*(B136*48*B130/3.6)</f>
+        <v>6.5614035087719314E-7</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -3567,22 +3576,22 @@
         <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I144">
         <v>5</v>
       </c>
       <c r="J144" s="6">
         <f t="shared" si="3"/>
-        <v>6.4930555555555568E-7</v>
+        <v>6.5614035087719314E-7</v>
       </c>
       <c r="K144" s="6">
-        <f>0.00003*(B136*47.5*B131/3.6)</f>
-        <v>5.7716049382716071E-7</v>
+        <f>0.00003*(B136*48*B131/3.6)</f>
+        <v>5.9052631578947373E-7</v>
       </c>
       <c r="L144" s="6">
-        <f>0.00003*(B136*47.5*B132/3.6)</f>
-        <v>7.2145061728395076E-7</v>
+        <f>0.00003*(B136*48*B132/3.6)</f>
+        <v>7.2175438596491244E-7</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B145" s="11">
         <f>B136*0.02</f>
-        <v>7.2904483430799236E-5</v>
+        <v>6.6488888888888891E-5</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -3603,22 +3612,22 @@
         <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I145">
         <v>5</v>
       </c>
       <c r="J145" s="6">
         <f t="shared" ref="J145:J147" si="5">B145</f>
-        <v>7.2904483430799236E-5</v>
+        <v>6.6488888888888891E-5</v>
       </c>
       <c r="K145" s="6">
         <f>B136*0.02</f>
-        <v>7.2904483430799236E-5</v>
+        <v>6.6488888888888891E-5</v>
       </c>
       <c r="L145" s="6">
         <f>B136*0.067</f>
-        <v>2.4423001949317743E-4</v>
+        <v>2.2273777777777779E-4</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3626,8 +3635,8 @@
         <v>63</v>
       </c>
       <c r="B146" s="11">
-        <f>0.00038*(B136*47.5*B130/3.6)</f>
-        <v>8.2245370370370392E-6</v>
+        <f>0.00038*(B136*48*B130/3.6)</f>
+        <v>8.311111111111113E-6</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -3639,22 +3648,22 @@
         <v>20</v>
       </c>
       <c r="H146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I146">
         <v>5</v>
       </c>
       <c r="J146" s="6">
         <f t="shared" si="5"/>
-        <v>8.2245370370370392E-6</v>
+        <v>8.311111111111113E-6</v>
       </c>
       <c r="K146" s="6">
-        <f>0.00038*(B136*47.5*B131/3.6)</f>
-        <v>7.3106995884773691E-6</v>
+        <f>0.00038*(B136*48*B131/3.6)</f>
+        <v>7.4800000000000004E-6</v>
       </c>
       <c r="L146" s="6">
-        <f>0.00038*(B136*47.5*B132/3.6)</f>
-        <v>9.1383744855967103E-6</v>
+        <f>0.00038*(B136*48*B132/3.6)</f>
+        <v>9.1422222222222249E-6</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3662,8 +3671,8 @@
         <v>114</v>
       </c>
       <c r="B147" s="11">
-        <f>0.00002*(B136*47.5*B130/3.6)</f>
-        <v>4.3287037037037051E-7</v>
+        <f>0.00002*(B136*48*B130/3.6)</f>
+        <v>4.3742690058479546E-7</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
@@ -3675,22 +3684,22 @@
         <v>20</v>
       </c>
       <c r="H147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I147">
         <v>5</v>
       </c>
       <c r="J147" s="6">
         <f t="shared" si="5"/>
-        <v>4.3287037037037051E-7</v>
+        <v>4.3742690058479546E-7</v>
       </c>
       <c r="K147" s="11">
-        <f>0.00002*(B136*47.5*B131/3.6)</f>
-        <v>3.8477366255144049E-7</v>
+        <f>0.00002*(B136*48*B131/3.6)</f>
+        <v>3.9368421052631582E-7</v>
       </c>
       <c r="L147" s="11">
-        <f>0.00002*(B136*47.5*B132/3.6)</f>
-        <v>4.8096707818930057E-7</v>
+        <f>0.00002*(B136*48*B132/3.6)</f>
+        <v>4.81169590643275E-7</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3714,7 +3723,7 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -3770,7 +3779,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="13">
         <f>parameters!I9</f>
@@ -3779,7 +3788,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" s="13">
         <f>parameters!J9</f>
@@ -3788,7 +3797,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="13">
         <f>parameters!K9</f>
@@ -3797,7 +3806,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B162" s="13">
         <f>parameters!$C$15</f>
@@ -3806,29 +3815,29 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B163" s="13">
         <f>parameters!C20</f>
-        <v>0.41500000000000004</v>
+        <v>0.49342105263157898</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" s="13">
         <f>parameters!D20</f>
-        <v>0.38</v>
+        <v>0.44407894736842107</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165" s="13">
         <f>parameters!E20</f>
-        <v>0.45</v>
+        <v>0.54276315789473695</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3903,7 +3912,7 @@
       </c>
       <c r="B169" s="12">
         <f>0.11*(B162/B163)/46/(1-B159)</f>
-        <v>2.7828706128863278E-3</v>
+        <v>2.3405797101449274E-3</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3918,22 +3927,22 @@
         <v>116</v>
       </c>
       <c r="H169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I169">
         <v>5</v>
       </c>
       <c r="J169">
         <f>B169</f>
-        <v>2.7828706128863278E-3</v>
+        <v>2.3405797101449274E-3</v>
       </c>
       <c r="K169" s="6">
         <f>0.11*(B162/B165)/46/(1-B160)</f>
-        <v>2.5093934514224371E-3</v>
+        <v>2.080515297906602E-3</v>
       </c>
       <c r="L169" s="6">
         <f>0.11*(B162/B164)/46/(1-B161)</f>
-        <v>3.1464530892448515E-3</v>
+        <v>2.6924315619967797E-3</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -4044,7 +4053,7 @@
       </c>
       <c r="B173" s="12">
         <f>B169*3</f>
-        <v>8.3486118386589831E-3</v>
+        <v>7.0217391304347818E-3</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
@@ -4063,15 +4072,15 @@
       </c>
       <c r="J173" s="6">
         <f>B173</f>
-        <v>8.3486118386589831E-3</v>
+        <v>7.0217391304347818E-3</v>
       </c>
       <c r="K173" s="6">
         <f>K169*3</f>
-        <v>7.5281803542673114E-3</v>
+        <v>6.2415458937198059E-3</v>
       </c>
       <c r="L173" s="6">
         <f>L169*3</f>
-        <v>9.4393592677345546E-3</v>
+        <v>8.0772946859903397E-3</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4080,7 +4089,7 @@
       </c>
       <c r="B174" s="11">
         <f>0.00186*(B169*46*B163/3.6)</f>
-        <v>2.7447916666666672E-5</v>
+        <v>2.7447916666666669E-5</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
@@ -4092,22 +4101,22 @@
         <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I174">
         <v>5</v>
       </c>
       <c r="J174" s="6">
         <f t="shared" ref="J174:J180" si="6">B174</f>
-        <v>2.7447916666666672E-5</v>
+        <v>2.7447916666666669E-5</v>
       </c>
       <c r="K174" s="6">
         <f>0.00186*(B169*46*B164/3.6)</f>
-        <v>2.5133032128514057E-5</v>
+        <v>2.4703125000000002E-5</v>
       </c>
       <c r="L174" s="6">
         <f>0.00186*(B169*46*B165/3.6)</f>
-        <v>2.976280120481928E-5</v>
+        <v>3.0192708333333338E-5</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4128,7 +4137,7 @@
         <v>20</v>
       </c>
       <c r="H175" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I175">
         <v>5</v>
@@ -4139,11 +4148,11 @@
       </c>
       <c r="K175" s="6">
         <f>0.00117*(B169*46*B164/3.6)</f>
-        <v>1.5809487951807229E-5</v>
+        <v>1.5539062499999999E-5</v>
       </c>
       <c r="L175" s="6">
         <f>0.00117*(B169*46*B165/3.6)</f>
-        <v>1.8721762048192773E-5</v>
+        <v>1.8992187500000003E-5</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4152,7 +4161,7 @@
       </c>
       <c r="B176" s="11">
         <f>0.00003*(B169*46*B163/3.6)</f>
-        <v>4.4270833333333337E-7</v>
+        <v>4.4270833333333331E-7</v>
       </c>
       <c r="D176" t="s">
         <v>23</v>
@@ -4164,22 +4173,22 @@
         <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I176">
         <v>5</v>
       </c>
       <c r="J176" s="6">
         <f t="shared" si="6"/>
-        <v>4.4270833333333337E-7</v>
+        <v>4.4270833333333331E-7</v>
       </c>
       <c r="K176" s="6">
         <f>0.00003*(B169*46*B164/3.6)</f>
-        <v>4.0537148594377509E-7</v>
+        <v>3.984375E-7</v>
       </c>
       <c r="L176" s="6">
         <f>0.00003*(B169*46*B165/3.6)</f>
-        <v>4.8004518072289164E-7</v>
+        <v>4.8697916666666668E-7</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4188,7 +4197,7 @@
       </c>
       <c r="B177" s="11">
         <f>0.00003*(B169*46*B163/3.6)</f>
-        <v>4.4270833333333337E-7</v>
+        <v>4.4270833333333331E-7</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
@@ -4200,22 +4209,22 @@
         <v>20</v>
       </c>
       <c r="H177" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I177">
         <v>5</v>
       </c>
       <c r="J177" s="6">
         <f t="shared" si="6"/>
-        <v>4.4270833333333337E-7</v>
+        <v>4.4270833333333331E-7</v>
       </c>
       <c r="K177" s="6">
         <f>0.00003*(B169*46*B164/3.6)</f>
-        <v>4.0537148594377509E-7</v>
+        <v>3.984375E-7</v>
       </c>
       <c r="L177" s="6">
         <f>0.00003*(B169*46*B165/3.6)</f>
-        <v>4.8004518072289164E-7</v>
+        <v>4.8697916666666668E-7</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4224,7 +4233,7 @@
       </c>
       <c r="B178" s="11">
         <f>B169*0.02</f>
-        <v>5.5657412257726559E-5</v>
+        <v>4.6811594202898551E-5</v>
       </c>
       <c r="D178" t="s">
         <v>23</v>
@@ -4236,22 +4245,22 @@
         <v>20</v>
       </c>
       <c r="H178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I178">
         <v>5</v>
       </c>
       <c r="J178" s="6">
         <f t="shared" si="6"/>
-        <v>5.5657412257726559E-5</v>
+        <v>4.6811594202898551E-5</v>
       </c>
       <c r="K178" s="6">
         <f>J178</f>
-        <v>5.5657412257726559E-5</v>
+        <v>4.6811594202898551E-5</v>
       </c>
       <c r="L178" s="6">
         <f>0.067*B169</f>
-        <v>1.8645233106338397E-4</v>
+        <v>1.5681884057971014E-4</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4260,7 +4269,7 @@
       </c>
       <c r="B179" s="11">
         <f>0.00038*(B169*46*B163/3.6)</f>
-        <v>5.6076388888888899E-6</v>
+        <v>5.607638888888889E-6</v>
       </c>
       <c r="D179" t="s">
         <v>23</v>
@@ -4272,22 +4281,22 @@
         <v>20</v>
       </c>
       <c r="H179" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I179">
         <v>5</v>
       </c>
       <c r="J179" s="6">
         <f t="shared" si="6"/>
-        <v>5.6076388888888899E-6</v>
+        <v>5.607638888888889E-6</v>
       </c>
       <c r="K179" s="6">
         <f>0.00038*(B169*46*B164/3.6)</f>
-        <v>5.1347054886211519E-6</v>
+        <v>5.0468749999999999E-6</v>
       </c>
       <c r="L179" s="6">
         <f>0.00038*(B169*46*B165/3.6)</f>
-        <v>6.080572289156627E-6</v>
+        <v>6.168402777777779E-6</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4296,7 +4305,7 @@
       </c>
       <c r="B180" s="11">
         <f>0.00002*(B169*46*B163/3.6)</f>
-        <v>2.9513888888888895E-7</v>
+        <v>2.9513888888888889E-7</v>
       </c>
       <c r="D180" t="s">
         <v>23</v>
@@ -4308,22 +4317,22 @@
         <v>20</v>
       </c>
       <c r="H180" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I180">
         <v>5</v>
       </c>
       <c r="J180" s="6">
         <f t="shared" si="6"/>
-        <v>2.9513888888888895E-7</v>
+        <v>2.9513888888888889E-7</v>
       </c>
       <c r="K180" s="11">
         <f>0.00002*(B169*46*B164/3.6)</f>
-        <v>2.7024765729585008E-7</v>
+        <v>2.65625E-7</v>
       </c>
       <c r="L180">
         <f>0.00002*(B169*46*B165/3.6)</f>
-        <v>3.2003012048192776E-7</v>
+        <v>3.2465277777777784E-7</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4331,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -4339,7 +4348,7 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -4347,7 +4356,7 @@
         <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -4403,7 +4412,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B191" s="13">
         <v>0</v>
@@ -4411,7 +4420,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B192" s="13">
         <v>0</v>
@@ -4419,7 +4428,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B193" s="13">
         <v>0</v>
@@ -4427,7 +4436,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B194" s="13">
         <f>parameters!$C$15</f>
@@ -4436,26 +4445,29 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B195" s="13">
-        <v>0</v>
+        <f>parameters!C22</f>
+        <v>0.50434295320818157</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B196" s="13">
-        <v>0</v>
+        <f>parameters!D22</f>
+        <v>0.4539086578873634</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B197" s="13">
-        <v>0</v>
+        <f>parameters!E22</f>
+        <v>0.55477724852899979</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4526,14 +4538,14 @@
     </row>
     <row r="201" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B201" s="12">
-        <f>0.11/43</f>
-        <v>2.5581395348837212E-3</v>
+        <f>0.11*(B194/B195)/46/(1-B191)</f>
+        <v>2.0151056763285029E-3</v>
       </c>
       <c r="C201" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
@@ -4542,13 +4554,26 @@
         <v>17</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H201" t="s">
-        <v>173</v>
-      </c>
-      <c r="K201" s="6"/>
-      <c r="L201" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="I201">
+        <v>5</v>
+      </c>
+      <c r="J201">
+        <f>B201</f>
+        <v>2.0151056763285029E-3</v>
+      </c>
+      <c r="K201" s="6">
+        <f>0.11*(B194/B197)/46/(1-B192)</f>
+        <v>1.8319142512077293E-3</v>
+      </c>
+      <c r="L201" s="6">
+        <f>0.11*(B194/B196)/46/(1-B193)</f>
+        <v>2.2390063070316696E-3</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -4571,7 +4596,7 @@
         <v>43</v>
       </c>
       <c r="H202" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
@@ -4598,7 +4623,7 @@
         <v>49</v>
       </c>
       <c r="H203" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
@@ -4630,11 +4655,11 @@
     </row>
     <row r="205" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B205" s="12">
         <f>B201*3.15</f>
-        <v>8.0581395348837213E-3</v>
+        <v>6.3475828804347842E-3</v>
       </c>
       <c r="D205" t="s">
         <v>23</v>
@@ -4646,19 +4671,31 @@
         <v>20</v>
       </c>
       <c r="H205" t="s">
-        <v>120</v>
-      </c>
-      <c r="J205" s="6"/>
-      <c r="K205" s="6"/>
-      <c r="L205" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="I205">
+        <v>5</v>
+      </c>
+      <c r="J205" s="6">
+        <f>B205</f>
+        <v>6.3475828804347842E-3</v>
+      </c>
+      <c r="K205" s="6">
+        <f>K201*3</f>
+        <v>5.4957427536231878E-3</v>
+      </c>
+      <c r="L205" s="6">
+        <f>L201*3</f>
+        <v>6.7170189210950092E-3</v>
+      </c>
     </row>
     <row r="206" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B206" s="11">
-        <f>0.0009*(B201*43*B194/3.6)</f>
-        <v>1.1687500000000003E-5</v>
+        <f>0.0009*(B201*43*B195/3.6)</f>
+        <v>1.0925271739130437E-5</v>
       </c>
       <c r="D206" t="s">
         <v>23</v>
@@ -4670,22 +4707,22 @@
         <v>20</v>
       </c>
       <c r="H206" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="I206">
         <v>5</v>
       </c>
       <c r="J206" s="6">
-        <f t="shared" ref="J206:J211" si="7">B206</f>
-        <v>1.1687500000000003E-5</v>
+        <f t="shared" ref="J206" si="7">B206</f>
+        <v>1.0925271739130437E-5</v>
       </c>
       <c r="K206" s="6">
-        <f>J206*0.5</f>
-        <v>5.8437500000000014E-6</v>
+        <f>0.00186*(B201*43*B196/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L206" s="6">
-        <f>J206*2</f>
-        <v>2.3375000000000006E-5</v>
+        <f>0.00186*(B201*43*B197/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4693,8 +4730,8 @@
         <v>24</v>
       </c>
       <c r="B207">
-        <f>0.0026*(B201*43*B194/3.6)</f>
-        <v>3.3763888888888895E-5</v>
+        <f>0.0026*(B201*43*B195/3.6)</f>
+        <v>3.1561896135265709E-5</v>
       </c>
       <c r="D207" t="s">
         <v>23</v>
@@ -4706,22 +4743,22 @@
         <v>20</v>
       </c>
       <c r="H207" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="I207">
         <v>5</v>
       </c>
       <c r="J207" s="6">
-        <f t="shared" si="7"/>
-        <v>3.3763888888888895E-5</v>
+        <f t="shared" ref="J206:J211" si="8">B207</f>
+        <v>3.1561896135265709E-5</v>
       </c>
       <c r="K207" s="6">
-        <f t="shared" ref="K207:K211" si="8">J207*0.5</f>
-        <v>1.6881944444444447E-5</v>
+        <f>0.00186*(B201*43*B196/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L207" s="6">
-        <f t="shared" ref="L207:L211" si="9">J207*2</f>
-        <v>6.752777777777779E-5</v>
+        <f>0.00186*(B201*43*B197/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4729,8 +4766,8 @@
         <v>62</v>
       </c>
       <c r="B208" s="11">
-        <f>0.00025*(B201*43*B194/3.6)</f>
-        <v>3.2465277777777787E-6</v>
+        <f>0.00025*(B201*43*B195/3.6)</f>
+        <v>3.0347977053140105E-6</v>
       </c>
       <c r="D208" t="s">
         <v>23</v>
@@ -4742,31 +4779,31 @@
         <v>20</v>
       </c>
       <c r="H208" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I208">
         <v>5</v>
       </c>
       <c r="J208" s="6">
-        <f t="shared" si="7"/>
-        <v>3.2465277777777787E-6</v>
+        <f t="shared" si="8"/>
+        <v>3.0347977053140105E-6</v>
       </c>
       <c r="K208" s="6">
-        <f t="shared" si="8"/>
-        <v>1.6232638888888894E-6</v>
+        <f>0.00186*(B201*43*B196/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L208" s="6">
-        <f t="shared" si="9"/>
-        <v>6.4930555555555574E-6</v>
+        <f>0.00186*(B201*43*B197/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B209" s="11">
-        <f>0.00001*(B201*43*B194/3.6)</f>
-        <v>1.2986111111111117E-7</v>
+        <f>0.00001*(B201*43*B195/3.6)</f>
+        <v>1.2139190821256042E-7</v>
       </c>
       <c r="D209" t="s">
         <v>23</v>
@@ -4778,22 +4815,22 @@
         <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="I209">
         <v>5</v>
       </c>
       <c r="J209" s="6">
-        <f t="shared" si="7"/>
-        <v>1.2986111111111117E-7</v>
+        <f t="shared" si="8"/>
+        <v>1.2139190821256042E-7</v>
       </c>
       <c r="K209" s="6">
-        <f t="shared" si="8"/>
-        <v>6.4930555555555584E-8</v>
+        <f>0.00186*(B201*43*B196/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L209" s="6">
-        <f t="shared" si="9"/>
-        <v>2.5972222222222234E-7</v>
+        <f>0.00186*(B201*43*B197/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4801,8 +4838,8 @@
         <v>63</v>
       </c>
       <c r="B210" s="11">
-        <f>0.00041*(B201*43*B194/3.6)</f>
-        <v>5.324305555555557E-6</v>
+        <f>0.00041*(B201*43*B195/3.6)</f>
+        <v>4.9770682367149768E-6</v>
       </c>
       <c r="D210" t="s">
         <v>23</v>
@@ -4814,22 +4851,22 @@
         <v>20</v>
       </c>
       <c r="H210" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I210">
         <v>5</v>
       </c>
       <c r="J210" s="6">
-        <f t="shared" si="7"/>
-        <v>5.324305555555557E-6</v>
+        <f t="shared" si="8"/>
+        <v>4.9770682367149768E-6</v>
       </c>
       <c r="K210" s="6">
-        <f t="shared" si="8"/>
-        <v>2.6621527777777785E-6</v>
+        <f>0.00186*(B201*43*B196/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L210" s="6">
-        <f t="shared" si="9"/>
-        <v>1.0648611111111114E-5</v>
+        <f>0.00186*(B201*43*B197/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4837,8 +4874,8 @@
         <v>114</v>
       </c>
       <c r="B211" s="11">
-        <f>0.00003*(B201*43*B194/3.6)</f>
-        <v>3.8958333333333345E-7</v>
+        <f>0.00003*(B201*43*B195/3.6)</f>
+        <v>3.6417572463768126E-7</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
@@ -4850,22 +4887,22 @@
         <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="I211">
         <v>5</v>
       </c>
       <c r="J211" s="6">
-        <f t="shared" si="7"/>
-        <v>3.8958333333333345E-7</v>
+        <f t="shared" si="8"/>
+        <v>3.6417572463768126E-7</v>
       </c>
       <c r="K211" s="6">
-        <f t="shared" si="8"/>
-        <v>1.9479166666666673E-7</v>
+        <f>0.00186*(B201*43*B196/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L211" s="6">
-        <f t="shared" si="9"/>
-        <v>7.791666666666669E-7</v>
+        <f>0.00186*(B201*43*B197/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4873,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -4881,7 +4918,7 @@
         <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -4889,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -4945,7 +4982,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B222" s="13">
         <f>parameters!I41</f>
@@ -4954,7 +4991,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B223" s="13">
         <f>parameters!J41</f>
@@ -4963,7 +5000,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B224" s="13">
         <f>parameters!K41</f>
@@ -4972,7 +5009,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B225" s="13">
         <f>parameters!$C$15</f>
@@ -4981,29 +5018,29 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B226" s="13">
-        <f>parameters!C52</f>
-        <v>0</v>
+        <f>parameters!C22</f>
+        <v>0.50434295320818157</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B227" s="13">
-        <f>parameters!D52</f>
-        <v>0</v>
+        <f>parameters!D22</f>
+        <v>0.4539086578873634</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B228" s="13">
-        <f>parameters!E52</f>
-        <v>0</v>
+        <f>parameters!E22</f>
+        <v>0.55477724852899979</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5074,14 +5111,14 @@
     </row>
     <row r="232" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B232" s="12">
-        <f>0.11/43</f>
-        <v>2.5581395348837212E-3</v>
+        <f>0.11*(B225/B226)/46/(1-B222)</f>
+        <v>2.0151056763285029E-3</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
@@ -5090,13 +5127,26 @@
         <v>17</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H232" t="s">
-        <v>173</v>
-      </c>
-      <c r="K232" s="6"/>
-      <c r="L232" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="I232">
+        <v>5</v>
+      </c>
+      <c r="J232">
+        <f>B232</f>
+        <v>2.0151056763285029E-3</v>
+      </c>
+      <c r="K232" s="6">
+        <f>0.11*(B225/B228)/46/(1-B223)</f>
+        <v>1.8319142512077293E-3</v>
+      </c>
+      <c r="L232" s="6">
+        <f>0.11*(B225/B227)/46/(1-B224)</f>
+        <v>2.2390063070316696E-3</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -5182,7 +5232,7 @@
       </c>
       <c r="B236" s="12">
         <f>B232*3.15</f>
-        <v>8.0581395348837213E-3</v>
+        <v>6.3475828804347842E-3</v>
       </c>
       <c r="D236" t="s">
         <v>23</v>
@@ -5194,19 +5244,31 @@
         <v>20</v>
       </c>
       <c r="H236" t="s">
-        <v>120</v>
-      </c>
-      <c r="J236" s="6"/>
-      <c r="K236" s="6"/>
-      <c r="L236" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="I236">
+        <v>5</v>
+      </c>
+      <c r="J236" s="6">
+        <f>B236</f>
+        <v>6.3475828804347842E-3</v>
+      </c>
+      <c r="K236" s="6">
+        <f>K232*3</f>
+        <v>5.4957427536231878E-3</v>
+      </c>
+      <c r="L236" s="6">
+        <f>L232*3</f>
+        <v>6.7170189210950092E-3</v>
+      </c>
     </row>
     <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>61</v>
       </c>
       <c r="B237" s="11">
-        <f>0.0009*(B232*43*B225/3.6)</f>
-        <v>1.1687500000000003E-5</v>
+        <f>0.0009*(B232*43*B226/3.6)</f>
+        <v>1.0925271739130437E-5</v>
       </c>
       <c r="D237" t="s">
         <v>23</v>
@@ -5218,22 +5280,22 @@
         <v>20</v>
       </c>
       <c r="H237" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="I237">
         <v>5</v>
       </c>
       <c r="J237" s="6">
-        <f t="shared" ref="J237:J242" si="10">B237</f>
-        <v>1.1687500000000003E-5</v>
+        <f t="shared" ref="J237:J242" si="9">B237</f>
+        <v>1.0925271739130437E-5</v>
       </c>
       <c r="K237" s="6">
-        <f>J237*0.5</f>
-        <v>5.8437500000000014E-6</v>
+        <f>0.00186*(B232*43*B227/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L237" s="6">
-        <f>J237*2</f>
-        <v>2.3375000000000006E-5</v>
+        <f>0.00186*(B232*43*B228/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5241,8 +5303,8 @@
         <v>24</v>
       </c>
       <c r="B238">
-        <f>0.0026*(B232*43*B225/3.6)</f>
-        <v>3.3763888888888895E-5</v>
+        <f>0.0026*(B232*43*B226/3.6)</f>
+        <v>3.1561896135265709E-5</v>
       </c>
       <c r="D238" t="s">
         <v>23</v>
@@ -5254,22 +5316,22 @@
         <v>20</v>
       </c>
       <c r="H238" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="I238">
         <v>5</v>
       </c>
       <c r="J238" s="6">
-        <f t="shared" si="10"/>
-        <v>3.3763888888888895E-5</v>
+        <f t="shared" si="9"/>
+        <v>3.1561896135265709E-5</v>
       </c>
       <c r="K238" s="6">
-        <f t="shared" ref="K238:K242" si="11">J238*0.5</f>
-        <v>1.6881944444444447E-5</v>
+        <f>0.00186*(B232*43*B227/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L238" s="6">
-        <f t="shared" ref="L238:L242" si="12">J238*2</f>
-        <v>6.752777777777779E-5</v>
+        <f>0.00186*(B232*43*B228/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5277,8 +5339,8 @@
         <v>62</v>
       </c>
       <c r="B239" s="11">
-        <f>0.00025*(B232*43*B225/3.6)</f>
-        <v>3.2465277777777787E-6</v>
+        <f>0.00025*(B232*43*B226/3.6)</f>
+        <v>3.0347977053140105E-6</v>
       </c>
       <c r="D239" t="s">
         <v>23</v>
@@ -5290,22 +5352,22 @@
         <v>20</v>
       </c>
       <c r="H239" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I239">
         <v>5</v>
       </c>
       <c r="J239" s="6">
-        <f t="shared" si="10"/>
-        <v>3.2465277777777787E-6</v>
+        <f t="shared" si="9"/>
+        <v>3.0347977053140105E-6</v>
       </c>
       <c r="K239" s="6">
-        <f t="shared" si="11"/>
-        <v>1.6232638888888894E-6</v>
+        <f>0.00186*(B232*43*B227/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L239" s="6">
-        <f t="shared" si="12"/>
-        <v>6.4930555555555574E-6</v>
+        <f>0.00186*(B232*43*B228/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5313,8 +5375,8 @@
         <v>113</v>
       </c>
       <c r="B240" s="11">
-        <f>0.00001*(B232*43*B225/3.6)</f>
-        <v>1.2986111111111117E-7</v>
+        <f>0.00001*(B232*43*B226/3.6)</f>
+        <v>1.2139190821256042E-7</v>
       </c>
       <c r="D240" t="s">
         <v>23</v>
@@ -5326,22 +5388,22 @@
         <v>20</v>
       </c>
       <c r="H240" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="I240">
         <v>5</v>
       </c>
       <c r="J240" s="6">
-        <f t="shared" si="10"/>
-        <v>1.2986111111111117E-7</v>
+        <f t="shared" si="9"/>
+        <v>1.2139190821256042E-7</v>
       </c>
       <c r="K240" s="6">
-        <f t="shared" si="11"/>
-        <v>6.4930555555555584E-8</v>
+        <f>0.00186*(B232*43*B227/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L240" s="6">
-        <f t="shared" si="12"/>
-        <v>2.5972222222222234E-7</v>
+        <f>0.00186*(B232*43*B228/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5349,8 +5411,8 @@
         <v>63</v>
       </c>
       <c r="B241" s="11">
-        <f>0.00041*(B232*43*B225/3.6)</f>
-        <v>5.324305555555557E-6</v>
+        <f>0.00041*(B232*43*B226/3.6)</f>
+        <v>4.9770682367149768E-6</v>
       </c>
       <c r="D241" t="s">
         <v>23</v>
@@ -5362,22 +5424,22 @@
         <v>20</v>
       </c>
       <c r="H241" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I241">
         <v>5</v>
       </c>
       <c r="J241" s="6">
-        <f t="shared" si="10"/>
-        <v>5.324305555555557E-6</v>
+        <f t="shared" si="9"/>
+        <v>4.9770682367149768E-6</v>
       </c>
       <c r="K241" s="6">
-        <f t="shared" si="11"/>
-        <v>2.6621527777777785E-6</v>
+        <f>0.00186*(B232*43*B227/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L241" s="6">
-        <f t="shared" si="12"/>
-        <v>1.0648611111111114E-5</v>
+        <f>0.00186*(B232*43*B228/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5385,8 +5447,8 @@
         <v>114</v>
       </c>
       <c r="B242" s="11">
-        <f>0.00003*(B232*43*B225/3.6)</f>
-        <v>3.8958333333333345E-7</v>
+        <f>0.00003*(B232*43*B226/3.6)</f>
+        <v>3.6417572463768126E-7</v>
       </c>
       <c r="D242" t="s">
         <v>23</v>
@@ -5398,22 +5460,22 @@
         <v>20</v>
       </c>
       <c r="H242" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="I242">
         <v>5</v>
       </c>
       <c r="J242" s="6">
-        <f t="shared" si="10"/>
-        <v>3.8958333333333345E-7</v>
+        <f t="shared" si="9"/>
+        <v>3.6417572463768126E-7</v>
       </c>
       <c r="K242" s="6">
-        <f t="shared" si="11"/>
-        <v>1.9479166666666673E-7</v>
+        <f>0.00186*(B232*43*B227/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L242" s="6">
-        <f t="shared" si="12"/>
-        <v>7.791666666666669E-7</v>
+        <f>0.00186*(B232*43*B228/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5421,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -5429,7 +5491,7 @@
         <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -5437,7 +5499,7 @@
         <v>10</v>
       </c>
       <c r="B246" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -5493,7 +5555,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B253" s="13">
         <f>parameters!I72</f>
@@ -5502,7 +5564,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B254" s="13">
         <f>parameters!J72</f>
@@ -5511,7 +5573,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B255" s="13">
         <f>parameters!K72</f>
@@ -5520,7 +5582,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B256" s="13">
         <f>parameters!$C$15</f>
@@ -5529,29 +5591,29 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B257" s="13">
-        <f>parameters!C83</f>
-        <v>0</v>
+        <f>parameters!C22</f>
+        <v>0.50434295320818157</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B258" s="13">
-        <f>parameters!D83</f>
-        <v>0</v>
+        <f>parameters!D22</f>
+        <v>0.4539086578873634</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B259" s="13">
-        <f>parameters!E83</f>
-        <v>0</v>
+        <f>parameters!E22</f>
+        <v>0.55477724852899979</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5622,14 +5684,14 @@
     </row>
     <row r="263" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B263" s="12">
-        <f>0.11/43</f>
-        <v>2.5581395348837212E-3</v>
+        <f>0.11*(B256/B257)/46/(1-B253)</f>
+        <v>2.0151056763285029E-3</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="E263" t="s">
         <v>9</v>
@@ -5638,13 +5700,26 @@
         <v>17</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H263" t="s">
-        <v>173</v>
-      </c>
-      <c r="K263" s="6"/>
-      <c r="L263" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="I263">
+        <v>5</v>
+      </c>
+      <c r="J263">
+        <f>B263</f>
+        <v>2.0151056763285029E-3</v>
+      </c>
+      <c r="K263" s="6">
+        <f>0.11*(B256/B259)/46/(1-B254)</f>
+        <v>1.8319142512077293E-3</v>
+      </c>
+      <c r="L263" s="6">
+        <f>0.11*(B256/B258)/46/(1-B255)</f>
+        <v>2.2390063070316696E-3</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -5730,7 +5805,7 @@
       </c>
       <c r="B267" s="12">
         <f>B263*3.15</f>
-        <v>8.0581395348837213E-3</v>
+        <v>6.3475828804347842E-3</v>
       </c>
       <c r="D267" t="s">
         <v>23</v>
@@ -5742,19 +5817,31 @@
         <v>20</v>
       </c>
       <c r="H267" t="s">
-        <v>120</v>
-      </c>
-      <c r="J267" s="6"/>
-      <c r="K267" s="6"/>
-      <c r="L267" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="I267">
+        <v>5</v>
+      </c>
+      <c r="J267" s="6">
+        <f>B267</f>
+        <v>6.3475828804347842E-3</v>
+      </c>
+      <c r="K267" s="6">
+        <f>K263*3</f>
+        <v>5.4957427536231878E-3</v>
+      </c>
+      <c r="L267" s="6">
+        <f>L263*3</f>
+        <v>6.7170189210950092E-3</v>
+      </c>
     </row>
     <row r="268" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>61</v>
       </c>
       <c r="B268" s="11">
-        <f>0.0009*(B263*43*B256/3.6)</f>
-        <v>1.1687500000000003E-5</v>
+        <f>0.0009*(B263*43*B257/3.6)</f>
+        <v>1.0925271739130437E-5</v>
       </c>
       <c r="D268" t="s">
         <v>23</v>
@@ -5766,22 +5853,22 @@
         <v>20</v>
       </c>
       <c r="H268" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="I268">
         <v>5</v>
       </c>
       <c r="J268" s="6">
-        <f t="shared" ref="J268:J273" si="13">B268</f>
-        <v>1.1687500000000003E-5</v>
+        <f t="shared" ref="J268:J273" si="10">B268</f>
+        <v>1.0925271739130437E-5</v>
       </c>
       <c r="K268" s="6">
-        <f>J268*0.5</f>
-        <v>5.8437500000000014E-6</v>
+        <f>0.00186*(B263*43*B258/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L268" s="6">
-        <f>J268*2</f>
-        <v>2.3375000000000006E-5</v>
+        <f>0.00186*(B263*43*B259/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5789,8 +5876,8 @@
         <v>24</v>
       </c>
       <c r="B269">
-        <f>0.0026*(B263*43*B256/3.6)</f>
-        <v>3.3763888888888895E-5</v>
+        <f>0.0026*(B263*43*B257/3.6)</f>
+        <v>3.1561896135265709E-5</v>
       </c>
       <c r="D269" t="s">
         <v>23</v>
@@ -5802,22 +5889,22 @@
         <v>20</v>
       </c>
       <c r="H269" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="I269">
         <v>5</v>
       </c>
       <c r="J269" s="6">
-        <f t="shared" si="13"/>
-        <v>3.3763888888888895E-5</v>
+        <f t="shared" si="10"/>
+        <v>3.1561896135265709E-5</v>
       </c>
       <c r="K269" s="6">
-        <f t="shared" ref="K269:K273" si="14">J269*0.5</f>
-        <v>1.6881944444444447E-5</v>
+        <f>0.00186*(B263*43*B258/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L269" s="6">
-        <f t="shared" ref="L269:L273" si="15">J269*2</f>
-        <v>6.752777777777779E-5</v>
+        <f>0.00186*(B263*43*B259/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5825,8 +5912,8 @@
         <v>62</v>
       </c>
       <c r="B270" s="11">
-        <f>0.00025*(B263*43*B256/3.6)</f>
-        <v>3.2465277777777787E-6</v>
+        <f>0.00025*(B263*43*B257/3.6)</f>
+        <v>3.0347977053140105E-6</v>
       </c>
       <c r="D270" t="s">
         <v>23</v>
@@ -5838,22 +5925,22 @@
         <v>20</v>
       </c>
       <c r="H270" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I270">
         <v>5</v>
       </c>
       <c r="J270" s="6">
-        <f t="shared" si="13"/>
-        <v>3.2465277777777787E-6</v>
+        <f t="shared" si="10"/>
+        <v>3.0347977053140105E-6</v>
       </c>
       <c r="K270" s="6">
-        <f t="shared" si="14"/>
-        <v>1.6232638888888894E-6</v>
+        <f>0.00186*(B263*43*B258/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L270" s="6">
-        <f t="shared" si="15"/>
-        <v>6.4930555555555574E-6</v>
+        <f>0.00186*(B263*43*B259/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5861,8 +5948,8 @@
         <v>113</v>
       </c>
       <c r="B271" s="11">
-        <f>0.00001*(B263*43*B256/3.6)</f>
-        <v>1.2986111111111117E-7</v>
+        <f>0.00001*(B263*43*B257/3.6)</f>
+        <v>1.2139190821256042E-7</v>
       </c>
       <c r="D271" t="s">
         <v>23</v>
@@ -5874,22 +5961,22 @@
         <v>20</v>
       </c>
       <c r="H271" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="I271">
         <v>5</v>
       </c>
       <c r="J271" s="6">
-        <f t="shared" si="13"/>
-        <v>1.2986111111111117E-7</v>
+        <f t="shared" si="10"/>
+        <v>1.2139190821256042E-7</v>
       </c>
       <c r="K271" s="6">
-        <f t="shared" si="14"/>
-        <v>6.4930555555555584E-8</v>
+        <f>0.00186*(B263*43*B258/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L271" s="6">
-        <f t="shared" si="15"/>
-        <v>2.5972222222222234E-7</v>
+        <f>0.00186*(B263*43*B259/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5897,8 +5984,8 @@
         <v>63</v>
       </c>
       <c r="B272" s="11">
-        <f>0.00041*(B263*43*B256/3.6)</f>
-        <v>5.324305555555557E-6</v>
+        <f>0.00041*(B263*43*B257/3.6)</f>
+        <v>4.9770682367149768E-6</v>
       </c>
       <c r="D272" t="s">
         <v>23</v>
@@ -5910,22 +5997,22 @@
         <v>20</v>
       </c>
       <c r="H272" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I272">
         <v>5</v>
       </c>
       <c r="J272" s="6">
-        <f t="shared" si="13"/>
-        <v>5.324305555555557E-6</v>
+        <f t="shared" si="10"/>
+        <v>4.9770682367149768E-6</v>
       </c>
       <c r="K272" s="6">
-        <f t="shared" si="14"/>
-        <v>2.6621527777777785E-6</v>
+        <f>0.00186*(B263*43*B258/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L272" s="6">
-        <f t="shared" si="15"/>
-        <v>1.0648611111111114E-5</v>
+        <f>0.00186*(B263*43*B259/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5933,8 +6020,8 @@
         <v>114</v>
       </c>
       <c r="B273" s="11">
-        <f>0.00003*(B263*43*B256/3.6)</f>
-        <v>3.8958333333333345E-7</v>
+        <f>0.00003*(B263*43*B257/3.6)</f>
+        <v>3.6417572463768126E-7</v>
       </c>
       <c r="D273" t="s">
         <v>23</v>
@@ -5946,22 +6033,22 @@
         <v>20</v>
       </c>
       <c r="H273" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="I273">
         <v>5</v>
       </c>
       <c r="J273" s="6">
-        <f t="shared" si="13"/>
-        <v>3.8958333333333345E-7</v>
+        <f t="shared" si="10"/>
+        <v>3.6417572463768126E-7</v>
       </c>
       <c r="K273" s="6">
-        <f t="shared" si="14"/>
-        <v>1.9479166666666673E-7</v>
+        <f>0.00186*(B263*43*B258/3.6)</f>
+        <v>2.0321005434782613E-5</v>
       </c>
       <c r="L273" s="6">
-        <f t="shared" si="15"/>
-        <v>7.791666666666669E-7</v>
+        <f>0.00186*(B263*43*B259/3.6)</f>
+        <v>2.4836784420289866E-5</v>
       </c>
     </row>
   </sheetData>
@@ -5973,22 +6060,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1A7F4-A2B5-7747-AA61-2990069064F9}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5" customWidth="1"/>
     <col min="9" max="9" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -6053,7 +6140,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -6439,7 +6526,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C15" s="14">
         <f>AVERAGE(D15:E15)</f>
@@ -6457,14 +6544,16 @@
         <v>82</v>
       </c>
       <c r="C16" s="14">
-        <f>AVERAGE(D16:E16)</f>
-        <v>0.375</v>
+        <f>3.6/(0.414*19.9)</f>
+        <v>0.4369674459252787</v>
       </c>
       <c r="D16" s="14">
-        <v>0.35</v>
+        <f>C16*0.75</f>
+        <v>0.32772558444395905</v>
       </c>
       <c r="E16" s="14">
-        <v>0.4</v>
+        <f>C16*1.25</f>
+        <v>0.54620930740659834</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -6472,7 +6561,8 @@
         <v>84</v>
       </c>
       <c r="C17" s="14">
-        <v>0.44</v>
+        <f>3.6/(0.435*18.8)</f>
+        <v>0.44020542920029343</v>
       </c>
       <c r="D17" s="14">
         <v>0.35</v>
@@ -6516,14 +6606,16 @@
         <v>103</v>
       </c>
       <c r="C20" s="14">
-        <f>AVERAGE(D20:E20)</f>
-        <v>0.41500000000000004</v>
+        <f>3.6/(0.152*48)</f>
+        <v>0.49342105263157898</v>
       </c>
       <c r="D20" s="14">
-        <v>0.38</v>
+        <f>C20*0.9</f>
+        <v>0.44407894736842107</v>
       </c>
       <c r="E20" s="14">
-        <v>0.45</v>
+        <f>C20*1.1</f>
+        <v>0.54276315789473695</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -6531,14 +6623,38 @@
         <v>101</v>
       </c>
       <c r="C21" s="14">
-        <f>AVERAGE(D21:E21)</f>
-        <v>0.45</v>
+        <f>3.6/(0.152*48)</f>
+        <v>0.49342105263157898</v>
       </c>
       <c r="D21" s="14">
-        <v>0.4</v>
+        <f>C21*0.9</f>
+        <v>0.44407894736842107</v>
       </c>
       <c r="E21" s="14">
-        <v>0.5</v>
+        <f>C21*1.1</f>
+        <v>0.54276315789473695</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="14">
+        <f>3.6/(0.166*43)</f>
+        <v>0.50434295320818157</v>
+      </c>
+      <c r="D22" s="14">
+        <f>C22*0.9</f>
+        <v>0.4539086578873634</v>
+      </c>
+      <c r="E22" s="14">
+        <f>C22*1.1</f>
+        <v>0.55477724852899979</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D73B91A-AAEB-EF4E-8696-BE0E062B62A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD5B0D-E803-1544-BED6-A625E2DE0E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventories!$A$1:$O$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventories!$A$1:$O$242</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="196">
   <si>
     <t>Database</t>
   </si>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t>0.00002 kg N2O/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>diesel, synthetic</t>
+  </si>
+  <si>
+    <t>biodiesel, from forest residues</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291"/>
+      <selection activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1066,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>121500000000.00002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1134,7 +1142,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -1143,7 +1151,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -1179,7 +1187,7 @@
         <v>0.47500000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -1188,7 +1196,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -1197,12 +1205,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>B4</f>
         <v>transport, freight, sea, container ship, powered with hydrogen</v>
@@ -1263,7 +1271,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1304,7 +1312,7 @@
       <c r="M23"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
@@ -1343,7 +1351,7 @@
         <v>2.3148148148148148E-8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1390,7 @@
         <v>2.7777777777777779E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>9.2592592592592591E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>9.2592592592592589E-12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>9.2592592592592589E-12</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1523,7 +1531,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1548,10 +1556,10 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -1608,7 +1616,7 @@
         <v>90000000000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -1617,7 +1625,7 @@
         <v>72000000000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -1626,7 +1634,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -1635,7 +1643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -1662,7 +1670,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -1680,7 +1688,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -1689,12 +1697,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -1732,7 +1740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>B32</f>
         <v>transport, freight, sea, container ship, powered with electricity</v>
@@ -1755,7 +1763,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>4.3287037037037041E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -1872,7 +1880,7 @@
         <v>1.3888888888888888E-11</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>1.3888888888888888E-11</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1935,7 +1943,8 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
     </row>
-    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1959,7 +1968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +1984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +1992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -1992,7 +2001,7 @@
         <v>144000000000</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -2037,7 +2046,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>0.44020542920029343</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -2064,7 +2073,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -2073,12 +2082,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>B57</f>
         <v>transport, freight, sea, container ship, powered with liquid ammonia</v>
@@ -2139,7 +2148,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>57</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>9.5750128008192537E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>7.4074074074074075E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -2256,7 +2265,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -2319,7 +2328,7 @@
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>2.1571959635416667E-6</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>4.3143919270833341E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>62</v>
       </c>
@@ -2427,7 +2436,7 @@
         <v>3.3187630208333344E-7</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>63</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>4.6462682291666672E-8</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>6.6375260416666688E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -2535,11 +2544,11 @@
         <v>2.1571959635416667E-6</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J87" s="6"/>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2564,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2579,7 +2588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2596,7 +2605,7 @@
         <v>144000000000</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2605,7 +2614,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -2650,7 +2659,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>131</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>0.4369674459252787</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -2668,7 +2677,7 @@
         <v>0.32772558444395905</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -2677,12 +2686,12 @@
         <v>0.54620930740659834</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f>B88</f>
         <v>transport, freight, sea, container ship, powered with methanol</v>
@@ -2743,7 +2752,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>9.5577777777777744E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>44</v>
       </c>
@@ -2821,7 +2830,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -2884,7 +2893,7 @@
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
     </row>
-    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>69</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>1.3094155555555553E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -2956,7 +2965,7 @@
         <v>9.7395833333333313E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -2992,7 +3001,7 @@
         <v>5.2756076388888881E-5</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>2.8407118055555551E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -3064,12 +3073,12 @@
         <v>9.9424913194444421E-9</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -3077,7 +3086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>94</v>
       </c>
@@ -3135,7 +3144,7 @@
         <v>90000000000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -3144,7 +3153,7 @@
         <v>117000000000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -3153,7 +3162,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>159</v>
       </c>
@@ -3162,7 +3171,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -3171,7 +3180,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -3180,7 +3189,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>0.49342105263157898</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3198,7 +3207,7 @@
         <v>0.44407894736842107</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3207,12 +3216,12 @@
         <v>0.54276315789473695</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>13</v>
       </c>
@@ -3250,7 +3259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f>B117</f>
         <v>transport, freight, sea, container ship, powered with synthetic methane</v>
@@ -3273,7 +3282,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>109</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>4.432592592592593E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -3351,7 +3360,7 @@
         <v>1.1111111111111111E-11</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>1.1111111111111111E-11</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>52</v>
       </c>
@@ -3414,7 +3423,7 @@
       <c r="K139" s="11"/>
       <c r="L139" s="11"/>
     </row>
-    <row r="140" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>69</v>
       </c>
@@ -3450,7 +3459,7 @@
         <v>1.2145303703703706E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>4.4748771929824572E-5</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>2.8148421052631585E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -3558,7 +3567,7 @@
         <v>7.2175438596491244E-7</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>62</v>
       </c>
@@ -3594,7 +3603,7 @@
         <v>7.2175438596491244E-7</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>113</v>
       </c>
@@ -3630,7 +3639,7 @@
         <v>2.2273777777777779E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>63</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>9.1422222222222249E-6</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>114</v>
       </c>
@@ -3702,7 +3711,9 @@
         <v>4.81169590643275E-7</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
@@ -3710,7 +3721,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -3718,7 +3729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3726,7 +3737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3734,7 +3745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3742,7 +3753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -3750,7 +3761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>93</v>
       </c>
@@ -3759,7 +3770,7 @@
         <v>158400000000</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>94</v>
       </c>
@@ -3768,7 +3779,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>95</v>
       </c>
@@ -3777,7 +3788,7 @@
         <v>162000000000</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3786,7 +3797,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3804,7 +3815,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>134</v>
       </c>
@@ -3813,7 +3824,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>131</v>
       </c>
@@ -3822,7 +3833,7 @@
         <v>0.49342105263157898</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -3831,7 +3842,7 @@
         <v>0.44407894736842107</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>133</v>
       </c>
@@ -3840,12 +3851,12 @@
         <v>0.54276315789473695</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>13</v>
       </c>
@@ -3883,7 +3894,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <f>B150</f>
         <v>transport, freight, sea, container ship, powered with synthetic liquefied petroleum gas</v>
@@ -3906,7 +3917,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>115</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>2.6924315619967797E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>44</v>
       </c>
@@ -3984,7 +3995,7 @@
         <v>6.5359477124183003E-12</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>50</v>
       </c>
@@ -4023,7 +4034,7 @@
         <v>6.5359477124183003E-12</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>52</v>
       </c>
@@ -4047,7 +4058,7 @@
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
     </row>
-    <row r="173" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>69</v>
       </c>
@@ -4083,7 +4094,7 @@
         <v>8.0772946859903397E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>61</v>
       </c>
@@ -4119,7 +4130,7 @@
         <v>3.0192708333333338E-5</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -4155,7 +4166,7 @@
         <v>1.8992187500000003E-5</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>112</v>
       </c>
@@ -4191,7 +4202,7 @@
         <v>4.8697916666666668E-7</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>62</v>
       </c>
@@ -4227,7 +4238,7 @@
         <v>4.8697916666666668E-7</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>113</v>
       </c>
@@ -4263,7 +4274,7 @@
         <v>1.5681884057971014E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4299,7 +4310,7 @@
         <v>6.168402777777779E-6</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>114</v>
       </c>
@@ -4335,7 +4346,8 @@
         <v>3.2465277777777784E-7</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
@@ -4343,7 +4355,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -4351,7 +4363,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -4359,7 +4371,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +4379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>93</v>
       </c>
@@ -4392,7 +4404,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>94</v>
       </c>
@@ -4401,7 +4413,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -4410,7 +4422,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>158</v>
       </c>
@@ -4418,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>159</v>
       </c>
@@ -4426,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>160</v>
       </c>
@@ -4434,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>134</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>131</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>0.50434295320818157</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>132</v>
       </c>
@@ -4461,7 +4473,7 @@
         <v>0.4539086578873634</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>133</v>
       </c>
@@ -4470,12 +4482,12 @@
         <v>0.55477724852899979</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>13</v>
       </c>
@@ -4513,7 +4525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
         <f>B182</f>
         <v>transport, freight, sea, container ship, powered with diesel</v>
@@ -4536,7 +4548,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>179</v>
       </c>
@@ -4575,7 +4587,7 @@
         <v>2.2390063070316696E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>44</v>
       </c>
@@ -4602,7 +4614,7 @@
       <c r="K202" s="11"/>
       <c r="L202" s="11"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>50</v>
       </c>
@@ -4629,7 +4641,7 @@
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>52</v>
       </c>
@@ -4653,7 +4665,7 @@
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
     </row>
-    <row r="205" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>176</v>
       </c>
@@ -4689,7 +4701,7 @@
         <v>6.7170189210950092E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>177</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="J207" s="6">
-        <f t="shared" ref="J206:J211" si="8">B207</f>
+        <f t="shared" ref="J207:J211" si="8">B207</f>
         <v>3.1561896135265709E-5</v>
       </c>
       <c r="K207" s="6">
@@ -4761,7 +4773,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>62</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>178</v>
       </c>
@@ -4833,7 +4845,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>63</v>
       </c>
@@ -4869,7 +4881,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>114</v>
       </c>
@@ -4905,7 +4917,8 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -4913,7 +4926,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -4921,7 +4934,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -4929,7 +4942,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -4937,7 +4950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -4945,7 +4958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -4953,7 +4966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>93</v>
       </c>
@@ -4962,7 +4975,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>94</v>
       </c>
@@ -4971,7 +4984,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>95</v>
       </c>
@@ -4980,7 +4993,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -4989,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>159</v>
       </c>
@@ -4998,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>160</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>134</v>
       </c>
@@ -5016,7 +5029,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>131</v>
       </c>
@@ -5025,7 +5038,7 @@
         <v>0.50434295320818157</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>132</v>
       </c>
@@ -5034,7 +5047,7 @@
         <v>0.4539086578873634</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>133</v>
       </c>
@@ -5043,12 +5056,12 @@
         <v>0.55477724852899979</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>13</v>
       </c>
@@ -5086,7 +5099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
         <f>B213</f>
         <v>transport, freight, sea, container ship, powered with synthetic diesel</v>
@@ -5118,7 +5131,7 @@
         <v>2.0151056763285029E-3</v>
       </c>
       <c r="C232" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
@@ -5127,7 +5140,7 @@
         <v>17</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H232" t="s">
         <v>171</v>
@@ -5148,7 +5161,7 @@
         <v>2.2390063070316696E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>44</v>
       </c>
@@ -5175,7 +5188,7 @@
       <c r="K233" s="11"/>
       <c r="L233" s="11"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>50</v>
       </c>
@@ -5202,7 +5215,7 @@
       <c r="K234" s="11"/>
       <c r="L234" s="11"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>52</v>
       </c>
@@ -5226,7 +5239,7 @@
       <c r="K235" s="11"/>
       <c r="L235" s="11"/>
     </row>
-    <row r="236" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>69</v>
       </c>
@@ -5262,7 +5275,7 @@
         <v>6.7170189210950092E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -5298,7 +5311,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -5334,7 +5347,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>62</v>
       </c>
@@ -5370,7 +5383,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>113</v>
       </c>
@@ -5406,7 +5419,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>63</v>
       </c>
@@ -5442,7 +5455,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>114</v>
       </c>
@@ -5691,7 +5704,7 @@
         <v>2.0151056763285029E-3</v>
       </c>
       <c r="C263" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E263" t="s">
         <v>9</v>
@@ -5700,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="H263" t="s">
         <v>171</v>
@@ -6052,7 +6065,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O225" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O242" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="diesel production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D73B91A-AAEB-EF4E-8696-BE0E062B62A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81D883-22D7-C34C-BD65-0B4FBBF90690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="196">
   <si>
     <t>Database</t>
   </si>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t>0.00002 kg N2O/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
+  </si>
+  <si>
+    <t>biodiesel, from forest residues</t>
+  </si>
+  <si>
+    <t>diesel, synthetic</t>
   </si>
 </sst>
 </file>
@@ -625,11 +631,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -692,7 +698,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
@@ -700,12 +706,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -714,17 +720,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1028,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="D232" sqref="D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4749,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="J207" s="6">
-        <f t="shared" ref="J206:J211" si="8">B207</f>
+        <f t="shared" ref="J207:J211" si="8">B207</f>
         <v>3.1561896135265709E-5</v>
       </c>
       <c r="K207" s="6">
@@ -5118,7 +5124,7 @@
         <v>2.0151056763285029E-3</v>
       </c>
       <c r="C232" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
@@ -5127,7 +5133,7 @@
         <v>17</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="H232" t="s">
         <v>171</v>
@@ -5691,7 +5697,7 @@
         <v>2.0151056763285029E-3</v>
       </c>
       <c r="C263" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E263" t="s">
         <v>9</v>
@@ -5700,7 +5706,7 @@
         <v>17</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H263" t="s">
         <v>171</v>

--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD5B0D-E803-1544-BED6-A625E2DE0E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81D883-22D7-C34C-BD65-0B4FBBF90690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventories!$A$1:$O$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inventories!$A$1:$O$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -620,10 +620,10 @@
     <t>0.00002 kg N2O/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
   </si>
   <si>
+    <t>biodiesel, from forest residues</t>
+  </si>
+  <si>
     <t>diesel, synthetic</t>
-  </si>
-  <si>
-    <t>biodiesel, from forest residues</t>
   </si>
 </sst>
 </file>
@@ -631,11 +631,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -698,7 +698,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
@@ -706,12 +706,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -720,17 +720,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1032,11 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="D232" sqref="D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1066,8 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>121500000000.00002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -1160,7 +1158,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -1187,7 +1185,7 @@
         <v>0.47500000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -1196,7 +1194,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -1205,12 +1203,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>B4</f>
         <v>transport, freight, sea, container ship, powered with hydrogen</v>
@@ -1271,7 +1269,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -1312,7 +1310,7 @@
       <c r="M23"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
@@ -1351,7 +1349,7 @@
         <v>2.3148148148148148E-8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1390,7 +1388,7 @@
         <v>2.7777777777777779E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1429,7 +1427,7 @@
         <v>9.2592592592592591E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1468,7 +1466,7 @@
         <v>9.2592592592592589E-12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1507,7 +1505,7 @@
         <v>9.2592592592592589E-12</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1531,7 +1529,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1556,10 +1554,10 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1599,7 +1597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>90000000000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -1625,7 +1623,7 @@
         <v>72000000000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -1634,7 +1632,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -1643,7 +1641,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -1679,7 +1677,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -1697,12 +1695,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>B32</f>
         <v>transport, freight, sea, container ship, powered with electricity</v>
@@ -1763,7 +1761,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -1802,7 +1800,7 @@
         <v>4.3287037037037041E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1841,7 +1839,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -1880,7 +1878,7 @@
         <v>1.3888888888888888E-11</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1919,7 +1917,7 @@
         <v>1.3888888888888888E-11</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1943,8 +1941,7 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1952,7 +1949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1960,7 +1957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1976,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +1989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -2001,7 +1998,7 @@
         <v>144000000000</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -2028,7 +2025,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -2037,7 +2034,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -2046,7 +2043,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -2055,7 +2052,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -2064,7 +2061,7 @@
         <v>0.44020542920029343</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -2073,7 +2070,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -2082,12 +2079,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>13</v>
       </c>
@@ -2125,7 +2122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>B57</f>
         <v>transport, freight, sea, container ship, powered with liquid ammonia</v>
@@ -2148,7 +2145,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>57</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>9.5750128008192537E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>7.4074074074074075E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -2265,7 +2262,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -2304,7 +2301,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -2328,7 +2325,7 @@
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>2.1571959635416667E-6</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2400,7 +2397,7 @@
         <v>4.3143919270833341E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>62</v>
       </c>
@@ -2436,7 +2433,7 @@
         <v>3.3187630208333344E-7</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>63</v>
       </c>
@@ -2472,7 +2469,7 @@
         <v>4.6462682291666672E-8</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -2508,7 +2505,7 @@
         <v>6.6375260416666688E-7</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -2544,11 +2541,11 @@
         <v>2.1571959635416667E-6</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="J87" s="6"/>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -2564,7 +2561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -2572,7 +2569,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2596,7 +2593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2605,7 +2602,7 @@
         <v>144000000000</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2614,7 +2611,7 @@
         <v>135000000000</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2623,7 +2620,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -2632,7 +2629,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -2641,7 +2638,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>131</v>
       </c>
@@ -2668,7 +2665,7 @@
         <v>0.4369674459252787</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -2677,7 +2674,7 @@
         <v>0.32772558444395905</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -2686,12 +2683,12 @@
         <v>0.54620930740659834</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
@@ -2729,7 +2726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f>B88</f>
         <v>transport, freight, sea, container ship, powered with methanol</v>
@@ -2752,7 +2749,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -2791,7 +2788,7 @@
         <v>9.5577777777777744E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>44</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -2869,7 +2866,7 @@
         <v>7.4074074074074068E-12</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -2893,7 +2890,7 @@
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
     </row>
-    <row r="111" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>69</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>1.3094155555555553E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>61</v>
       </c>
@@ -2965,7 +2962,7 @@
         <v>9.7395833333333313E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -3001,7 +2998,7 @@
         <v>5.2756076388888881E-5</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>2.8407118055555551E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -3073,12 +3070,12 @@
         <v>9.9424913194444421E-9</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -3086,7 +3083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -3102,7 +3099,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -3118,7 +3115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -3135,7 +3132,7 @@
         <v>108000000000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>94</v>
       </c>
@@ -3144,7 +3141,7 @@
         <v>90000000000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -3153,7 +3150,7 @@
         <v>117000000000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -3162,7 +3159,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>159</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -3180,7 +3177,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -3189,7 +3186,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3198,7 +3195,7 @@
         <v>0.49342105263157898</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3207,7 +3204,7 @@
         <v>0.44407894736842107</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3216,12 +3213,12 @@
         <v>0.54276315789473695</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>13</v>
       </c>
@@ -3259,7 +3256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f>B117</f>
         <v>transport, freight, sea, container ship, powered with synthetic methane</v>
@@ -3282,7 +3279,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>109</v>
       </c>
@@ -3321,7 +3318,7 @@
         <v>4.432592592592593E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -3360,7 +3357,7 @@
         <v>1.1111111111111111E-11</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -3399,7 +3396,7 @@
         <v>1.1111111111111111E-11</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>52</v>
       </c>
@@ -3423,7 +3420,7 @@
       <c r="K139" s="11"/>
       <c r="L139" s="11"/>
     </row>
-    <row r="140" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>69</v>
       </c>
@@ -3459,7 +3456,7 @@
         <v>1.2145303703703706E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -3495,7 +3492,7 @@
         <v>4.4748771929824572E-5</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>2.8148421052631585E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -3567,7 +3564,7 @@
         <v>7.2175438596491244E-7</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>62</v>
       </c>
@@ -3603,7 +3600,7 @@
         <v>7.2175438596491244E-7</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>113</v>
       </c>
@@ -3639,7 +3636,7 @@
         <v>2.2273777777777779E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>63</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>9.1422222222222249E-6</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>114</v>
       </c>
@@ -3711,9 +3708,7 @@
         <v>4.81169590643275E-7</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
@@ -3721,7 +3716,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -3729,7 +3724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3737,7 +3732,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3745,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3753,7 +3748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -3761,7 +3756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>93</v>
       </c>
@@ -3770,7 +3765,7 @@
         <v>158400000000</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>94</v>
       </c>
@@ -3779,7 +3774,7 @@
         <v>153000000000</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>95</v>
       </c>
@@ -3788,7 +3783,7 @@
         <v>162000000000</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3797,7 +3792,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3806,7 +3801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3815,7 +3810,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>134</v>
       </c>
@@ -3824,7 +3819,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>131</v>
       </c>
@@ -3833,7 +3828,7 @@
         <v>0.49342105263157898</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -3842,7 +3837,7 @@
         <v>0.44407894736842107</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>133</v>
       </c>
@@ -3851,12 +3846,12 @@
         <v>0.54276315789473695</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>13</v>
       </c>
@@ -3894,7 +3889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <f>B150</f>
         <v>transport, freight, sea, container ship, powered with synthetic liquefied petroleum gas</v>
@@ -3917,7 +3912,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>115</v>
       </c>
@@ -3956,7 +3951,7 @@
         <v>2.6924315619967797E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>44</v>
       </c>
@@ -3995,7 +3990,7 @@
         <v>6.5359477124183003E-12</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>50</v>
       </c>
@@ -4034,7 +4029,7 @@
         <v>6.5359477124183003E-12</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>52</v>
       </c>
@@ -4058,7 +4053,7 @@
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
     </row>
-    <row r="173" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>69</v>
       </c>
@@ -4094,7 +4089,7 @@
         <v>8.0772946859903397E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>61</v>
       </c>
@@ -4130,7 +4125,7 @@
         <v>3.0192708333333338E-5</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -4166,7 +4161,7 @@
         <v>1.8992187500000003E-5</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>112</v>
       </c>
@@ -4202,7 +4197,7 @@
         <v>4.8697916666666668E-7</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>62</v>
       </c>
@@ -4238,7 +4233,7 @@
         <v>4.8697916666666668E-7</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>113</v>
       </c>
@@ -4274,7 +4269,7 @@
         <v>1.5681884057971014E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4310,7 +4305,7 @@
         <v>6.168402777777779E-6</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>114</v>
       </c>
@@ -4346,8 +4341,7 @@
         <v>3.2465277777777784E-7</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="182" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
@@ -4355,7 +4349,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -4363,7 +4357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -4371,7 +4365,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4379,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -4387,7 +4381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -4395,7 +4389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>93</v>
       </c>
@@ -4404,7 +4398,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>94</v>
       </c>
@@ -4413,7 +4407,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -4422,7 +4416,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>158</v>
       </c>
@@ -4430,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>159</v>
       </c>
@@ -4438,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>160</v>
       </c>
@@ -4446,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>134</v>
       </c>
@@ -4455,7 +4449,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>131</v>
       </c>
@@ -4464,7 +4458,7 @@
         <v>0.50434295320818157</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>132</v>
       </c>
@@ -4473,7 +4467,7 @@
         <v>0.4539086578873634</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>133</v>
       </c>
@@ -4482,12 +4476,12 @@
         <v>0.55477724852899979</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>13</v>
       </c>
@@ -4525,7 +4519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
         <f>B182</f>
         <v>transport, freight, sea, container ship, powered with diesel</v>
@@ -4548,7 +4542,7 @@
         <v>transport, freight, sea, container ship</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>179</v>
       </c>
@@ -4587,7 +4581,7 @@
         <v>2.2390063070316696E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>44</v>
       </c>
@@ -4614,7 +4608,7 @@
       <c r="K202" s="11"/>
       <c r="L202" s="11"/>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>50</v>
       </c>
@@ -4641,7 +4635,7 @@
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>52</v>
       </c>
@@ -4665,7 +4659,7 @@
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
     </row>
-    <row r="205" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>176</v>
       </c>
@@ -4701,7 +4695,7 @@
         <v>6.7170189210950092E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>177</v>
       </c>
@@ -4737,7 +4731,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -4773,7 +4767,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>62</v>
       </c>
@@ -4809,7 +4803,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>178</v>
       </c>
@@ -4845,7 +4839,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>63</v>
       </c>
@@ -4881,7 +4875,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>114</v>
       </c>
@@ -4917,8 +4911,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -4926,7 +4919,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -4934,7 +4927,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -4942,7 +4935,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -4950,7 +4943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -4958,7 +4951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -4966,7 +4959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>93</v>
       </c>
@@ -4975,7 +4968,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>94</v>
       </c>
@@ -4984,7 +4977,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +4986,7 @@
         <v>180000000000</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -5002,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>159</v>
       </c>
@@ -5011,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>160</v>
       </c>
@@ -5020,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>134</v>
       </c>
@@ -5029,7 +5022,7 @@
         <v>0.42500000000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>131</v>
       </c>
@@ -5038,7 +5031,7 @@
         <v>0.50434295320818157</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>132</v>
       </c>
@@ -5047,7 +5040,7 @@
         <v>0.4539086578873634</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>133</v>
       </c>
@@ -5056,12 +5049,12 @@
         <v>0.55477724852899979</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>13</v>
       </c>
@@ -5099,7 +5092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
         <f>B213</f>
         <v>transport, freight, sea, container ship, powered with synthetic diesel</v>
@@ -5140,7 +5133,7 @@
         <v>17</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H232" t="s">
         <v>171</v>
@@ -5161,7 +5154,7 @@
         <v>2.2390063070316696E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>44</v>
       </c>
@@ -5188,7 +5181,7 @@
       <c r="K233" s="11"/>
       <c r="L233" s="11"/>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>50</v>
       </c>
@@ -5215,7 +5208,7 @@
       <c r="K234" s="11"/>
       <c r="L234" s="11"/>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>52</v>
       </c>
@@ -5239,7 +5232,7 @@
       <c r="K235" s="11"/>
       <c r="L235" s="11"/>
     </row>
-    <row r="236" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>69</v>
       </c>
@@ -5275,7 +5268,7 @@
         <v>6.7170189210950092E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -5311,7 +5304,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -5347,7 +5340,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>62</v>
       </c>
@@ -5383,7 +5376,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>113</v>
       </c>
@@ -5419,7 +5412,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>63</v>
       </c>
@@ -5455,7 +5448,7 @@
         <v>2.4836784420289866E-5</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>114</v>
       </c>
@@ -5713,7 +5706,7 @@
         <v>17</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H263" t="s">
         <v>171</v>
@@ -6065,13 +6058,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O242" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="diesel production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O225" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81D883-22D7-C34C-BD65-0B4FBBF90690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269EC39B-B4CF-0948-B675-5D6B79FB850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35060" yWindow="-480" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="L274" sqref="L274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2215,12 +2215,12 @@
         <v>3.472222222222222E-8</v>
       </c>
       <c r="K77" s="9">
-        <f>350000/B65</f>
-        <v>2.2875816993464053E-6</v>
+        <f>3500/B65</f>
+        <v>2.2875816993464053E-8</v>
       </c>
       <c r="L77" s="9">
-        <f>1000000/B64</f>
-        <v>7.4074074074074075E-6</v>
+        <f>10000/B64</f>
+        <v>7.4074074074074073E-8</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4723,12 +4723,12 @@
         <v>1.0925271739130437E-5</v>
       </c>
       <c r="K206" s="6">
-        <f>0.00186*(B201*43*B196/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.0009*(B201*43*B196/3.6)</f>
+        <v>9.8327445652173915E-6</v>
       </c>
       <c r="L206" s="6">
-        <f>0.00186*(B201*43*B197/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.0009*(B201*43*B197/3.6)</f>
+        <v>1.2017798913043482E-5</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4759,12 +4759,12 @@
         <v>3.1561896135265709E-5</v>
       </c>
       <c r="K207" s="6">
-        <f>0.00186*(B201*43*B196/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.0026*(B201*43*B196/3.6)</f>
+        <v>2.8405706521739134E-5</v>
       </c>
       <c r="L207" s="6">
-        <f>0.00186*(B201*43*B197/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.0026*(B201*43*B197/3.6)</f>
+        <v>3.4718085748792285E-5</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4795,12 +4795,12 @@
         <v>3.0347977053140105E-6</v>
       </c>
       <c r="K208" s="6">
-        <f>0.00186*(B201*43*B196/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00025*(B201*43*B196/3.6)</f>
+        <v>2.7313179347826089E-6</v>
       </c>
       <c r="L208" s="6">
-        <f>0.00186*(B201*43*B197/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00025*(B201*43*B197/3.6)</f>
+        <v>3.3382774758454117E-6</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4831,12 +4831,12 @@
         <v>1.2139190821256042E-7</v>
       </c>
       <c r="K209" s="6">
-        <f>0.00186*(B201*43*B196/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00001*(B201*43*B196/3.6)</f>
+        <v>1.0925271739130436E-7</v>
       </c>
       <c r="L209" s="6">
-        <f>0.00186*(B201*43*B197/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00001*(B201*43*B197/3.6)</f>
+        <v>1.3353109903381649E-7</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4867,12 +4867,12 @@
         <v>4.9770682367149768E-6</v>
       </c>
       <c r="K210" s="6">
-        <f>0.00186*(B201*43*B196/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.0004*(B201*43*B196/3.6)</f>
+        <v>4.3701086956521745E-6</v>
       </c>
       <c r="L210" s="6">
-        <f>0.00186*(B201*43*B197/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.0004*(B201*43*B197/3.6)</f>
+        <v>5.3412439613526591E-6</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4903,12 +4903,12 @@
         <v>3.6417572463768126E-7</v>
       </c>
       <c r="K211" s="6">
-        <f>0.00186*(B201*43*B196/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00003*(B201*43*B196/3.6)</f>
+        <v>3.2775815217391311E-7</v>
       </c>
       <c r="L211" s="6">
-        <f>0.00186*(B201*43*B197/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00003*(B201*43*B197/3.6)</f>
+        <v>4.0059329710144941E-7</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5296,12 +5296,12 @@
         <v>1.0925271739130437E-5</v>
       </c>
       <c r="K237" s="6">
-        <f>0.00186*(B232*43*B227/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.0009*(B232*43*B227/3.6)</f>
+        <v>9.8327445652173915E-6</v>
       </c>
       <c r="L237" s="6">
-        <f>0.00186*(B232*43*B228/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.0009*(B232*43*B228/3.6)</f>
+        <v>1.2017798913043482E-5</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5332,12 +5332,12 @@
         <v>3.1561896135265709E-5</v>
       </c>
       <c r="K238" s="6">
-        <f>0.00186*(B232*43*B227/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.0026*(B232*43*B227/3.6)</f>
+        <v>2.8405706521739134E-5</v>
       </c>
       <c r="L238" s="6">
-        <f>0.00186*(B232*43*B228/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.0026*(B232*43*B228/3.6)</f>
+        <v>3.4718085748792285E-5</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5368,12 +5368,12 @@
         <v>3.0347977053140105E-6</v>
       </c>
       <c r="K239" s="6">
-        <f>0.00186*(B232*43*B227/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00025*(B232*43*B227/3.6)</f>
+        <v>2.7313179347826089E-6</v>
       </c>
       <c r="L239" s="6">
-        <f>0.00186*(B232*43*B228/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00025*(B232*43*B228/3.6)</f>
+        <v>3.3382774758454117E-6</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5404,12 +5404,12 @@
         <v>1.2139190821256042E-7</v>
       </c>
       <c r="K240" s="6">
-        <f>0.00186*(B232*43*B227/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00001*(B232*43*B227/3.6)</f>
+        <v>1.0925271739130436E-7</v>
       </c>
       <c r="L240" s="6">
-        <f>0.00186*(B232*43*B228/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00001*(B232*43*B228/3.6)</f>
+        <v>1.3353109903381649E-7</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5440,12 +5440,12 @@
         <v>4.9770682367149768E-6</v>
       </c>
       <c r="K241" s="6">
-        <f>0.00186*(B232*43*B227/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00041*(B232*43*B227/3.6)</f>
+        <v>4.4793614130434786E-6</v>
       </c>
       <c r="L241" s="6">
-        <f>0.00186*(B232*43*B228/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00041*(B232*43*B228/3.6)</f>
+        <v>5.4747750603864751E-6</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5476,12 +5476,12 @@
         <v>3.6417572463768126E-7</v>
       </c>
       <c r="K242" s="6">
-        <f>0.00186*(B232*43*B227/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00003*(B232*43*B227/3.6)</f>
+        <v>3.2775815217391311E-7</v>
       </c>
       <c r="L242" s="6">
-        <f>0.00186*(B232*43*B228/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00003*(B232*43*B228/3.6)</f>
+        <v>4.0059329710144941E-7</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5869,12 +5869,12 @@
         <v>1.0925271739130437E-5</v>
       </c>
       <c r="K268" s="6">
-        <f>0.00186*(B263*43*B258/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.0009*(B263*43*B258/3.6)</f>
+        <v>9.8327445652173915E-6</v>
       </c>
       <c r="L268" s="6">
-        <f>0.00186*(B263*43*B259/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.0009*(B263*43*B259/3.6)</f>
+        <v>1.2017798913043482E-5</v>
       </c>
     </row>
     <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5905,12 +5905,12 @@
         <v>3.1561896135265709E-5</v>
       </c>
       <c r="K269" s="6">
-        <f>0.00186*(B263*43*B258/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.0026*(B263*43*B258/3.6)</f>
+        <v>2.8405706521739134E-5</v>
       </c>
       <c r="L269" s="6">
-        <f>0.00186*(B263*43*B259/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.0026*(B263*43*B259/3.6)</f>
+        <v>3.4718085748792285E-5</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5941,12 +5941,12 @@
         <v>3.0347977053140105E-6</v>
       </c>
       <c r="K270" s="6">
-        <f>0.00186*(B263*43*B258/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00025*(B263*43*B258/3.6)</f>
+        <v>2.7313179347826089E-6</v>
       </c>
       <c r="L270" s="6">
-        <f>0.00186*(B263*43*B259/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00025*(B263*43*B259/3.6)</f>
+        <v>3.3382774758454117E-6</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5977,12 +5977,12 @@
         <v>1.2139190821256042E-7</v>
       </c>
       <c r="K271" s="6">
-        <f>0.00186*(B263*43*B258/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00001*(B263*43*B258/3.6)</f>
+        <v>1.0925271739130436E-7</v>
       </c>
       <c r="L271" s="6">
-        <f>0.00186*(B263*43*B259/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00001*(B263*43*B259/3.6)</f>
+        <v>1.3353109903381649E-7</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6013,12 +6013,12 @@
         <v>4.9770682367149768E-6</v>
       </c>
       <c r="K272" s="6">
-        <f>0.00186*(B263*43*B258/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00041*(B263*43*B258/3.6)</f>
+        <v>4.4793614130434786E-6</v>
       </c>
       <c r="L272" s="6">
-        <f>0.00186*(B263*43*B259/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00041*(B263*43*B259/3.6)</f>
+        <v>5.4747750603864751E-6</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6049,12 +6049,12 @@
         <v>3.6417572463768126E-7</v>
       </c>
       <c r="K273" s="6">
-        <f>0.00186*(B263*43*B258/3.6)</f>
-        <v>2.0321005434782613E-5</v>
+        <f>0.00003*(B263*43*B258/3.6)</f>
+        <v>3.2775815217391311E-7</v>
       </c>
       <c r="L273" s="6">
-        <f>0.00186*(B263*43*B259/3.6)</f>
-        <v>2.4836784420289866E-5</v>
+        <f>0.00003*(B263*43*B259/3.6)</f>
+        <v>4.0059329710144941E-7</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-ships.xlsx
+++ b/premise/data/additional_inventories/lci-ships.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269EC39B-B4CF-0948-B675-5D6B79FB850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF4F689-4E17-1741-A45E-48F2FB1E57CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="-480" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20240" yWindow="720" windowWidth="22420" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventories" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="197">
   <si>
     <t>Database</t>
   </si>
@@ -455,12 +455,6 @@
     <t>0.0048 kg CO/kWh shaft power. 38% efficiency. 19.9 MJ/kg methanol.</t>
   </si>
   <si>
-    <t>0.0026 kg NOx/kWh shaft power. 38% efficiency. 19.9 MJ/kg methanol.</t>
-  </si>
-  <si>
-    <t>0.00014 kg PM 2.5/kWh shaft power. 38% efficiency. 19.9 MJ/kg methanol.</t>
-  </si>
-  <si>
     <t>4.9e-7 kg Formaldehyde/kWh shaft power. 38% efficiency. 19.9 MJ/kg methanol.</t>
   </si>
   <si>
@@ -608,9 +602,6 @@
     <t>0.0026 kg NOx/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
   </si>
   <si>
-    <t>0.00025 kg PM 2.5/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
-  </si>
-  <si>
     <t>0.00001 kg CH4/kWh shaft power. 50% efficiency. 43 MJ/kg diesel.</t>
   </si>
   <si>
@@ -624,6 +615,18 @@
   </si>
   <si>
     <t>diesel, synthetic</t>
+  </si>
+  <si>
+    <t>Based on the ecoinvent dataset transport, freight, sea, container ship, to which we add an input of diesel and corresponding emissions. We assume a similar tank-to-wake efficiency as that of a martime oil-powered ship.</t>
+  </si>
+  <si>
+    <t>Wartsila reports an emission factor of about 0.7g NOx/MJ methanol: https://www.wartsila.com/insights/article/next-port-of-call-the-methanol-bunkering-station</t>
+  </si>
+  <si>
+    <t>Wartsila reports a 90% PM emission reduction relative to using HFO: https://www.wartsila.com/insights/article/next-port-of-call-the-methanol-bunkering-station</t>
+  </si>
+  <si>
+    <t>80% reduction relative to using HFO at 75% engine load, according to Petzold et al., 2011, dx.doi.org/10.1021/es2021439</t>
   </si>
 </sst>
 </file>
@@ -631,11 +634,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -698,7 +701,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
@@ -706,12 +709,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -720,17 +723,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="L274" sqref="L274"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1145,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" s="13">
         <f>parameters!I7</f>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="13">
         <f>parameters!J7</f>
@@ -1160,7 +1163,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="13">
         <f>parameters!K7</f>
@@ -1290,7 +1293,7 @@
         <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I23" s="5">
         <v>5</v>
@@ -1542,7 +1545,7 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B41" s="13">
         <f>parameters!I8</f>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B42" s="13">
         <f>parameters!J8</f>
@@ -1652,7 +1655,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B43" s="13">
         <f>parameters!K8</f>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B51" s="17">
         <f>0.11*(B44/B45)/3.6/(1-B41)</f>
@@ -1782,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I51">
         <v>5</v>
@@ -2018,7 +2021,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B66" s="13">
         <f>parameters!I6</f>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B67" s="13">
         <f>parameters!J6</f>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B68" s="13">
         <f>parameters!K6</f>
@@ -2166,7 +2169,7 @@
         <v>58</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I76">
         <v>5</v>
@@ -2622,7 +2625,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B97" s="13">
         <f>parameters!I5</f>
@@ -2631,7 +2634,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" s="13">
         <f>parameters!J5</f>
@@ -2640,7 +2643,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B99" s="13">
         <f>parameters!K5</f>
@@ -2770,7 +2773,7 @@
         <v>68</v>
       </c>
       <c r="H107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I107">
         <v>5</v>
@@ -2967,8 +2970,8 @@
         <v>24</v>
       </c>
       <c r="B113">
-        <f>0.0026*(B107*19.9*B101/3.6)</f>
-        <v>4.2204861111111112E-5</v>
+        <f>(0.7/1000)*19.9*B107</f>
+        <v>9.3613953124999986E-5</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -2980,22 +2983,22 @@
         <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="I113">
         <v>5</v>
       </c>
       <c r="J113" s="6">
         <f t="shared" si="2"/>
-        <v>4.2204861111111112E-5</v>
+        <v>9.3613953124999986E-5</v>
       </c>
       <c r="K113" s="6">
         <f>0.0026*(B107*19.9*B102/3.6)</f>
         <v>3.1653645833333329E-5</v>
       </c>
       <c r="L113" s="6">
-        <f>0.0026*(B107*19.9*B103/3.6)</f>
-        <v>5.2756076388888881E-5</v>
+        <f>J113*2</f>
+        <v>1.8722790624999997E-4</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3003,8 +3006,8 @@
         <v>62</v>
       </c>
       <c r="B114">
-        <f>0.00014*(B107*19.9*B101/3.6)</f>
-        <v>2.2725694444444443E-6</v>
+        <f>0.00695*B107*0.9</f>
+        <v>4.2035554687499993E-5</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -3016,22 +3019,22 @@
         <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="I114">
         <v>5</v>
       </c>
       <c r="J114" s="6">
         <f t="shared" si="2"/>
-        <v>2.2725694444444443E-6</v>
+        <v>4.2035554687499993E-5</v>
       </c>
       <c r="K114" s="6">
         <f>0.00014*(B107*19.9*B102/3.6)</f>
         <v>1.7044270833333331E-6</v>
       </c>
       <c r="L114" s="6">
-        <f>0.00014*(B107*19.9*B103/3.6)</f>
-        <v>2.8407118055555551E-6</v>
+        <f>J114*2</f>
+        <v>8.4071109374999985E-5</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3052,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I115">
         <v>5</v>
@@ -3152,7 +3155,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B126" s="13">
         <f>parameters!I10</f>
@@ -3161,7 +3164,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B127" s="13">
         <f>parameters!J10</f>
@@ -3170,7 +3173,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B128" s="13">
         <f>parameters!K10</f>
@@ -3300,7 +3303,7 @@
         <v>110</v>
       </c>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I136">
         <v>5</v>
@@ -3474,7 +3477,7 @@
         <v>20</v>
       </c>
       <c r="H141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I141">
         <v>5</v>
@@ -3510,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="H142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I142">
         <v>5</v>
@@ -3546,7 +3549,7 @@
         <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I143">
         <v>5</v>
@@ -3582,7 +3585,7 @@
         <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I144">
         <v>5</v>
@@ -3618,7 +3621,7 @@
         <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I145">
         <v>5</v>
@@ -3654,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="H146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I146">
         <v>5</v>
@@ -3690,7 +3693,7 @@
         <v>20</v>
       </c>
       <c r="H147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I147">
         <v>5</v>
@@ -3785,7 +3788,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B159" s="13">
         <f>parameters!I9</f>
@@ -3794,7 +3797,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B160" s="13">
         <f>parameters!J9</f>
@@ -3803,7 +3806,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B161" s="13">
         <f>parameters!K9</f>
@@ -3933,7 +3936,7 @@
         <v>116</v>
       </c>
       <c r="H169" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I169">
         <v>5</v>
@@ -4107,7 +4110,7 @@
         <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I174">
         <v>5</v>
@@ -4143,7 +4146,7 @@
         <v>20</v>
       </c>
       <c r="H175" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I175">
         <v>5</v>
@@ -4179,7 +4182,7 @@
         <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I176">
         <v>5</v>
@@ -4215,7 +4218,7 @@
         <v>20</v>
       </c>
       <c r="H177" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I177">
         <v>5</v>
@@ -4251,7 +4254,7 @@
         <v>20</v>
       </c>
       <c r="H178" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I178">
         <v>5</v>
@@ -4287,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="H179" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I179">
         <v>5</v>
@@ -4323,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="H180" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I180">
         <v>5</v>
@@ -4346,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -4354,7 +4357,7 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -4418,7 +4421,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B191" s="13">
         <v>0</v>
@@ -4426,7 +4429,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B192" s="13">
         <v>0</v>
@@ -4434,7 +4437,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B193" s="13">
         <v>0</v>
@@ -4544,14 +4547,14 @@
     </row>
     <row r="201" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B201" s="12">
         <f>0.11*(B194/B195)/46/(1-B191)</f>
         <v>2.0151056763285029E-3</v>
       </c>
       <c r="C201" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
@@ -4560,10 +4563,10 @@
         <v>17</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H201" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I201">
         <v>5</v>
@@ -4602,7 +4605,7 @@
         <v>43</v>
       </c>
       <c r="H202" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
@@ -4629,7 +4632,7 @@
         <v>49</v>
       </c>
       <c r="H203" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="205" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B205" s="12">
         <f>B201*3.15</f>
@@ -4677,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="H205" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I205">
         <v>5</v>
@@ -4697,7 +4700,7 @@
     </row>
     <row r="206" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B206" s="11">
         <f>0.0009*(B201*43*B195/3.6)</f>
@@ -4713,7 +4716,7 @@
         <v>20</v>
       </c>
       <c r="H206" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I206">
         <v>5</v>
@@ -4749,7 +4752,7 @@
         <v>20</v>
       </c>
       <c r="H207" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I207">
         <v>5</v>
@@ -4772,8 +4775,8 @@
         <v>62</v>
       </c>
       <c r="B208" s="11">
-        <f>0.00025*(B201*43*B195/3.6)</f>
-        <v>3.0347977053140105E-6</v>
+        <f>0.0000163*0.2</f>
+        <v>3.2600000000000001E-6</v>
       </c>
       <c r="D208" t="s">
         <v>23</v>
@@ -4785,27 +4788,27 @@
         <v>20</v>
       </c>
       <c r="H208" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I208">
         <v>5</v>
       </c>
       <c r="J208" s="6">
         <f t="shared" si="8"/>
-        <v>3.0347977053140105E-6</v>
+        <v>3.2600000000000001E-6</v>
       </c>
       <c r="K208" s="6">
         <f>0.00025*(B201*43*B196/3.6)</f>
         <v>2.7313179347826089E-6</v>
       </c>
       <c r="L208" s="6">
-        <f>0.00025*(B201*43*B197/3.6)</f>
-        <v>3.3382774758454117E-6</v>
+        <f>J208*2</f>
+        <v>6.5200000000000003E-6</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B209" s="11">
         <f>0.00001*(B201*43*B195/3.6)</f>
@@ -4821,7 +4824,7 @@
         <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I209">
         <v>5</v>
@@ -4857,7 +4860,7 @@
         <v>20</v>
       </c>
       <c r="H210" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I210">
         <v>5</v>
@@ -4893,7 +4896,7 @@
         <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I211">
         <v>5</v>
@@ -4916,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -4924,7 +4927,7 @@
         <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -4988,7 +4991,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B222" s="13">
         <f>parameters!I41</f>
@@ -4997,7 +5000,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B223" s="13">
         <f>parameters!J41</f>
@@ -5006,7 +5009,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B224" s="13">
         <f>parameters!K41</f>
@@ -5117,7 +5120,7 @@
     </row>
     <row r="232" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B232" s="12">
         <f>0.11*(B225/B226)/46/(1-B222)</f>
@@ -5133,10 +5136,10 @@
         <v>17</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H232" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I232">
         <v>5</v>
@@ -5250,7 +5253,7 @@
         <v>20</v>
       </c>
       <c r="H236" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I236">
         <v>5</v>
@@ -5286,7 +5289,7 @@
         <v>20</v>
       </c>
       <c r="H237" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I237">
         <v>5</v>
@@ -5322,7 +5325,7 @@
         <v>20</v>
       </c>
       <c r="H238" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I238">
         <v>5</v>
@@ -5345,8 +5348,8 @@
         <v>62</v>
       </c>
       <c r="B239" s="11">
-        <f>0.00025*(B232*43*B226/3.6)</f>
-        <v>3.0347977053140105E-6</v>
+        <f>0.0000163*0.2</f>
+        <v>3.2600000000000001E-6</v>
       </c>
       <c r="D239" t="s">
         <v>23</v>
@@ -5358,22 +5361,22 @@
         <v>20</v>
       </c>
       <c r="H239" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I239">
         <v>5</v>
       </c>
       <c r="J239" s="6">
         <f t="shared" si="9"/>
-        <v>3.0347977053140105E-6</v>
+        <v>3.2600000000000001E-6</v>
       </c>
       <c r="K239" s="6">
         <f>0.00025*(B232*43*B227/3.6)</f>
         <v>2.7313179347826089E-6</v>
       </c>
       <c r="L239" s="6">
-        <f>0.00025*(B232*43*B228/3.6)</f>
-        <v>3.3382774758454117E-6</v>
+        <f>J239*2</f>
+        <v>6.5200000000000003E-6</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5394,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="H240" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I240">
         <v>5</v>
@@ -5430,7 +5433,7 @@
         <v>20</v>
       </c>
       <c r="H241" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I241">
         <v>5</v>
@@ -5466,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="H242" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I242">
         <v>5</v>
@@ -5489,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -5497,7 +5500,7 @@
         <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -5561,7 +5564,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B253" s="13">
         <f>parameters!I72</f>
@@ -5570,7 +5573,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B254" s="13">
         <f>parameters!J72</f>
@@ -5579,7 +5582,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B255" s="13">
         <f>parameters!K72</f>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="263" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B263" s="12">
         <f>0.11*(B256/B257)/46/(1-B253)</f>
@@ -5706,10 +5709,10 @@
         <v>17</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H263" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I263">
         <v>5</v>
@@ -5823,7 +5826,7 @@
         <v>20</v>
       </c>
       <c r="H267" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I267">
         <v>5</v>
@@ -5859,7 +5862,7 @@
         <v>20</v>
       </c>
       <c r="H268" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I268">
         <v>5</v>
@@ -5895,7 +5898,7 @@
         <v>20</v>
       </c>
       <c r="H269" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I269">
         <v>5</v>
@@ -5918,8 +5921,8 @@
         <v>62</v>
       </c>
       <c r="B270" s="11">
-        <f>0.00025*(B263*43*B257/3.6)</f>
-        <v>3.0347977053140105E-6</v>
+        <f>0.0000163*0.2</f>
+        <v>3.2600000000000001E-6</v>
       </c>
       <c r="D270" t="s">
         <v>23</v>
@@ -5931,22 +5934,22 @@
         <v>20</v>
       </c>
       <c r="H270" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I270">
         <v>5</v>
       </c>
       <c r="J270" s="6">
         <f t="shared" si="10"/>
-        <v>3.0347977053140105E-6</v>
+        <v>3.2600000000000001E-6</v>
       </c>
       <c r="K270" s="6">
         <f>0.00025*(B263*43*B258/3.6)</f>
         <v>2.7313179347826089E-6</v>
       </c>
       <c r="L270" s="6">
-        <f>0.00025*(B263*43*B259/3.6)</f>
-        <v>3.3382774758454117E-6</v>
+        <f>J270*2</f>
+        <v>6.5200000000000003E-6</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5967,7 +5970,7 @@
         <v>20</v>
       </c>
       <c r="H271" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I271">
         <v>5</v>
@@ -6003,7 +6006,7 @@
         <v>20</v>
       </c>
       <c r="H272" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I272">
         <v>5</v>
@@ -6039,7 +6042,7 @@
         <v>20</v>
       </c>
       <c r="H273" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I273">
         <v>5</v>
@@ -6146,7 +6149,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -6532,7 +6535,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="14">
         <f>AVERAGE(D15:E15)</f>
@@ -6643,7 +6646,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22" s="14">
         <f>3.6/(0.166*43)</f>
@@ -6660,7 +6663,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
